--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999014816942838</v>
+        <v>0.9999014816942856</v>
       </c>
       <c r="D2">
-        <v>1.018201146356347</v>
+        <v>1.018201146356349</v>
       </c>
       <c r="E2">
-        <v>1.007736922244149</v>
+        <v>1.007736922244151</v>
       </c>
       <c r="F2">
-        <v>1.016482305755258</v>
+        <v>1.01648230575526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045684909893642</v>
+        <v>1.045684909893643</v>
       </c>
       <c r="J2">
-        <v>1.022085139827242</v>
+        <v>1.022085139827244</v>
       </c>
       <c r="K2">
-        <v>1.029412602839057</v>
+        <v>1.029412602839059</v>
       </c>
       <c r="L2">
-        <v>1.019089511598535</v>
+        <v>1.019089511598536</v>
       </c>
       <c r="M2">
-        <v>1.027716694017575</v>
+        <v>1.027716694017576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -500,31 +500,31 @@
         <v>1.011715654022306</v>
       </c>
       <c r="D4">
-        <v>1.027168787202824</v>
+        <v>1.027168787202823</v>
       </c>
       <c r="E4">
-        <v>1.017753615751753</v>
+        <v>1.017753615751752</v>
       </c>
       <c r="F4">
-        <v>1.027728177831502</v>
+        <v>1.027728177831501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054166763584</v>
+        <v>1.050054166763583</v>
       </c>
       <c r="J4">
-        <v>1.030824346887791</v>
+        <v>1.03082434688779</v>
       </c>
       <c r="K4">
-        <v>1.036950004492123</v>
+        <v>1.036950004492122</v>
       </c>
       <c r="L4">
         <v>1.027642390132995</v>
       </c>
       <c r="M4">
-        <v>1.037503081177646</v>
+        <v>1.037503081177645</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013599293686221</v>
+        <v>1.01359929368622</v>
       </c>
       <c r="D5">
-        <v>1.028599550680202</v>
+        <v>1.028599550680201</v>
       </c>
       <c r="E5">
         <v>1.019353234883723</v>
       </c>
       <c r="F5">
-        <v>1.029524811716176</v>
+        <v>1.029524811716175</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050743855498653</v>
       </c>
       <c r="J5">
-        <v>1.032215380317293</v>
+        <v>1.032215380317292</v>
       </c>
       <c r="K5">
-        <v>1.038148371695931</v>
+        <v>1.03814837169593</v>
       </c>
       <c r="L5">
         <v>1.029004673681281</v>
       </c>
       <c r="M5">
-        <v>1.039063488575933</v>
+        <v>1.039063488575932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013913754219378</v>
+        <v>1.013913754219377</v>
       </c>
       <c r="D6">
         <v>1.028838428225763</v>
@@ -591,16 +591,16 @@
         <v>1.050858792171216</v>
       </c>
       <c r="J6">
-        <v>1.032447533165502</v>
+        <v>1.032447533165501</v>
       </c>
       <c r="K6">
-        <v>1.038348329434263</v>
+        <v>1.038348329434262</v>
       </c>
       <c r="L6">
-        <v>1.029232053807952</v>
+        <v>1.029232053807951</v>
       </c>
       <c r="M6">
-        <v>1.039323985259912</v>
+        <v>1.039323985259911</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.017775089259277</v>
       </c>
       <c r="F7">
-        <v>1.02775229464577</v>
+        <v>1.027752294645771</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.050063440801652</v>
       </c>
       <c r="J7">
-        <v>1.030843029055917</v>
+        <v>1.030843029055918</v>
       </c>
       <c r="K7">
         <v>1.036966101789356</v>
@@ -638,7 +638,7 @@
         <v>1.027660684461766</v>
       </c>
       <c r="M7">
-        <v>1.037524032949377</v>
+        <v>1.037524032949378</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,7 +652,7 @@
         <v>1.002384599740829</v>
       </c>
       <c r="D8">
-        <v>1.020084988032592</v>
+        <v>1.020084988032593</v>
       </c>
       <c r="E8">
         <v>1.009839921113151</v>
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.984730572649923</v>
+        <v>0.9847305726499223</v>
       </c>
       <c r="D9">
-        <v>1.006705966421505</v>
+        <v>1.006705966421504</v>
       </c>
       <c r="E9">
-        <v>0.9949158011261066</v>
+        <v>0.994915801126106</v>
       </c>
       <c r="F9">
         <v>1.002096753325839</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039981240567679</v>
+        <v>1.039981240567678</v>
       </c>
       <c r="J9">
-        <v>1.010834300589249</v>
+        <v>1.010834300589248</v>
       </c>
       <c r="K9">
-        <v>1.019691172941246</v>
+        <v>1.019691172941245</v>
       </c>
       <c r="L9">
         <v>1.008091908034463</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9720314298249983</v>
+        <v>0.9720314298249993</v>
       </c>
       <c r="D10">
-        <v>0.9971066211924786</v>
+        <v>0.9971066211924795</v>
       </c>
       <c r="E10">
-        <v>0.9842207878778669</v>
+        <v>0.9842207878778684</v>
       </c>
       <c r="F10">
-        <v>0.9901019156531053</v>
+        <v>0.9901019156531063</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.035143460446311</v>
       </c>
       <c r="J10">
-        <v>1.001400405569878</v>
+        <v>1.001400405569879</v>
       </c>
       <c r="K10">
-        <v>1.011528313738455</v>
+        <v>1.011528313738457</v>
       </c>
       <c r="L10">
-        <v>0.9988809076287316</v>
+        <v>0.9988809076287332</v>
       </c>
       <c r="M10">
-        <v>1.004652212751371</v>
+        <v>1.004652212751372</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9662738555920953</v>
+        <v>0.9662738555920946</v>
       </c>
       <c r="D11">
-        <v>0.9927625455050493</v>
+        <v>0.9927625455050487</v>
       </c>
       <c r="E11">
-        <v>0.9793833821620569</v>
+        <v>0.9793833821620563</v>
       </c>
       <c r="F11">
-        <v>0.9846776202356619</v>
+        <v>0.9846776202356613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032934644807523</v>
+        <v>1.032934644807522</v>
       </c>
       <c r="J11">
-        <v>0.9971202483889209</v>
+        <v>0.9971202483889202</v>
       </c>
       <c r="K11">
         <v>1.007822252576174</v>
       </c>
       <c r="L11">
-        <v>0.9947048600351744</v>
+        <v>0.9947048600351738</v>
       </c>
       <c r="M11">
-        <v>0.999894396975295</v>
+        <v>0.9998943969752945</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9640925827843835</v>
+        <v>0.9640925827843839</v>
       </c>
       <c r="D12">
-        <v>0.991118214510665</v>
+        <v>0.9911182145106655</v>
       </c>
       <c r="E12">
-        <v>0.9775526369322047</v>
+        <v>0.9775526369322054</v>
       </c>
       <c r="F12">
-        <v>0.9826248844160529</v>
+        <v>0.9826248844160536</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032095624649769</v>
       </c>
       <c r="J12">
-        <v>0.995498377099488</v>
+        <v>0.9954983770994887</v>
       </c>
       <c r="K12">
-        <v>1.006417576951512</v>
+        <v>1.006417576951513</v>
       </c>
       <c r="L12">
-        <v>0.9931229102596553</v>
+        <v>0.9931229102596557</v>
       </c>
       <c r="M12">
-        <v>0.9980927105212511</v>
+        <v>0.9980927105212518</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96456246960573</v>
+        <v>0.9645624696057311</v>
       </c>
       <c r="D13">
-        <v>0.9914723656155134</v>
+        <v>0.9914723656155142</v>
       </c>
       <c r="E13">
-        <v>0.9779469237449646</v>
+        <v>0.9779469237449659</v>
       </c>
       <c r="F13">
-        <v>0.9830669763301993</v>
+        <v>0.9830669763302002</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032276462691962</v>
       </c>
       <c r="J13">
-        <v>0.9958477707382062</v>
+        <v>0.9958477707382076</v>
       </c>
       <c r="K13">
-        <v>1.006720195824658</v>
+        <v>1.006720195824659</v>
       </c>
       <c r="L13">
-        <v>0.993463682072654</v>
+        <v>0.9934636820726553</v>
       </c>
       <c r="M13">
-        <v>0.99848078723241</v>
+        <v>0.998480787232411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9660944446789067</v>
+        <v>0.9660944446789059</v>
       </c>
       <c r="D14">
-        <v>0.9926272679579404</v>
+        <v>0.9926272679579401</v>
       </c>
       <c r="E14">
-        <v>0.9792327622827263</v>
+        <v>0.9792327622827255</v>
       </c>
       <c r="F14">
-        <v>0.9845087343878265</v>
+        <v>0.9845087343878256</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032865678896942</v>
       </c>
       <c r="J14">
-        <v>0.9969868543085193</v>
+        <v>0.9969868543085186</v>
       </c>
       <c r="K14">
-        <v>1.007706728941747</v>
+        <v>1.007706728941746</v>
       </c>
       <c r="L14">
-        <v>0.9945747396776481</v>
+        <v>0.9945747396776473</v>
       </c>
       <c r="M14">
-        <v>0.9997461894930496</v>
+        <v>0.9997461894930489</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9670325714585618</v>
+        <v>0.9670325714585627</v>
       </c>
       <c r="D15">
-        <v>0.9933346841406597</v>
+        <v>0.9933346841406602</v>
       </c>
       <c r="E15">
-        <v>0.9800204219477723</v>
+        <v>0.9800204219477731</v>
       </c>
       <c r="F15">
-        <v>0.9853919198153431</v>
+        <v>0.9853919198153439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033226207866234</v>
+        <v>1.033226207866235</v>
       </c>
       <c r="J15">
-        <v>0.9976843500870555</v>
+        <v>0.9976843500870561</v>
       </c>
       <c r="K15">
         <v>1.008310769312734</v>
       </c>
       <c r="L15">
-        <v>0.9952551369956275</v>
+        <v>0.9952551369956285</v>
       </c>
       <c r="M15">
-        <v>1.000521190339574</v>
+        <v>1.000521190339575</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724077781443342</v>
+        <v>0.9724077781443358</v>
       </c>
       <c r="D16">
-        <v>0.9973907602702926</v>
+        <v>0.9973907602702933</v>
       </c>
       <c r="E16">
-        <v>0.9845372422866444</v>
+        <v>0.984537242286646</v>
       </c>
       <c r="F16">
-        <v>0.9904567818908303</v>
+        <v>0.9904567818908314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035287531456457</v>
+        <v>1.035287531456458</v>
       </c>
       <c r="J16">
-        <v>1.001680129889751</v>
+        <v>1.001680129889752</v>
       </c>
       <c r="K16">
-        <v>1.011770468901079</v>
+        <v>1.01177046890108</v>
       </c>
       <c r="L16">
-        <v>0.9991538915477659</v>
+        <v>0.9991538915477675</v>
       </c>
       <c r="M16">
-        <v>1.004963315201236</v>
+        <v>1.004963315201237</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9757077119910279</v>
+        <v>0.9757077119910267</v>
       </c>
       <c r="D17">
-        <v>0.9998831130332996</v>
+        <v>0.9998831130332981</v>
       </c>
       <c r="E17">
-        <v>0.9873133284368206</v>
+        <v>0.9873133284368194</v>
       </c>
       <c r="F17">
-        <v>0.9935699468277585</v>
+        <v>0.9935699468277573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036549060191793</v>
+        <v>1.036549060191792</v>
       </c>
       <c r="J17">
-        <v>1.004132512497536</v>
+        <v>1.004132512497535</v>
       </c>
       <c r="K17">
-        <v>1.013893192011935</v>
+        <v>1.013893192011934</v>
       </c>
       <c r="L17">
-        <v>1.001547518657692</v>
+        <v>1.001547518657691</v>
       </c>
       <c r="M17">
-        <v>1.007691665369139</v>
+        <v>1.007691665369138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9776078210181837</v>
+        <v>0.9776078210181852</v>
       </c>
       <c r="D18">
-        <v>1.001318960439649</v>
+        <v>1.00131896043965</v>
       </c>
       <c r="E18">
-        <v>0.9889128738010732</v>
+        <v>0.9889128738010747</v>
       </c>
       <c r="F18">
-        <v>0.9953638114932031</v>
+        <v>0.9953638114932043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037273993163916</v>
+        <v>1.037273993163917</v>
       </c>
       <c r="J18">
-        <v>1.005544310108645</v>
+        <v>1.005544310108647</v>
       </c>
       <c r="K18">
-        <v>1.015114965681043</v>
+        <v>1.015114965681044</v>
       </c>
       <c r="L18">
-        <v>1.002925769782068</v>
+        <v>1.00292576978207</v>
       </c>
       <c r="M18">
-        <v>1.009263054355135</v>
+        <v>1.009263054355136</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782516285253346</v>
+        <v>0.9782516285253342</v>
       </c>
       <c r="D19">
         <v>1.001805584170635</v>
       </c>
       <c r="E19">
-        <v>0.9894550184977541</v>
+        <v>0.9894550184977534</v>
       </c>
       <c r="F19">
-        <v>0.9959718358303592</v>
+        <v>0.9959718358303581</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,10 +1085,10 @@
         <v>1.037519369180732</v>
       </c>
       <c r="J19">
-        <v>1.00602261206289</v>
+        <v>1.006022612062889</v>
       </c>
       <c r="K19">
-        <v>1.015528846977054</v>
+        <v>1.015528846977053</v>
       </c>
       <c r="L19">
         <v>1.003392753079766</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753562394688829</v>
+        <v>0.9753562394688837</v>
       </c>
       <c r="D20">
-        <v>0.999617576205272</v>
+        <v>0.9996175762052726</v>
       </c>
       <c r="E20">
-        <v>0.9870175380185749</v>
+        <v>0.9870175380185755</v>
       </c>
       <c r="F20">
-        <v>0.9932382308093956</v>
+        <v>0.9932382308093958</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.036414846850475</v>
       </c>
       <c r="J20">
-        <v>1.003871341025434</v>
+        <v>1.003871341025435</v>
       </c>
       <c r="K20">
-        <v>1.013667153409229</v>
+        <v>1.01366715340923</v>
       </c>
       <c r="L20">
-        <v>1.001292575403776</v>
+        <v>1.001292575403777</v>
       </c>
       <c r="M20">
         <v>1.007401029028511</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9656445265428883</v>
+        <v>0.9656445265428906</v>
       </c>
       <c r="D21">
-        <v>0.9922880492053018</v>
+        <v>0.9922880492053036</v>
       </c>
       <c r="E21">
-        <v>0.9788550764554724</v>
+        <v>0.9788550764554742</v>
       </c>
       <c r="F21">
-        <v>0.9840852476926254</v>
+        <v>0.9840852476926268</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032692694457783</v>
       </c>
       <c r="J21">
-        <v>0.9966523302748119</v>
+        <v>0.996652330274814</v>
       </c>
       <c r="K21">
-        <v>1.007417014787871</v>
+        <v>1.007417014787873</v>
       </c>
       <c r="L21">
-        <v>0.9942484331100818</v>
+        <v>0.9942484331100838</v>
       </c>
       <c r="M21">
-        <v>0.9993745357029463</v>
+        <v>0.9993745357029478</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592893449496483</v>
+        <v>0.9592893449496491</v>
       </c>
       <c r="D22">
-        <v>0.987500249831415</v>
+        <v>0.987500249831416</v>
       </c>
       <c r="E22">
-        <v>0.9735250421859672</v>
+        <v>0.9735250421859682</v>
       </c>
       <c r="F22">
-        <v>0.9781091005178615</v>
+        <v>0.9781091005178626</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030244145822618</v>
       </c>
       <c r="J22">
-        <v>0.9919265208260108</v>
+        <v>0.9919265208260116</v>
       </c>
       <c r="K22">
-        <v>1.003323463793753</v>
+        <v>1.003323463793754</v>
       </c>
       <c r="L22">
-        <v>0.989639872431008</v>
+        <v>0.989639872431009</v>
       </c>
       <c r="M22">
-        <v>0.9941270618388759</v>
+        <v>0.9941270618388769</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9626833534459376</v>
+        <v>0.9626833534459392</v>
       </c>
       <c r="D23">
-        <v>0.9900563144004909</v>
+        <v>0.9900563144004924</v>
       </c>
       <c r="E23">
-        <v>0.9763704352304957</v>
+        <v>0.9763704352304973</v>
       </c>
       <c r="F23">
-        <v>0.9812993623631989</v>
+        <v>0.9812993623632004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031552963022685</v>
+        <v>1.031552963022687</v>
       </c>
       <c r="J23">
-        <v>0.9944504801924483</v>
+        <v>0.99445048019245</v>
       </c>
       <c r="K23">
-        <v>1.005509919093934</v>
+        <v>1.005509919093935</v>
       </c>
       <c r="L23">
-        <v>0.9921009429190699</v>
+        <v>0.9921009429190716</v>
       </c>
       <c r="M23">
-        <v>0.9969289714532297</v>
+        <v>0.996928971453231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.975515130781771</v>
+        <v>0.9755151307817723</v>
       </c>
       <c r="D24">
-        <v>0.9997376159928202</v>
+        <v>0.9997376159928213</v>
       </c>
       <c r="E24">
-        <v>0.9871512536360664</v>
+        <v>0.9871512536360675</v>
       </c>
       <c r="F24">
-        <v>0.9933881867173091</v>
+        <v>0.9933881867173104</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036475525645774</v>
       </c>
       <c r="J24">
-        <v>1.003989410561443</v>
+        <v>1.003989410561444</v>
       </c>
       <c r="K24">
-        <v>1.013769340955644</v>
+        <v>1.013769340955645</v>
       </c>
       <c r="L24">
-        <v>1.001407828444983</v>
+        <v>1.001407828444985</v>
       </c>
       <c r="M24">
-        <v>1.007532416705545</v>
+        <v>1.007532416705547</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9894467787166363</v>
+        <v>0.9894467787166369</v>
       </c>
       <c r="D25">
-        <v>1.010276601171047</v>
+        <v>1.010276601171048</v>
       </c>
       <c r="E25">
-        <v>0.99889642544596</v>
+        <v>0.9988964254459606</v>
       </c>
       <c r="F25">
         <v>1.006562231042927</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041764123725696</v>
+        <v>1.041764123725697</v>
       </c>
       <c r="J25">
-        <v>1.014334596208094</v>
+        <v>1.014334596208095</v>
       </c>
       <c r="K25">
-        <v>1.022717453601984</v>
+        <v>1.022717453601985</v>
       </c>
       <c r="L25">
-        <v>1.011511897178427</v>
+        <v>1.011511897178428</v>
       </c>
       <c r="M25">
         <v>1.019059523837681</v>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999014816942856</v>
+        <v>0.9999014816942838</v>
       </c>
       <c r="D2">
-        <v>1.018201146356349</v>
+        <v>1.018201146356347</v>
       </c>
       <c r="E2">
-        <v>1.007736922244151</v>
+        <v>1.007736922244149</v>
       </c>
       <c r="F2">
-        <v>1.01648230575526</v>
+        <v>1.016482305755258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045684909893643</v>
+        <v>1.045684909893642</v>
       </c>
       <c r="J2">
-        <v>1.022085139827244</v>
+        <v>1.022085139827242</v>
       </c>
       <c r="K2">
-        <v>1.029412602839059</v>
+        <v>1.029412602839057</v>
       </c>
       <c r="L2">
-        <v>1.019089511598536</v>
+        <v>1.019089511598535</v>
       </c>
       <c r="M2">
-        <v>1.027716694017576</v>
+        <v>1.027716694017575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -500,31 +500,31 @@
         <v>1.011715654022306</v>
       </c>
       <c r="D4">
-        <v>1.027168787202823</v>
+        <v>1.027168787202824</v>
       </c>
       <c r="E4">
-        <v>1.017753615751752</v>
+        <v>1.017753615751753</v>
       </c>
       <c r="F4">
-        <v>1.027728177831501</v>
+        <v>1.027728177831502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054166763583</v>
+        <v>1.050054166763584</v>
       </c>
       <c r="J4">
-        <v>1.03082434688779</v>
+        <v>1.030824346887791</v>
       </c>
       <c r="K4">
-        <v>1.036950004492122</v>
+        <v>1.036950004492123</v>
       </c>
       <c r="L4">
         <v>1.027642390132995</v>
       </c>
       <c r="M4">
-        <v>1.037503081177645</v>
+        <v>1.037503081177646</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01359929368622</v>
+        <v>1.013599293686221</v>
       </c>
       <c r="D5">
-        <v>1.028599550680201</v>
+        <v>1.028599550680202</v>
       </c>
       <c r="E5">
         <v>1.019353234883723</v>
       </c>
       <c r="F5">
-        <v>1.029524811716175</v>
+        <v>1.029524811716176</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050743855498653</v>
       </c>
       <c r="J5">
-        <v>1.032215380317292</v>
+        <v>1.032215380317293</v>
       </c>
       <c r="K5">
-        <v>1.03814837169593</v>
+        <v>1.038148371695931</v>
       </c>
       <c r="L5">
         <v>1.029004673681281</v>
       </c>
       <c r="M5">
-        <v>1.039063488575932</v>
+        <v>1.039063488575933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013913754219377</v>
+        <v>1.013913754219378</v>
       </c>
       <c r="D6">
         <v>1.028838428225763</v>
@@ -591,16 +591,16 @@
         <v>1.050858792171216</v>
       </c>
       <c r="J6">
-        <v>1.032447533165501</v>
+        <v>1.032447533165502</v>
       </c>
       <c r="K6">
-        <v>1.038348329434262</v>
+        <v>1.038348329434263</v>
       </c>
       <c r="L6">
-        <v>1.029232053807951</v>
+        <v>1.029232053807952</v>
       </c>
       <c r="M6">
-        <v>1.039323985259911</v>
+        <v>1.039323985259912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.017775089259277</v>
       </c>
       <c r="F7">
-        <v>1.027752294645771</v>
+        <v>1.02775229464577</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.050063440801652</v>
       </c>
       <c r="J7">
-        <v>1.030843029055918</v>
+        <v>1.030843029055917</v>
       </c>
       <c r="K7">
         <v>1.036966101789356</v>
@@ -638,7 +638,7 @@
         <v>1.027660684461766</v>
       </c>
       <c r="M7">
-        <v>1.037524032949378</v>
+        <v>1.037524032949377</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,7 +652,7 @@
         <v>1.002384599740829</v>
       </c>
       <c r="D8">
-        <v>1.020084988032593</v>
+        <v>1.020084988032592</v>
       </c>
       <c r="E8">
         <v>1.009839921113151</v>
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847305726499223</v>
+        <v>0.984730572649923</v>
       </c>
       <c r="D9">
-        <v>1.006705966421504</v>
+        <v>1.006705966421505</v>
       </c>
       <c r="E9">
-        <v>0.994915801126106</v>
+        <v>0.9949158011261066</v>
       </c>
       <c r="F9">
         <v>1.002096753325839</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039981240567678</v>
+        <v>1.039981240567679</v>
       </c>
       <c r="J9">
-        <v>1.010834300589248</v>
+        <v>1.010834300589249</v>
       </c>
       <c r="K9">
-        <v>1.019691172941245</v>
+        <v>1.019691172941246</v>
       </c>
       <c r="L9">
         <v>1.008091908034463</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9720314298249993</v>
+        <v>0.9720314298249983</v>
       </c>
       <c r="D10">
-        <v>0.9971066211924795</v>
+        <v>0.9971066211924786</v>
       </c>
       <c r="E10">
-        <v>0.9842207878778684</v>
+        <v>0.9842207878778669</v>
       </c>
       <c r="F10">
-        <v>0.9901019156531063</v>
+        <v>0.9901019156531053</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.035143460446311</v>
       </c>
       <c r="J10">
-        <v>1.001400405569879</v>
+        <v>1.001400405569878</v>
       </c>
       <c r="K10">
-        <v>1.011528313738457</v>
+        <v>1.011528313738455</v>
       </c>
       <c r="L10">
-        <v>0.9988809076287332</v>
+        <v>0.9988809076287316</v>
       </c>
       <c r="M10">
-        <v>1.004652212751372</v>
+        <v>1.004652212751371</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9662738555920946</v>
+        <v>0.9662738555920953</v>
       </c>
       <c r="D11">
-        <v>0.9927625455050487</v>
+        <v>0.9927625455050493</v>
       </c>
       <c r="E11">
-        <v>0.9793833821620563</v>
+        <v>0.9793833821620569</v>
       </c>
       <c r="F11">
-        <v>0.9846776202356613</v>
+        <v>0.9846776202356619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032934644807522</v>
+        <v>1.032934644807523</v>
       </c>
       <c r="J11">
-        <v>0.9971202483889202</v>
+        <v>0.9971202483889209</v>
       </c>
       <c r="K11">
         <v>1.007822252576174</v>
       </c>
       <c r="L11">
-        <v>0.9947048600351738</v>
+        <v>0.9947048600351744</v>
       </c>
       <c r="M11">
-        <v>0.9998943969752945</v>
+        <v>0.999894396975295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9640925827843839</v>
+        <v>0.9640925827843835</v>
       </c>
       <c r="D12">
-        <v>0.9911182145106655</v>
+        <v>0.991118214510665</v>
       </c>
       <c r="E12">
-        <v>0.9775526369322054</v>
+        <v>0.9775526369322047</v>
       </c>
       <c r="F12">
-        <v>0.9826248844160536</v>
+        <v>0.9826248844160529</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032095624649769</v>
       </c>
       <c r="J12">
-        <v>0.9954983770994887</v>
+        <v>0.995498377099488</v>
       </c>
       <c r="K12">
-        <v>1.006417576951513</v>
+        <v>1.006417576951512</v>
       </c>
       <c r="L12">
-        <v>0.9931229102596557</v>
+        <v>0.9931229102596553</v>
       </c>
       <c r="M12">
-        <v>0.9980927105212518</v>
+        <v>0.9980927105212511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9645624696057311</v>
+        <v>0.96456246960573</v>
       </c>
       <c r="D13">
-        <v>0.9914723656155142</v>
+        <v>0.9914723656155134</v>
       </c>
       <c r="E13">
-        <v>0.9779469237449659</v>
+        <v>0.9779469237449646</v>
       </c>
       <c r="F13">
-        <v>0.9830669763302002</v>
+        <v>0.9830669763301993</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032276462691962</v>
       </c>
       <c r="J13">
-        <v>0.9958477707382076</v>
+        <v>0.9958477707382062</v>
       </c>
       <c r="K13">
-        <v>1.006720195824659</v>
+        <v>1.006720195824658</v>
       </c>
       <c r="L13">
-        <v>0.9934636820726553</v>
+        <v>0.993463682072654</v>
       </c>
       <c r="M13">
-        <v>0.998480787232411</v>
+        <v>0.99848078723241</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9660944446789059</v>
+        <v>0.9660944446789067</v>
       </c>
       <c r="D14">
-        <v>0.9926272679579401</v>
+        <v>0.9926272679579404</v>
       </c>
       <c r="E14">
-        <v>0.9792327622827255</v>
+        <v>0.9792327622827263</v>
       </c>
       <c r="F14">
-        <v>0.9845087343878256</v>
+        <v>0.9845087343878265</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032865678896942</v>
       </c>
       <c r="J14">
-        <v>0.9969868543085186</v>
+        <v>0.9969868543085193</v>
       </c>
       <c r="K14">
-        <v>1.007706728941746</v>
+        <v>1.007706728941747</v>
       </c>
       <c r="L14">
-        <v>0.9945747396776473</v>
+        <v>0.9945747396776481</v>
       </c>
       <c r="M14">
-        <v>0.9997461894930489</v>
+        <v>0.9997461894930496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9670325714585627</v>
+        <v>0.9670325714585618</v>
       </c>
       <c r="D15">
-        <v>0.9933346841406602</v>
+        <v>0.9933346841406597</v>
       </c>
       <c r="E15">
-        <v>0.9800204219477731</v>
+        <v>0.9800204219477723</v>
       </c>
       <c r="F15">
-        <v>0.9853919198153439</v>
+        <v>0.9853919198153431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033226207866235</v>
+        <v>1.033226207866234</v>
       </c>
       <c r="J15">
-        <v>0.9976843500870561</v>
+        <v>0.9976843500870555</v>
       </c>
       <c r="K15">
         <v>1.008310769312734</v>
       </c>
       <c r="L15">
-        <v>0.9952551369956285</v>
+        <v>0.9952551369956275</v>
       </c>
       <c r="M15">
-        <v>1.000521190339575</v>
+        <v>1.000521190339574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724077781443358</v>
+        <v>0.9724077781443342</v>
       </c>
       <c r="D16">
-        <v>0.9973907602702933</v>
+        <v>0.9973907602702926</v>
       </c>
       <c r="E16">
-        <v>0.984537242286646</v>
+        <v>0.9845372422866444</v>
       </c>
       <c r="F16">
-        <v>0.9904567818908314</v>
+        <v>0.9904567818908303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035287531456458</v>
+        <v>1.035287531456457</v>
       </c>
       <c r="J16">
-        <v>1.001680129889752</v>
+        <v>1.001680129889751</v>
       </c>
       <c r="K16">
-        <v>1.01177046890108</v>
+        <v>1.011770468901079</v>
       </c>
       <c r="L16">
-        <v>0.9991538915477675</v>
+        <v>0.9991538915477659</v>
       </c>
       <c r="M16">
-        <v>1.004963315201237</v>
+        <v>1.004963315201236</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9757077119910267</v>
+        <v>0.9757077119910279</v>
       </c>
       <c r="D17">
-        <v>0.9998831130332981</v>
+        <v>0.9998831130332996</v>
       </c>
       <c r="E17">
-        <v>0.9873133284368194</v>
+        <v>0.9873133284368206</v>
       </c>
       <c r="F17">
-        <v>0.9935699468277573</v>
+        <v>0.9935699468277585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036549060191792</v>
+        <v>1.036549060191793</v>
       </c>
       <c r="J17">
-        <v>1.004132512497535</v>
+        <v>1.004132512497536</v>
       </c>
       <c r="K17">
-        <v>1.013893192011934</v>
+        <v>1.013893192011935</v>
       </c>
       <c r="L17">
-        <v>1.001547518657691</v>
+        <v>1.001547518657692</v>
       </c>
       <c r="M17">
-        <v>1.007691665369138</v>
+        <v>1.007691665369139</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9776078210181852</v>
+        <v>0.9776078210181837</v>
       </c>
       <c r="D18">
-        <v>1.00131896043965</v>
+        <v>1.001318960439649</v>
       </c>
       <c r="E18">
-        <v>0.9889128738010747</v>
+        <v>0.9889128738010732</v>
       </c>
       <c r="F18">
-        <v>0.9953638114932043</v>
+        <v>0.9953638114932031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037273993163917</v>
+        <v>1.037273993163916</v>
       </c>
       <c r="J18">
-        <v>1.005544310108647</v>
+        <v>1.005544310108645</v>
       </c>
       <c r="K18">
-        <v>1.015114965681044</v>
+        <v>1.015114965681043</v>
       </c>
       <c r="L18">
-        <v>1.00292576978207</v>
+        <v>1.002925769782068</v>
       </c>
       <c r="M18">
-        <v>1.009263054355136</v>
+        <v>1.009263054355135</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782516285253342</v>
+        <v>0.9782516285253346</v>
       </c>
       <c r="D19">
         <v>1.001805584170635</v>
       </c>
       <c r="E19">
-        <v>0.9894550184977534</v>
+        <v>0.9894550184977541</v>
       </c>
       <c r="F19">
-        <v>0.9959718358303581</v>
+        <v>0.9959718358303592</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,10 +1085,10 @@
         <v>1.037519369180732</v>
       </c>
       <c r="J19">
-        <v>1.006022612062889</v>
+        <v>1.00602261206289</v>
       </c>
       <c r="K19">
-        <v>1.015528846977053</v>
+        <v>1.015528846977054</v>
       </c>
       <c r="L19">
         <v>1.003392753079766</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753562394688837</v>
+        <v>0.9753562394688829</v>
       </c>
       <c r="D20">
-        <v>0.9996175762052726</v>
+        <v>0.999617576205272</v>
       </c>
       <c r="E20">
-        <v>0.9870175380185755</v>
+        <v>0.9870175380185749</v>
       </c>
       <c r="F20">
-        <v>0.9932382308093958</v>
+        <v>0.9932382308093956</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.036414846850475</v>
       </c>
       <c r="J20">
-        <v>1.003871341025435</v>
+        <v>1.003871341025434</v>
       </c>
       <c r="K20">
-        <v>1.01366715340923</v>
+        <v>1.013667153409229</v>
       </c>
       <c r="L20">
-        <v>1.001292575403777</v>
+        <v>1.001292575403776</v>
       </c>
       <c r="M20">
         <v>1.007401029028511</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9656445265428906</v>
+        <v>0.9656445265428883</v>
       </c>
       <c r="D21">
-        <v>0.9922880492053036</v>
+        <v>0.9922880492053018</v>
       </c>
       <c r="E21">
-        <v>0.9788550764554742</v>
+        <v>0.9788550764554724</v>
       </c>
       <c r="F21">
-        <v>0.9840852476926268</v>
+        <v>0.9840852476926254</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032692694457783</v>
       </c>
       <c r="J21">
-        <v>0.996652330274814</v>
+        <v>0.9966523302748119</v>
       </c>
       <c r="K21">
-        <v>1.007417014787873</v>
+        <v>1.007417014787871</v>
       </c>
       <c r="L21">
-        <v>0.9942484331100838</v>
+        <v>0.9942484331100818</v>
       </c>
       <c r="M21">
-        <v>0.9993745357029478</v>
+        <v>0.9993745357029463</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592893449496491</v>
+        <v>0.9592893449496483</v>
       </c>
       <c r="D22">
-        <v>0.987500249831416</v>
+        <v>0.987500249831415</v>
       </c>
       <c r="E22">
-        <v>0.9735250421859682</v>
+        <v>0.9735250421859672</v>
       </c>
       <c r="F22">
-        <v>0.9781091005178626</v>
+        <v>0.9781091005178615</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030244145822618</v>
       </c>
       <c r="J22">
-        <v>0.9919265208260116</v>
+        <v>0.9919265208260108</v>
       </c>
       <c r="K22">
-        <v>1.003323463793754</v>
+        <v>1.003323463793753</v>
       </c>
       <c r="L22">
-        <v>0.989639872431009</v>
+        <v>0.989639872431008</v>
       </c>
       <c r="M22">
-        <v>0.9941270618388769</v>
+        <v>0.9941270618388759</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9626833534459392</v>
+        <v>0.9626833534459376</v>
       </c>
       <c r="D23">
-        <v>0.9900563144004924</v>
+        <v>0.9900563144004909</v>
       </c>
       <c r="E23">
-        <v>0.9763704352304973</v>
+        <v>0.9763704352304957</v>
       </c>
       <c r="F23">
-        <v>0.9812993623632004</v>
+        <v>0.9812993623631989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031552963022687</v>
+        <v>1.031552963022685</v>
       </c>
       <c r="J23">
-        <v>0.99445048019245</v>
+        <v>0.9944504801924483</v>
       </c>
       <c r="K23">
-        <v>1.005509919093935</v>
+        <v>1.005509919093934</v>
       </c>
       <c r="L23">
-        <v>0.9921009429190716</v>
+        <v>0.9921009429190699</v>
       </c>
       <c r="M23">
-        <v>0.996928971453231</v>
+        <v>0.9969289714532297</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9755151307817723</v>
+        <v>0.975515130781771</v>
       </c>
       <c r="D24">
-        <v>0.9997376159928213</v>
+        <v>0.9997376159928202</v>
       </c>
       <c r="E24">
-        <v>0.9871512536360675</v>
+        <v>0.9871512536360664</v>
       </c>
       <c r="F24">
-        <v>0.9933881867173104</v>
+        <v>0.9933881867173091</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036475525645774</v>
       </c>
       <c r="J24">
-        <v>1.003989410561444</v>
+        <v>1.003989410561443</v>
       </c>
       <c r="K24">
-        <v>1.013769340955645</v>
+        <v>1.013769340955644</v>
       </c>
       <c r="L24">
-        <v>1.001407828444985</v>
+        <v>1.001407828444983</v>
       </c>
       <c r="M24">
-        <v>1.007532416705547</v>
+        <v>1.007532416705545</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9894467787166369</v>
+        <v>0.9894467787166363</v>
       </c>
       <c r="D25">
-        <v>1.010276601171048</v>
+        <v>1.010276601171047</v>
       </c>
       <c r="E25">
-        <v>0.9988964254459606</v>
+        <v>0.99889642544596</v>
       </c>
       <c r="F25">
         <v>1.006562231042927</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041764123725697</v>
+        <v>1.041764123725696</v>
       </c>
       <c r="J25">
-        <v>1.014334596208095</v>
+        <v>1.014334596208094</v>
       </c>
       <c r="K25">
-        <v>1.022717453601985</v>
+        <v>1.022717453601984</v>
       </c>
       <c r="L25">
-        <v>1.011511897178428</v>
+        <v>1.011511897178427</v>
       </c>
       <c r="M25">
         <v>1.019059523837681</v>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999014816942838</v>
+        <v>1.002079369364497</v>
       </c>
       <c r="D2">
-        <v>1.018201146356347</v>
+        <v>1.019885641755051</v>
       </c>
       <c r="E2">
-        <v>1.007736922244149</v>
+        <v>1.009594005868793</v>
       </c>
       <c r="F2">
-        <v>1.016482305755258</v>
+        <v>1.018126218405813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045684909893642</v>
+        <v>1.046670867392589</v>
       </c>
       <c r="J2">
-        <v>1.022085139827242</v>
+        <v>1.024198064230422</v>
       </c>
       <c r="K2">
-        <v>1.029412602839057</v>
+        <v>1.031074718780777</v>
       </c>
       <c r="L2">
-        <v>1.019089511598535</v>
+        <v>1.020921279693483</v>
       </c>
       <c r="M2">
-        <v>1.027716694017575</v>
+        <v>1.029338672507601</v>
+      </c>
+      <c r="N2">
+        <v>1.025652542958789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007159543867588</v>
+        <v>1.0093229017207</v>
       </c>
       <c r="D3">
-        <v>1.023709093624992</v>
+        <v>1.025384582419278</v>
       </c>
       <c r="E3">
-        <v>1.013887395142464</v>
+        <v>1.015734027195052</v>
       </c>
       <c r="F3">
-        <v>1.02338664880158</v>
+        <v>1.025017356931997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0483777259078</v>
+        <v>1.049359476109211</v>
       </c>
       <c r="J3">
-        <v>1.027456917256463</v>
+        <v>1.029562601734156</v>
       </c>
       <c r="K3">
-        <v>1.034047339920214</v>
+        <v>1.035702647170517</v>
       </c>
       <c r="L3">
-        <v>1.02434561505023</v>
+        <v>1.026169469851609</v>
       </c>
       <c r="M3">
-        <v>1.033728788413093</v>
+        <v>1.035339837969296</v>
+      </c>
+      <c r="N3">
+        <v>1.0310246987211</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011715654022306</v>
+        <v>1.013870513209891</v>
       </c>
       <c r="D4">
-        <v>1.027168787202824</v>
+        <v>1.028839045559848</v>
       </c>
       <c r="E4">
-        <v>1.017753615751753</v>
+        <v>1.019594159865755</v>
       </c>
       <c r="F4">
-        <v>1.027728177831502</v>
+        <v>1.029351110252235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054166763584</v>
+        <v>1.051033534043588</v>
       </c>
       <c r="J4">
-        <v>1.030824346887791</v>
+        <v>1.032925943828256</v>
       </c>
       <c r="K4">
-        <v>1.036950004492123</v>
+        <v>1.038601435414386</v>
       </c>
       <c r="L4">
-        <v>1.027642390132995</v>
+        <v>1.029461715364248</v>
       </c>
       <c r="M4">
-        <v>1.037503081177646</v>
+        <v>1.039107743098371</v>
+      </c>
+      <c r="N4">
+        <v>1.034392817146754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013599293686221</v>
+        <v>1.015750777535355</v>
       </c>
       <c r="D5">
-        <v>1.028599550680202</v>
+        <v>1.030267741252327</v>
       </c>
       <c r="E5">
-        <v>1.019353234883723</v>
+        <v>1.02119136752809</v>
       </c>
       <c r="F5">
-        <v>1.029524811716176</v>
+        <v>1.031144643658085</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050743855498653</v>
+        <v>1.051722295742319</v>
       </c>
       <c r="J5">
-        <v>1.032215380317293</v>
+        <v>1.034315389533124</v>
       </c>
       <c r="K5">
-        <v>1.038148371695931</v>
+        <v>1.039798289151744</v>
       </c>
       <c r="L5">
-        <v>1.029004673681281</v>
+        <v>1.03082222417108</v>
       </c>
       <c r="M5">
-        <v>1.039063488575933</v>
+        <v>1.040665615199699</v>
+      </c>
+      <c r="N5">
+        <v>1.035784236023894</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013913754219378</v>
+        <v>1.016064682414212</v>
       </c>
       <c r="D6">
-        <v>1.028838428225763</v>
+        <v>1.030506278974584</v>
       </c>
       <c r="E6">
-        <v>1.019620348368969</v>
+        <v>1.021458084422708</v>
       </c>
       <c r="F6">
-        <v>1.02982484550758</v>
+        <v>1.0314441663247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050858792171216</v>
+        <v>1.051837080969389</v>
       </c>
       <c r="J6">
-        <v>1.032447533165502</v>
+        <v>1.034547283128969</v>
       </c>
       <c r="K6">
-        <v>1.038348329434263</v>
+        <v>1.039997999299195</v>
       </c>
       <c r="L6">
-        <v>1.029232053807952</v>
+        <v>1.031049313583357</v>
       </c>
       <c r="M6">
-        <v>1.039323985259912</v>
+        <v>1.040925694627947</v>
+      </c>
+      <c r="N6">
+        <v>1.036016458935243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011740945728234</v>
+        <v>1.013895759061353</v>
       </c>
       <c r="D7">
-        <v>1.027187996607777</v>
+        <v>1.028858226834556</v>
       </c>
       <c r="E7">
-        <v>1.017775089259277</v>
+        <v>1.019615600586802</v>
       </c>
       <c r="F7">
-        <v>1.02775229464577</v>
+        <v>1.029375184995094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050063440801652</v>
+        <v>1.05104279540889</v>
       </c>
       <c r="J7">
-        <v>1.030843029055917</v>
+        <v>1.03294460428277</v>
       </c>
       <c r="K7">
-        <v>1.036966101789356</v>
+        <v>1.03861751204527</v>
       </c>
       <c r="L7">
-        <v>1.027660684461766</v>
+        <v>1.029479985484749</v>
       </c>
       <c r="M7">
-        <v>1.037524032949377</v>
+        <v>1.039128660420573</v>
+      </c>
+      <c r="N7">
+        <v>1.034411504101254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002384599740829</v>
+        <v>1.004557377984022</v>
       </c>
       <c r="D8">
-        <v>1.020084988032592</v>
+        <v>1.0217663082388</v>
       </c>
       <c r="E8">
-        <v>1.009839921113151</v>
+        <v>1.011693324049377</v>
       </c>
       <c r="F8">
-        <v>1.018842783338308</v>
+        <v>1.020482064355547</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046609070917085</v>
+        <v>1.047593532052775</v>
       </c>
       <c r="J8">
-        <v>1.023923855240162</v>
+        <v>1.026034201326083</v>
       </c>
       <c r="K8">
-        <v>1.03099959835946</v>
+        <v>1.032659296864246</v>
       </c>
       <c r="L8">
-        <v>1.020888233879213</v>
+        <v>1.022717197612268</v>
       </c>
       <c r="M8">
-        <v>1.029773425711753</v>
+        <v>1.03139156026223</v>
+      </c>
+      <c r="N8">
+        <v>1.027491287579734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.984730572649923</v>
+        <v>0.9869429073601741</v>
       </c>
       <c r="D9">
-        <v>1.006705966421505</v>
+        <v>1.008412031057328</v>
       </c>
       <c r="E9">
-        <v>0.9949158011261066</v>
+        <v>0.9967978079563647</v>
       </c>
       <c r="F9">
-        <v>1.002096753325839</v>
+        <v>1.003771618373995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039981240567679</v>
+        <v>1.040977643557018</v>
       </c>
       <c r="J9">
-        <v>1.010834300589249</v>
+        <v>1.012965323013869</v>
       </c>
       <c r="K9">
-        <v>1.019691172941246</v>
+        <v>1.021370087480158</v>
       </c>
       <c r="L9">
-        <v>1.008091908034463</v>
+        <v>1.009943053023676</v>
       </c>
       <c r="M9">
-        <v>1.015155903523423</v>
+        <v>1.016803798653735</v>
+      </c>
+      <c r="N9">
+        <v>1.014403849961296</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9720314298249983</v>
+        <v>0.9742771008595345</v>
       </c>
       <c r="D10">
-        <v>0.9971066211924786</v>
+        <v>0.9988337323646063</v>
       </c>
       <c r="E10">
-        <v>0.9842207878778669</v>
+        <v>0.9861270276099056</v>
       </c>
       <c r="F10">
-        <v>0.9901019156531053</v>
+        <v>0.9918063776098555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035143460446311</v>
+        <v>1.036150381506301</v>
       </c>
       <c r="J10">
-        <v>1.001400405569878</v>
+        <v>1.003549813032338</v>
       </c>
       <c r="K10">
-        <v>1.011528313738455</v>
+        <v>1.013224076110061</v>
       </c>
       <c r="L10">
-        <v>0.9988809076287316</v>
+        <v>1.000751363415804</v>
       </c>
       <c r="M10">
-        <v>1.004652212751371</v>
+        <v>1.006325163283298</v>
+      </c>
+      <c r="N10">
+        <v>1.004974968875616</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9662738555920953</v>
+        <v>0.9685360873862788</v>
       </c>
       <c r="D11">
-        <v>0.9927625455050493</v>
+        <v>0.9945001500379198</v>
       </c>
       <c r="E11">
-        <v>0.9793833821620569</v>
+        <v>0.9813016841195155</v>
       </c>
       <c r="F11">
-        <v>0.9846776202356619</v>
+        <v>0.9863966818849109</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032934644807523</v>
+        <v>1.033946892206521</v>
       </c>
       <c r="J11">
-        <v>0.9971202483889209</v>
+        <v>0.9992790209667762</v>
       </c>
       <c r="K11">
-        <v>1.007822252576174</v>
+        <v>1.009526536177282</v>
       </c>
       <c r="L11">
-        <v>0.9947048600351744</v>
+        <v>0.9965850533330144</v>
       </c>
       <c r="M11">
-        <v>0.999894396975295</v>
+        <v>1.001579778828944</v>
+      </c>
+      <c r="N11">
+        <v>1.000698111795455</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9640925827843835</v>
+        <v>0.9663613357104045</v>
       </c>
       <c r="D12">
-        <v>0.991118214510665</v>
+        <v>0.9928599559769834</v>
       </c>
       <c r="E12">
-        <v>0.9775526369322047</v>
+        <v>0.9794756916111961</v>
       </c>
       <c r="F12">
-        <v>0.9826248844160529</v>
+        <v>0.9843496784664918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032095624649769</v>
+        <v>1.033109984036532</v>
       </c>
       <c r="J12">
-        <v>0.995498377099488</v>
+        <v>0.997660872571363</v>
       </c>
       <c r="K12">
-        <v>1.006417576951512</v>
+        <v>1.008125238424838</v>
       </c>
       <c r="L12">
-        <v>0.9931229102596553</v>
+        <v>0.9950069593697043</v>
       </c>
       <c r="M12">
-        <v>0.9980927105212511</v>
+        <v>0.9997829842147147</v>
+      </c>
+      <c r="N12">
+        <v>0.9990776654437159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96456246960573</v>
+        <v>0.9668298060784287</v>
       </c>
       <c r="D13">
-        <v>0.9914723656155134</v>
+        <v>0.9932132082891649</v>
       </c>
       <c r="E13">
-        <v>0.9779469237449646</v>
+        <v>0.9798689459632655</v>
       </c>
       <c r="F13">
-        <v>0.9830669763301993</v>
+        <v>0.9847905260056079</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032276462691962</v>
+        <v>1.033290362686684</v>
       </c>
       <c r="J13">
-        <v>0.9958477707382062</v>
+        <v>0.9980094559755445</v>
       </c>
       <c r="K13">
-        <v>1.006720195824658</v>
+        <v>1.008427122587793</v>
       </c>
       <c r="L13">
-        <v>0.993463682072654</v>
+        <v>0.9953468927025274</v>
       </c>
       <c r="M13">
-        <v>0.99848078723241</v>
+        <v>1.000169998531176</v>
+      </c>
+      <c r="N13">
+        <v>0.9994267438763145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9660944446789067</v>
+        <v>0.9683572076428312</v>
       </c>
       <c r="D14">
-        <v>0.9926272679579404</v>
+        <v>0.9943652093639661</v>
       </c>
       <c r="E14">
-        <v>0.9792327622827263</v>
+        <v>0.9811514513105518</v>
       </c>
       <c r="F14">
-        <v>0.9845087343878265</v>
+        <v>0.9862282632986478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032865678896942</v>
+        <v>1.033878098035149</v>
       </c>
       <c r="J14">
-        <v>0.9969868543085193</v>
+        <v>0.9991459294226145</v>
       </c>
       <c r="K14">
-        <v>1.007706728941747</v>
+        <v>1.00941128723459</v>
       </c>
       <c r="L14">
-        <v>0.9945747396776481</v>
+        <v>0.9964552466165779</v>
       </c>
       <c r="M14">
-        <v>0.9997461894930496</v>
+        <v>1.001431969874972</v>
+      </c>
+      <c r="N14">
+        <v>1.000564831246034</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9670325714585618</v>
+        <v>0.9692925671999644</v>
       </c>
       <c r="D15">
-        <v>0.9933346841406597</v>
+        <v>0.9950708707405602</v>
       </c>
       <c r="E15">
-        <v>0.9800204219477723</v>
+        <v>0.9819370945795981</v>
       </c>
       <c r="F15">
-        <v>0.9853919198153431</v>
+        <v>0.9871090137777117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033226207866234</v>
+        <v>1.034237732880738</v>
       </c>
       <c r="J15">
-        <v>0.9976843500870555</v>
+        <v>0.9998418504949842</v>
       </c>
       <c r="K15">
-        <v>1.008310769312734</v>
+        <v>1.010013897447297</v>
       </c>
       <c r="L15">
-        <v>0.9952551369956275</v>
+        <v>0.997134010823473</v>
       </c>
       <c r="M15">
-        <v>1.000521190339574</v>
+        <v>1.002204894383011</v>
+      </c>
+      <c r="N15">
+        <v>1.00126174060615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724077781443342</v>
+        <v>0.9746523989636001</v>
       </c>
       <c r="D16">
-        <v>0.9973907602702926</v>
+        <v>0.9991172066937695</v>
       </c>
       <c r="E16">
-        <v>0.9845372422866444</v>
+        <v>0.9864427175096165</v>
       </c>
       <c r="F16">
-        <v>0.9904567818908303</v>
+        <v>0.9921603158569252</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035287531456457</v>
+        <v>1.036294116712537</v>
       </c>
       <c r="J16">
-        <v>1.001680129889751</v>
+        <v>1.00382894810324</v>
       </c>
       <c r="K16">
-        <v>1.011770468901079</v>
+        <v>1.013465693887247</v>
       </c>
       <c r="L16">
-        <v>0.9991538915477659</v>
+        <v>1.001023732681062</v>
       </c>
       <c r="M16">
-        <v>1.004963315201236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.006635477007345</v>
+      </c>
+      <c r="N16">
+        <v>1.005254500350336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9757077119910279</v>
+        <v>0.9779432902799783</v>
       </c>
       <c r="D17">
-        <v>0.9998831130332996</v>
+        <v>1.001603839848225</v>
       </c>
       <c r="E17">
-        <v>0.9873133284368206</v>
+        <v>0.9892122236049391</v>
       </c>
       <c r="F17">
-        <v>0.9935699468277585</v>
+        <v>0.995265479429723</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036549060191793</v>
+        <v>1.03755276491853</v>
       </c>
       <c r="J17">
-        <v>1.004132512497536</v>
+        <v>1.006276282109545</v>
       </c>
       <c r="K17">
-        <v>1.013893192011935</v>
+        <v>1.015583806260254</v>
       </c>
       <c r="L17">
-        <v>1.001547518657692</v>
+        <v>1.003412082992152</v>
       </c>
       <c r="M17">
-        <v>1.007691665369139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.009357034335089</v>
+      </c>
+      <c r="N17">
+        <v>1.007705309851643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9776078210181837</v>
+        <v>0.9798383261991125</v>
       </c>
       <c r="D18">
-        <v>1.001318960439649</v>
+        <v>1.003036481809234</v>
       </c>
       <c r="E18">
-        <v>0.9889128738010732</v>
+        <v>0.9908080795347246</v>
       </c>
       <c r="F18">
-        <v>0.9953638114932031</v>
+        <v>0.997054845987858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037273993163916</v>
+        <v>1.038276090856502</v>
       </c>
       <c r="J18">
-        <v>1.005544310108645</v>
+        <v>1.007685267885327</v>
       </c>
       <c r="K18">
-        <v>1.015114965681043</v>
+        <v>1.016803006662146</v>
       </c>
       <c r="L18">
-        <v>1.002925769782068</v>
+        <v>1.004787386520179</v>
       </c>
       <c r="M18">
-        <v>1.009263054355135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.010924611016442</v>
+      </c>
+      <c r="N18">
+        <v>1.00911629654884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782516285253346</v>
+        <v>0.9804804366681297</v>
       </c>
       <c r="D19">
-        <v>1.001805584170635</v>
+        <v>1.003522033864469</v>
       </c>
       <c r="E19">
-        <v>0.9894550184977541</v>
+        <v>0.9913489904366759</v>
       </c>
       <c r="F19">
-        <v>0.9959718358303592</v>
+        <v>0.9976613641122701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037519369180732</v>
+        <v>1.038520930840327</v>
       </c>
       <c r="J19">
-        <v>1.00602261206289</v>
+        <v>1.008162632714708</v>
       </c>
       <c r="K19">
-        <v>1.015528846977054</v>
+        <v>1.017216029454117</v>
       </c>
       <c r="L19">
-        <v>1.003392753079766</v>
+        <v>1.005253385981378</v>
       </c>
       <c r="M19">
-        <v>1.009795545837132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.01145582701702</v>
+      </c>
+      <c r="N19">
+        <v>1.009594339291034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753562394688829</v>
+        <v>0.977592766786982</v>
       </c>
       <c r="D20">
-        <v>0.999617576205272</v>
+        <v>1.0013389029495</v>
       </c>
       <c r="E20">
-        <v>0.9870175380185749</v>
+        <v>0.9889171235521979</v>
       </c>
       <c r="F20">
-        <v>0.9932382308093956</v>
+        <v>0.9949346041323582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036414846850475</v>
+        <v>1.037418852950342</v>
       </c>
       <c r="J20">
-        <v>1.003871341025434</v>
+        <v>1.006015638335091</v>
       </c>
       <c r="K20">
-        <v>1.013667153409229</v>
+        <v>1.015358250148917</v>
       </c>
       <c r="L20">
-        <v>1.001292575403776</v>
+        <v>1.003157692201484</v>
       </c>
       <c r="M20">
-        <v>1.007401029028511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.009067111060643</v>
+      </c>
+      <c r="N20">
+        <v>1.007444295933134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9656445265428883</v>
+        <v>0.9679086256305993</v>
       </c>
       <c r="D21">
-        <v>0.9922880492053018</v>
+        <v>0.9940268380708357</v>
       </c>
       <c r="E21">
-        <v>0.9788550764554724</v>
+        <v>0.9807747391795207</v>
       </c>
       <c r="F21">
-        <v>0.9840852476926254</v>
+        <v>0.9858059517036903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032692694457783</v>
+        <v>1.033705545826213</v>
       </c>
       <c r="J21">
-        <v>0.9966523302748119</v>
+        <v>0.9988121669613536</v>
       </c>
       <c r="K21">
-        <v>1.007417014787871</v>
+        <v>1.009122264407103</v>
       </c>
       <c r="L21">
-        <v>0.9942484331100818</v>
+        <v>0.9961297293344883</v>
       </c>
       <c r="M21">
-        <v>0.9993745357029463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.001061318502687</v>
+      </c>
+      <c r="N21">
+        <v>1.000230594803796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592893449496483</v>
+        <v>0.9615729513699054</v>
       </c>
       <c r="D22">
-        <v>0.987500249831415</v>
+        <v>0.989251422640111</v>
       </c>
       <c r="E22">
-        <v>0.9735250421859672</v>
+        <v>0.9754589272198353</v>
       </c>
       <c r="F22">
-        <v>0.9781091005178615</v>
+        <v>0.9798469192736687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030244145822618</v>
+        <v>1.031263342648916</v>
       </c>
       <c r="J22">
-        <v>0.9919265208260108</v>
+        <v>0.9940975627045079</v>
       </c>
       <c r="K22">
-        <v>1.003323463793753</v>
+        <v>1.005038861090355</v>
       </c>
       <c r="L22">
-        <v>0.989639872431008</v>
+        <v>0.9915327442196089</v>
       </c>
       <c r="M22">
-        <v>0.9941270618388759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9958284707429027</v>
+      </c>
+      <c r="N22">
+        <v>0.9955092952681327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9626833534459376</v>
+        <v>0.9649563932370886</v>
       </c>
       <c r="D23">
-        <v>0.9900563144004909</v>
+        <v>0.9918007767127949</v>
       </c>
       <c r="E23">
-        <v>0.9763704352304957</v>
+        <v>0.9782966150163835</v>
       </c>
       <c r="F23">
-        <v>0.9812993623631989</v>
+        <v>0.983027919978121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031552963022685</v>
+        <v>1.032568714855881</v>
       </c>
       <c r="J23">
-        <v>0.9944504801924483</v>
+        <v>0.9966154330227863</v>
       </c>
       <c r="K23">
-        <v>1.005509919093934</v>
+        <v>1.007219807429186</v>
       </c>
       <c r="L23">
-        <v>0.9921009429190699</v>
+        <v>0.9939875328092411</v>
       </c>
       <c r="M23">
-        <v>0.9969289714532297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9986224599117512</v>
+      </c>
+      <c r="N23">
+        <v>0.9980307412510667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.975515130781771</v>
+        <v>0.9777512286562431</v>
       </c>
       <c r="D24">
-        <v>0.9997376159928202</v>
+        <v>1.001458671253253</v>
       </c>
       <c r="E24">
-        <v>0.9871512536360664</v>
+        <v>0.9890505267667075</v>
       </c>
       <c r="F24">
-        <v>0.9933881867173091</v>
+        <v>0.9950841796355776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036475525645774</v>
+        <v>1.037479395343399</v>
       </c>
       <c r="J24">
-        <v>1.003989410561443</v>
+        <v>1.006133469018912</v>
       </c>
       <c r="K24">
-        <v>1.013769340955644</v>
+        <v>1.015460219321575</v>
       </c>
       <c r="L24">
-        <v>1.001407828444983</v>
+        <v>1.003272695208124</v>
       </c>
       <c r="M24">
-        <v>1.007532416705545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.009198176073398</v>
+      </c>
+      <c r="N24">
+        <v>1.007562293950041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9894467787166363</v>
+        <v>0.9916477977807105</v>
       </c>
       <c r="D25">
-        <v>1.010276601171047</v>
+        <v>1.011975554704073</v>
       </c>
       <c r="E25">
-        <v>0.99889642544596</v>
+        <v>1.000770228067492</v>
       </c>
       <c r="F25">
-        <v>1.006562231042927</v>
+        <v>1.008226975681279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041764123725696</v>
+        <v>1.042757037131617</v>
       </c>
       <c r="J25">
-        <v>1.014334596208094</v>
+        <v>1.016459553688607</v>
       </c>
       <c r="K25">
-        <v>1.022717453601984</v>
+        <v>1.02439076714236</v>
       </c>
       <c r="L25">
-        <v>1.011511897178427</v>
+        <v>1.013356598992608</v>
       </c>
       <c r="M25">
-        <v>1.019059523837681</v>
+        <v>1.020698906905286</v>
+      </c>
+      <c r="N25">
+        <v>1.017903042844385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079369364497</v>
+        <v>1.006206077294841</v>
       </c>
       <c r="D2">
-        <v>1.019885641755051</v>
+        <v>1.027183840991797</v>
       </c>
       <c r="E2">
-        <v>1.009594005868793</v>
+        <v>1.011470908759286</v>
       </c>
       <c r="F2">
-        <v>1.018126218405813</v>
+        <v>1.03294035466189</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046670867392589</v>
+        <v>1.046453079735875</v>
       </c>
       <c r="J2">
-        <v>1.024198064230422</v>
+        <v>1.028202736984946</v>
       </c>
       <c r="K2">
-        <v>1.031074718780777</v>
+        <v>1.038277019389182</v>
       </c>
       <c r="L2">
-        <v>1.020921279693483</v>
+        <v>1.0227727156906</v>
       </c>
       <c r="M2">
-        <v>1.029338672507601</v>
+        <v>1.043959087721239</v>
       </c>
       <c r="N2">
-        <v>1.025652542958789</v>
+        <v>1.02966290280798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0093229017207</v>
+        <v>1.012360918108201</v>
       </c>
       <c r="D3">
-        <v>1.025384582419278</v>
+        <v>1.031953279166212</v>
       </c>
       <c r="E3">
-        <v>1.015734027195052</v>
+        <v>1.016534473367995</v>
       </c>
       <c r="F3">
-        <v>1.025017356931997</v>
+        <v>1.038266014973534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049359476109211</v>
+        <v>1.048309750640465</v>
       </c>
       <c r="J3">
-        <v>1.029562601734156</v>
+        <v>1.032520191542657</v>
       </c>
       <c r="K3">
-        <v>1.035702647170517</v>
+        <v>1.042193005997966</v>
       </c>
       <c r="L3">
-        <v>1.026169469851609</v>
+        <v>1.026960074918452</v>
       </c>
       <c r="M3">
-        <v>1.035339837969296</v>
+        <v>1.048431611806532</v>
       </c>
       <c r="N3">
-        <v>1.0310246987211</v>
+        <v>1.033986488646369</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013870513209891</v>
+        <v>1.016243375409177</v>
       </c>
       <c r="D4">
-        <v>1.028839045559848</v>
+        <v>1.034964690525071</v>
       </c>
       <c r="E4">
-        <v>1.019594159865755</v>
+        <v>1.01973456616539</v>
       </c>
       <c r="F4">
-        <v>1.029351110252235</v>
+        <v>1.041631276565655</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051033534043588</v>
+        <v>1.049470307803568</v>
       </c>
       <c r="J4">
-        <v>1.032925943828256</v>
+        <v>1.035240506962106</v>
       </c>
       <c r="K4">
-        <v>1.038601435414386</v>
+        <v>1.044658670789083</v>
       </c>
       <c r="L4">
-        <v>1.029461715364248</v>
+        <v>1.029600506859653</v>
       </c>
       <c r="M4">
-        <v>1.039107743098371</v>
+        <v>1.051251928839444</v>
       </c>
       <c r="N4">
-        <v>1.034392817146754</v>
+        <v>1.036710667225738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015750777535355</v>
+        <v>1.017852704363997</v>
       </c>
       <c r="D5">
-        <v>1.030267741252327</v>
+        <v>1.036213560764287</v>
       </c>
       <c r="E5">
-        <v>1.02119136752809</v>
+        <v>1.021062417760906</v>
       </c>
       <c r="F5">
-        <v>1.031144643658085</v>
+        <v>1.043027536370501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051722295742319</v>
+        <v>1.049948770505919</v>
       </c>
       <c r="J5">
-        <v>1.034315389533124</v>
+        <v>1.036367309172159</v>
       </c>
       <c r="K5">
-        <v>1.039798289151744</v>
+        <v>1.045679565792379</v>
       </c>
       <c r="L5">
-        <v>1.03082222417108</v>
+        <v>1.030694715320472</v>
       </c>
       <c r="M5">
-        <v>1.040665615199699</v>
+        <v>1.052420682125709</v>
       </c>
       <c r="N5">
-        <v>1.035784236023894</v>
+        <v>1.037839069624176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016064682414212</v>
+        <v>1.018121608560387</v>
       </c>
       <c r="D6">
-        <v>1.030506278974584</v>
+        <v>1.036422268535298</v>
       </c>
       <c r="E6">
-        <v>1.021458084422708</v>
+        <v>1.021284368333902</v>
       </c>
       <c r="F6">
-        <v>1.0314441663247</v>
+        <v>1.04326091351478</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051837080969389</v>
+        <v>1.050028562662695</v>
       </c>
       <c r="J6">
-        <v>1.034547283128969</v>
+        <v>1.036555538748871</v>
       </c>
       <c r="K6">
-        <v>1.039997999299195</v>
+        <v>1.045850078195145</v>
       </c>
       <c r="L6">
-        <v>1.031049313583357</v>
+        <v>1.030877529180739</v>
       </c>
       <c r="M6">
-        <v>1.040925694627947</v>
+        <v>1.052615949994381</v>
       </c>
       <c r="N6">
-        <v>1.036016458935243</v>
+        <v>1.038027566508476</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013895759061353</v>
+        <v>1.016264967728311</v>
       </c>
       <c r="D7">
-        <v>1.028858226834556</v>
+        <v>1.034981444313017</v>
       </c>
       <c r="E7">
-        <v>1.019615600586802</v>
+        <v>1.019752376577495</v>
       </c>
       <c r="F7">
-        <v>1.029375184995094</v>
+        <v>1.041650005054561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05104279540889</v>
+        <v>1.049476737687134</v>
       </c>
       <c r="J7">
-        <v>1.03294460428277</v>
+        <v>1.035255628482685</v>
       </c>
       <c r="K7">
-        <v>1.03861751204527</v>
+        <v>1.044672372762538</v>
       </c>
       <c r="L7">
-        <v>1.029479985484749</v>
+        <v>1.029615189023886</v>
       </c>
       <c r="M7">
-        <v>1.039128660420573</v>
+        <v>1.051267611274638</v>
       </c>
       <c r="N7">
-        <v>1.034411504101254</v>
+        <v>1.036725810220611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004557377984022</v>
+        <v>1.008307565259315</v>
       </c>
       <c r="D8">
-        <v>1.0217663082388</v>
+        <v>1.028811645517765</v>
       </c>
       <c r="E8">
-        <v>1.011693324049377</v>
+        <v>1.01319848621545</v>
       </c>
       <c r="F8">
-        <v>1.020482064355547</v>
+        <v>1.034757443619614</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047593532052775</v>
+        <v>1.047089217138357</v>
       </c>
       <c r="J8">
-        <v>1.026034201326083</v>
+        <v>1.029677496953354</v>
       </c>
       <c r="K8">
-        <v>1.032659296864246</v>
+        <v>1.039614990508857</v>
       </c>
       <c r="L8">
-        <v>1.022717197612268</v>
+        <v>1.024202594972703</v>
       </c>
       <c r="M8">
-        <v>1.03139156026223</v>
+        <v>1.045486318767135</v>
       </c>
       <c r="N8">
-        <v>1.027491287579734</v>
+        <v>1.031139757104688</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869429073601741</v>
+        <v>0.9934642497017833</v>
       </c>
       <c r="D9">
-        <v>1.008412031057328</v>
+        <v>1.017330157332181</v>
       </c>
       <c r="E9">
-        <v>0.9967978079563647</v>
+        <v>1.001025103144635</v>
       </c>
       <c r="F9">
-        <v>1.003771618373995</v>
+        <v>1.021951936891588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040977643557018</v>
+        <v>1.04255282459631</v>
       </c>
       <c r="J9">
-        <v>1.012965323013869</v>
+        <v>1.019249932108616</v>
       </c>
       <c r="K9">
-        <v>1.021370087480158</v>
+        <v>1.030148185747131</v>
       </c>
       <c r="L9">
-        <v>1.009943053023676</v>
+        <v>1.014101570631014</v>
       </c>
       <c r="M9">
-        <v>1.016803798653735</v>
+        <v>1.03469862339113</v>
       </c>
       <c r="N9">
-        <v>1.014403849961296</v>
+        <v>1.020697383921812</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9742771008595345</v>
+        <v>0.9829329761225635</v>
       </c>
       <c r="D10">
-        <v>0.9988337323646063</v>
+        <v>1.009209272854024</v>
       </c>
       <c r="E10">
-        <v>0.9861270276099056</v>
+        <v>0.9924289235371735</v>
       </c>
       <c r="F10">
-        <v>0.9918063776098555</v>
+        <v>1.01290841035181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036150381506301</v>
+        <v>1.039281860304786</v>
       </c>
       <c r="J10">
-        <v>1.003549813032338</v>
+        <v>1.011840491448515</v>
       </c>
       <c r="K10">
-        <v>1.013224076110061</v>
+        <v>1.023414218273185</v>
       </c>
       <c r="L10">
-        <v>1.000751363415804</v>
+        <v>1.006936234989759</v>
       </c>
       <c r="M10">
-        <v>1.006325163283298</v>
+        <v>1.027048446202445</v>
       </c>
       <c r="N10">
-        <v>1.004974968875616</v>
+        <v>1.013277421006098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9685360873862788</v>
+        <v>0.9782009214782793</v>
       </c>
       <c r="D11">
-        <v>0.9945001500379198</v>
+        <v>1.005567905261267</v>
       </c>
       <c r="E11">
-        <v>0.9813016841195155</v>
+        <v>0.9885774294292603</v>
       </c>
       <c r="F11">
-        <v>0.9863966818849109</v>
+        <v>1.008856532879738</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033946892206521</v>
+        <v>1.037800606341349</v>
       </c>
       <c r="J11">
-        <v>0.9992790209667762</v>
+        <v>1.00850955289393</v>
       </c>
       <c r="K11">
-        <v>1.009526536177282</v>
+        <v>1.020385577419333</v>
       </c>
       <c r="L11">
-        <v>0.9965850533330144</v>
+        <v>1.003718022213338</v>
       </c>
       <c r="M11">
-        <v>1.001579778828944</v>
+        <v>1.02361333861569</v>
       </c>
       <c r="N11">
-        <v>1.000698111795455</v>
+        <v>1.009941752136702</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9663613357104045</v>
+        <v>0.9764153754320506</v>
       </c>
       <c r="D12">
-        <v>0.9928599559769834</v>
+        <v>1.004195205608705</v>
       </c>
       <c r="E12">
-        <v>0.9794756916111961</v>
+        <v>0.9871259351878118</v>
       </c>
       <c r="F12">
-        <v>0.9843496784664918</v>
+        <v>1.007329555283166</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033109984036532</v>
+        <v>1.037240044168569</v>
       </c>
       <c r="J12">
-        <v>0.997660872571363</v>
+        <v>1.007252539697241</v>
       </c>
       <c r="K12">
-        <v>1.008125238424838</v>
+        <v>1.019242471047382</v>
       </c>
       <c r="L12">
-        <v>0.9950069593697043</v>
+        <v>1.002504009314193</v>
       </c>
       <c r="M12">
-        <v>0.9997829842147147</v>
+        <v>1.022317667012296</v>
       </c>
       <c r="N12">
-        <v>0.9990776654437159</v>
+        <v>1.008682953837092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9668298060784287</v>
+        <v>0.9767996760941181</v>
       </c>
       <c r="D13">
-        <v>0.9932132082891649</v>
+        <v>1.004490588723873</v>
       </c>
       <c r="E13">
-        <v>0.9798689459632655</v>
+        <v>0.9874382553295903</v>
       </c>
       <c r="F13">
-        <v>0.9847905260056079</v>
+        <v>1.007658115286682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033290362686684</v>
+        <v>1.037360765819362</v>
       </c>
       <c r="J13">
-        <v>0.9980094559755445</v>
+        <v>1.007523090134139</v>
       </c>
       <c r="K13">
-        <v>1.008427122587793</v>
+        <v>1.019488512263944</v>
       </c>
       <c r="L13">
-        <v>0.9953468927025274</v>
+        <v>1.002765283691547</v>
       </c>
       <c r="M13">
-        <v>1.000169998531176</v>
+        <v>1.022596507811184</v>
       </c>
       <c r="N13">
-        <v>0.9994267438763145</v>
+        <v>1.008953888486643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9683572076428312</v>
+        <v>0.9780539082322816</v>
       </c>
       <c r="D14">
-        <v>0.9943652093639661</v>
+        <v>1.005454856533137</v>
       </c>
       <c r="E14">
-        <v>0.9811514513105518</v>
+        <v>0.9884578832851789</v>
       </c>
       <c r="F14">
-        <v>0.9862282632986478</v>
+        <v>1.008730769012688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033878098035149</v>
+        <v>1.037754485135009</v>
       </c>
       <c r="J14">
-        <v>0.9991459294226145</v>
+        <v>1.008406058971387</v>
       </c>
       <c r="K14">
-        <v>1.00941128723459</v>
+        <v>1.020291465124723</v>
       </c>
       <c r="L14">
-        <v>0.9964552466165779</v>
+        <v>1.003618059227182</v>
       </c>
       <c r="M14">
-        <v>1.001431969874972</v>
+        <v>1.023506648317412</v>
       </c>
       <c r="N14">
-        <v>1.000564831246034</v>
+        <v>1.009838111240918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9692925671999644</v>
+        <v>0.9788229277230662</v>
       </c>
       <c r="D15">
-        <v>0.9950708707405602</v>
+        <v>1.006046262941939</v>
       </c>
       <c r="E15">
-        <v>0.9819370945795981</v>
+        <v>0.9890832972663147</v>
       </c>
       <c r="F15">
-        <v>0.9871090137777117</v>
+        <v>1.009388713002213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034237732880738</v>
+        <v>1.037995676803741</v>
       </c>
       <c r="J15">
-        <v>0.9998418504949842</v>
+        <v>1.008947425361076</v>
       </c>
       <c r="K15">
-        <v>1.010013897447297</v>
+        <v>1.020783750319668</v>
       </c>
       <c r="L15">
-        <v>0.997134010823473</v>
+        <v>1.004140974446761</v>
       </c>
       <c r="M15">
-        <v>1.002204894383011</v>
+        <v>1.024064761443979</v>
       </c>
       <c r="N15">
-        <v>1.00126174060615</v>
+        <v>1.010380246432976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746523989636001</v>
+        <v>0.9832432367956663</v>
       </c>
       <c r="D16">
-        <v>0.9991172066937695</v>
+        <v>1.009448192531767</v>
       </c>
       <c r="E16">
-        <v>0.9864427175096165</v>
+        <v>0.9926816897015306</v>
       </c>
       <c r="F16">
-        <v>0.9921603158569252</v>
+        <v>1.013174330508834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036294116712537</v>
+        <v>1.039378748304053</v>
       </c>
       <c r="J16">
-        <v>1.00382894810324</v>
+        <v>1.01205886087729</v>
       </c>
       <c r="K16">
-        <v>1.013465693887247</v>
+        <v>1.0236127440365</v>
       </c>
       <c r="L16">
-        <v>1.001023732681062</v>
+        <v>1.007147277298009</v>
       </c>
       <c r="M16">
-        <v>1.006635477007345</v>
+        <v>1.027273732432862</v>
       </c>
       <c r="N16">
-        <v>1.005254500350336</v>
+        <v>1.013496100544509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9779432902799783</v>
+        <v>0.9859685847941906</v>
       </c>
       <c r="D17">
-        <v>1.001603839848225</v>
+        <v>1.011547757161106</v>
       </c>
       <c r="E17">
-        <v>0.9892122236049391</v>
+        <v>0.9949032695279003</v>
       </c>
       <c r="F17">
-        <v>0.995265479429723</v>
+        <v>1.015511530240746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03755276491853</v>
+        <v>1.040228525412962</v>
       </c>
       <c r="J17">
-        <v>1.006276282109545</v>
+        <v>1.013976856956167</v>
       </c>
       <c r="K17">
-        <v>1.015583806260254</v>
+        <v>1.025356297200176</v>
       </c>
       <c r="L17">
-        <v>1.003412082992152</v>
+        <v>1.009001256964887</v>
       </c>
       <c r="M17">
-        <v>1.009357034335089</v>
+        <v>1.029252944605462</v>
       </c>
       <c r="N17">
-        <v>1.007705309851643</v>
+        <v>1.015416820397816</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9798383261991125</v>
+        <v>0.9875417908839875</v>
       </c>
       <c r="D18">
-        <v>1.003036481809234</v>
+        <v>1.012760438337547</v>
       </c>
       <c r="E18">
-        <v>0.9908080795347246</v>
+        <v>0.9961867101740995</v>
       </c>
       <c r="F18">
-        <v>0.997054845987858</v>
+        <v>1.016861769035914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038276090856502</v>
+        <v>1.040717967727714</v>
       </c>
       <c r="J18">
-        <v>1.007685267885327</v>
+        <v>1.015083859270986</v>
       </c>
       <c r="K18">
-        <v>1.016803006662146</v>
+        <v>1.026362486133236</v>
       </c>
       <c r="L18">
-        <v>1.004787386520179</v>
+        <v>1.010071592215833</v>
       </c>
       <c r="M18">
-        <v>1.010924611016442</v>
+        <v>1.030395658298368</v>
       </c>
       <c r="N18">
-        <v>1.00911629654884</v>
+        <v>1.016525394782897</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804804366681297</v>
+        <v>0.988075482389179</v>
       </c>
       <c r="D19">
-        <v>1.003522033864469</v>
+        <v>1.013171941857395</v>
       </c>
       <c r="E19">
-        <v>0.9913489904366759</v>
+        <v>0.9966222740377167</v>
       </c>
       <c r="F19">
-        <v>0.9976613641122701</v>
+        <v>1.017320002038995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038520930840327</v>
+        <v>1.040883817652547</v>
       </c>
       <c r="J19">
-        <v>1.008162632714708</v>
+        <v>1.015459366828344</v>
       </c>
       <c r="K19">
-        <v>1.017216029454117</v>
+        <v>1.026703773558184</v>
       </c>
       <c r="L19">
-        <v>1.005253385981378</v>
+        <v>1.010434709243409</v>
       </c>
       <c r="M19">
-        <v>1.01145582701702</v>
+        <v>1.030783342715991</v>
       </c>
       <c r="N19">
-        <v>1.009594339291034</v>
+        <v>1.016901435604058</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.977592766786982</v>
+        <v>0.9856778954762471</v>
       </c>
       <c r="D20">
-        <v>1.0013389029495</v>
+        <v>1.01132374014717</v>
       </c>
       <c r="E20">
-        <v>0.9889171235521979</v>
+        <v>0.9946662044938721</v>
       </c>
       <c r="F20">
-        <v>0.9949346041323582</v>
+        <v>1.015262126925354</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037418852950342</v>
+        <v>1.040137999756451</v>
       </c>
       <c r="J20">
-        <v>1.006015638335091</v>
+        <v>1.013772296881329</v>
       </c>
       <c r="K20">
-        <v>1.015358250148917</v>
+        <v>1.025170355358616</v>
       </c>
       <c r="L20">
-        <v>1.003157692201484</v>
+        <v>1.008803495168111</v>
       </c>
       <c r="M20">
-        <v>1.009067111060643</v>
+        <v>1.029041815940362</v>
       </c>
       <c r="N20">
-        <v>1.007444295933134</v>
+        <v>1.015211969824208</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9679086256305993</v>
+        <v>0.9776853541862645</v>
       </c>
       <c r="D21">
-        <v>0.9940268380708357</v>
+        <v>1.005171471069923</v>
       </c>
       <c r="E21">
-        <v>0.9807747391795207</v>
+        <v>0.9881582169995559</v>
       </c>
       <c r="F21">
-        <v>0.9858059517036903</v>
+        <v>1.0084155174087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033705545826213</v>
+        <v>1.037638835737458</v>
       </c>
       <c r="J21">
-        <v>0.9988121669613536</v>
+        <v>1.008146603370396</v>
       </c>
       <c r="K21">
-        <v>1.009122264407103</v>
+        <v>1.020055526265723</v>
       </c>
       <c r="L21">
-        <v>0.9961297293344883</v>
+        <v>1.003367463008834</v>
       </c>
       <c r="M21">
-        <v>1.001061318502687</v>
+        <v>1.023239190167992</v>
       </c>
       <c r="N21">
-        <v>1.000230594803796</v>
+        <v>1.009578287183214</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9615729513699054</v>
+        <v>0.9724978355347547</v>
       </c>
       <c r="D22">
-        <v>0.989251422640111</v>
+        <v>1.001186033509626</v>
       </c>
       <c r="E22">
-        <v>0.9754589272198353</v>
+        <v>0.9839447641855493</v>
       </c>
       <c r="F22">
-        <v>0.9798469192736687</v>
+        <v>1.003983045998045</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031263342648916</v>
+        <v>1.036007234313192</v>
       </c>
       <c r="J22">
-        <v>0.9940975627045079</v>
+        <v>1.004494450868656</v>
       </c>
       <c r="K22">
-        <v>1.005038861090355</v>
+        <v>1.016734031402984</v>
       </c>
       <c r="L22">
-        <v>0.9915327442196089</v>
+        <v>0.9998411320630455</v>
       </c>
       <c r="M22">
-        <v>0.9958284707429027</v>
+        <v>1.019476008776127</v>
       </c>
       <c r="N22">
-        <v>0.9955092952681327</v>
+        <v>1.005920948206013</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9649563932370886</v>
+        <v>0.9752639506846107</v>
       </c>
       <c r="D23">
-        <v>0.9918007767127949</v>
+        <v>1.003310394359427</v>
       </c>
       <c r="E23">
-        <v>0.9782966150163835</v>
+        <v>0.9861904481691262</v>
       </c>
       <c r="F23">
-        <v>0.983027919978121</v>
+        <v>1.006345432517679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032568714855881</v>
+        <v>1.036878109877891</v>
       </c>
       <c r="J23">
-        <v>0.9966154330227863</v>
+        <v>1.006441914057812</v>
       </c>
       <c r="K23">
-        <v>1.007219807429186</v>
+        <v>1.018505257431924</v>
       </c>
       <c r="L23">
-        <v>0.9939875328092411</v>
+        <v>1.001721245122567</v>
       </c>
       <c r="M23">
-        <v>0.9986224599117512</v>
+        <v>1.021482300891194</v>
       </c>
       <c r="N23">
-        <v>0.9980307412510667</v>
+        <v>1.007871177016275</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9777512286562431</v>
+        <v>0.985809296131812</v>
       </c>
       <c r="D24">
-        <v>1.001458671253253</v>
+        <v>1.011425000650803</v>
       </c>
       <c r="E24">
-        <v>0.9890505267667075</v>
+        <v>0.994773362095914</v>
       </c>
       <c r="F24">
-        <v>0.9950841796355776</v>
+        <v>1.015374861642933</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037479395343399</v>
+        <v>1.040178923575426</v>
       </c>
       <c r="J24">
-        <v>1.006133469018912</v>
+        <v>1.013864764931743</v>
       </c>
       <c r="K24">
-        <v>1.015460219321575</v>
+        <v>1.02525440774842</v>
       </c>
       <c r="L24">
-        <v>1.003272695208124</v>
+        <v>1.008892889296147</v>
       </c>
       <c r="M24">
-        <v>1.009198176073398</v>
+        <v>1.029137252040182</v>
       </c>
       <c r="N24">
-        <v>1.007562293950041</v>
+        <v>1.01530456918986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916477977807105</v>
+        <v>0.9974070671554216</v>
       </c>
       <c r="D25">
-        <v>1.011975554704073</v>
+        <v>1.020376165484274</v>
       </c>
       <c r="E25">
-        <v>1.000770228067492</v>
+        <v>1.004252147817737</v>
       </c>
       <c r="F25">
-        <v>1.008226975681279</v>
+        <v>1.025346803380184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042757037131617</v>
+        <v>1.04376708031277</v>
       </c>
       <c r="J25">
-        <v>1.016459553688607</v>
+        <v>1.0220220100426</v>
       </c>
       <c r="K25">
-        <v>1.02439076714236</v>
+        <v>1.032666193028718</v>
       </c>
       <c r="L25">
-        <v>1.013356598992608</v>
+        <v>1.016784811350248</v>
       </c>
       <c r="M25">
-        <v>1.020698906905286</v>
+        <v>1.037563984438533</v>
       </c>
       <c r="N25">
-        <v>1.017903042844385</v>
+        <v>1.023473398524423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006206077294841</v>
+        <v>1.016714747822935</v>
       </c>
       <c r="D2">
-        <v>1.027183840991797</v>
+        <v>1.031988900855711</v>
       </c>
       <c r="E2">
-        <v>1.011470908759286</v>
+        <v>1.018413011735875</v>
       </c>
       <c r="F2">
-        <v>1.03294035466189</v>
+        <v>0.979377893975468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046453079735875</v>
+        <v>1.051197333649547</v>
       </c>
       <c r="J2">
-        <v>1.028202736984946</v>
+        <v>1.038406763671603</v>
       </c>
       <c r="K2">
-        <v>1.038277019389182</v>
+        <v>1.04301986681156</v>
       </c>
       <c r="L2">
-        <v>1.0227727156906</v>
+        <v>1.029621648359992</v>
       </c>
       <c r="M2">
-        <v>1.043959087721239</v>
+        <v>0.9911322053234142</v>
       </c>
       <c r="N2">
-        <v>1.02966290280798</v>
+        <v>1.039881420382937</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012360918108201</v>
+        <v>1.024224506491878</v>
       </c>
       <c r="D3">
-        <v>1.031953279166212</v>
+        <v>1.038127836949492</v>
       </c>
       <c r="E3">
-        <v>1.016534473367995</v>
+        <v>1.024950781445819</v>
       </c>
       <c r="F3">
-        <v>1.038266014973534</v>
+        <v>0.9932650198514218</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048309750640465</v>
+        <v>1.055007908992208</v>
       </c>
       <c r="J3">
-        <v>1.032520191542657</v>
+        <v>1.044075885730863</v>
       </c>
       <c r="K3">
-        <v>1.042193005997966</v>
+        <v>1.048295044461065</v>
       </c>
       <c r="L3">
-        <v>1.026960074918452</v>
+        <v>1.035274063546337</v>
       </c>
       <c r="M3">
-        <v>1.048431611806532</v>
+        <v>1.003984807562595</v>
       </c>
       <c r="N3">
-        <v>1.033986488646369</v>
+        <v>1.045558593245778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016243375409177</v>
+        <v>1.028908129001827</v>
       </c>
       <c r="D4">
-        <v>1.034964690525071</v>
+        <v>1.04195539633603</v>
       </c>
       <c r="E4">
-        <v>1.01973456616539</v>
+        <v>1.029026886706728</v>
       </c>
       <c r="F4">
-        <v>1.041631276565655</v>
+        <v>1.001812734961067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049470307803568</v>
+        <v>1.057362605207046</v>
       </c>
       <c r="J4">
-        <v>1.035240506962106</v>
+        <v>1.047600194105026</v>
       </c>
       <c r="K4">
-        <v>1.044658670789083</v>
+        <v>1.051572512871138</v>
       </c>
       <c r="L4">
-        <v>1.029600506859653</v>
+        <v>1.038787163893215</v>
       </c>
       <c r="M4">
-        <v>1.051251928839444</v>
+        <v>1.011889330994543</v>
       </c>
       <c r="N4">
-        <v>1.036710667225738</v>
+        <v>1.049087906542077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017852704363997</v>
+        <v>1.03083794992817</v>
       </c>
       <c r="D5">
-        <v>1.036213560764287</v>
+        <v>1.043532224624343</v>
       </c>
       <c r="E5">
-        <v>1.021062417760906</v>
+        <v>1.030706019454265</v>
       </c>
       <c r="F5">
-        <v>1.043027536370501</v>
+        <v>1.005311208376952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049948770505919</v>
+        <v>1.058327762724047</v>
       </c>
       <c r="J5">
-        <v>1.036367309172159</v>
+        <v>1.049049659442535</v>
       </c>
       <c r="K5">
-        <v>1.045679565792379</v>
+        <v>1.05292002024973</v>
       </c>
       <c r="L5">
-        <v>1.030694715320472</v>
+        <v>1.040231778563576</v>
       </c>
       <c r="M5">
-        <v>1.052420682125709</v>
+        <v>1.015122949032363</v>
       </c>
       <c r="N5">
-        <v>1.037839069624176</v>
+        <v>1.050539430286621</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018121608560387</v>
+        <v>1.031159755797984</v>
       </c>
       <c r="D6">
-        <v>1.036422268535298</v>
+        <v>1.043795151937601</v>
       </c>
       <c r="E6">
-        <v>1.021284368333902</v>
+        <v>1.030985998788716</v>
       </c>
       <c r="F6">
-        <v>1.04326091351478</v>
+        <v>1.005893307723824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050028562662695</v>
+        <v>1.058488413667299</v>
       </c>
       <c r="J6">
-        <v>1.036555538748871</v>
+        <v>1.049291207716174</v>
       </c>
       <c r="K6">
-        <v>1.045850078195145</v>
+        <v>1.053144552450354</v>
       </c>
       <c r="L6">
-        <v>1.030877529180739</v>
+        <v>1.040472503155864</v>
       </c>
       <c r="M6">
-        <v>1.052615949994381</v>
+        <v>1.015660883867276</v>
       </c>
       <c r="N6">
-        <v>1.038027566508476</v>
+        <v>1.050781321586515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016264967728311</v>
+        <v>1.028934065727327</v>
       </c>
       <c r="D7">
-        <v>1.034981444313017</v>
+        <v>1.041976589897881</v>
       </c>
       <c r="E7">
-        <v>1.019752376577495</v>
+        <v>1.029049455723444</v>
       </c>
       <c r="F7">
-        <v>1.041650005054561</v>
+        <v>1.001859842986347</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049476737687134</v>
+        <v>1.057375596738029</v>
       </c>
       <c r="J7">
-        <v>1.035255628482685</v>
+        <v>1.047619685419315</v>
       </c>
       <c r="K7">
-        <v>1.044672372762538</v>
+        <v>1.05159063484013</v>
       </c>
       <c r="L7">
-        <v>1.029615189023886</v>
+        <v>1.038806590988623</v>
       </c>
       <c r="M7">
-        <v>1.051267611274638</v>
+        <v>1.011932879112572</v>
       </c>
       <c r="N7">
-        <v>1.036725810220611</v>
+        <v>1.049107425536268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008307565259315</v>
+        <v>1.019290937646337</v>
       </c>
       <c r="D8">
-        <v>1.028811645517765</v>
+        <v>1.034095079455191</v>
       </c>
       <c r="E8">
-        <v>1.01319848621545</v>
+        <v>1.020656009494459</v>
       </c>
       <c r="F8">
-        <v>1.034757443619614</v>
+        <v>0.9841683283589493</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047089217138357</v>
+        <v>1.052509291905637</v>
       </c>
       <c r="J8">
-        <v>1.029677496953354</v>
+        <v>1.040353975228576</v>
       </c>
       <c r="K8">
-        <v>1.039614990508857</v>
+        <v>1.044832197758423</v>
       </c>
       <c r="L8">
-        <v>1.024202594972703</v>
+        <v>1.031563266521493</v>
       </c>
       <c r="M8">
-        <v>1.045486318767135</v>
+        <v>0.9955671078442269</v>
       </c>
       <c r="N8">
-        <v>1.031139757104688</v>
+        <v>1.041831397203669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9934642497017833</v>
+        <v>1.000800826580807</v>
       </c>
       <c r="D9">
-        <v>1.017330157332181</v>
+        <v>1.018972614264236</v>
       </c>
       <c r="E9">
-        <v>1.001025103144635</v>
+        <v>1.004554057388903</v>
       </c>
       <c r="F9">
-        <v>1.021951936891588</v>
+        <v>0.949087460172795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04255282459631</v>
+        <v>1.042986854164886</v>
       </c>
       <c r="J9">
-        <v>1.019249932108616</v>
+        <v>1.026325337256612</v>
       </c>
       <c r="K9">
-        <v>1.030148185747131</v>
+        <v>1.031765194998907</v>
       </c>
       <c r="L9">
-        <v>1.014101570631014</v>
+        <v>1.017573677783009</v>
       </c>
       <c r="M9">
-        <v>1.03469862339113</v>
+        <v>0.9630643506300502</v>
       </c>
       <c r="N9">
-        <v>1.020697383921812</v>
+        <v>1.027782836956678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9829329761225635</v>
+        <v>0.9872072827040302</v>
       </c>
       <c r="D10">
-        <v>1.009209272854024</v>
+        <v>1.00784485403346</v>
       </c>
       <c r="E10">
-        <v>0.9924289235371735</v>
+        <v>0.9927152140269253</v>
       </c>
       <c r="F10">
-        <v>1.01290841035181</v>
+        <v>0.9220677461666569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039281860304786</v>
+        <v>1.03583179399717</v>
       </c>
       <c r="J10">
-        <v>1.011840491448515</v>
+        <v>1.015937815586434</v>
       </c>
       <c r="K10">
-        <v>1.023414218273185</v>
+        <v>1.022073897223654</v>
       </c>
       <c r="L10">
-        <v>1.006936234989759</v>
+        <v>1.007217255118255</v>
       </c>
       <c r="M10">
-        <v>1.027048446202445</v>
+        <v>0.9380026845249881</v>
       </c>
       <c r="N10">
-        <v>1.013277421006098</v>
+        <v>1.017380563814263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782009214782793</v>
+        <v>0.9809430634612772</v>
       </c>
       <c r="D11">
-        <v>1.005567905261267</v>
+        <v>1.002712991136119</v>
       </c>
       <c r="E11">
-        <v>0.9885774294292603</v>
+        <v>0.9872605187211428</v>
       </c>
       <c r="F11">
-        <v>1.008856532879738</v>
+        <v>0.9091766837464194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037800606341349</v>
+        <v>1.03248991403859</v>
       </c>
       <c r="J11">
-        <v>1.00850955289393</v>
+        <v>1.011130699600843</v>
       </c>
       <c r="K11">
-        <v>1.020385577419333</v>
+        <v>1.017583925138034</v>
       </c>
       <c r="L11">
-        <v>1.003718022213338</v>
+        <v>1.002426749477843</v>
       </c>
       <c r="M11">
-        <v>1.02361333861569</v>
+        <v>0.9260418784334206</v>
       </c>
       <c r="N11">
-        <v>1.009941752136702</v>
+        <v>1.012566621172589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9764153754320506</v>
+        <v>0.9785506915353237</v>
       </c>
       <c r="D12">
-        <v>1.004195205608705</v>
+        <v>1.000752250814667</v>
       </c>
       <c r="E12">
-        <v>0.9871259351878118</v>
+        <v>0.9851775615718471</v>
       </c>
       <c r="F12">
-        <v>1.007329555283166</v>
+        <v>0.9041690993015492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037240044168569</v>
+        <v>1.031205909382154</v>
       </c>
       <c r="J12">
-        <v>1.007252539697241</v>
+        <v>1.009291406844314</v>
       </c>
       <c r="K12">
-        <v>1.019242471047382</v>
+        <v>1.015865053063063</v>
       </c>
       <c r="L12">
-        <v>1.002504009314193</v>
+        <v>1.000594354356778</v>
       </c>
       <c r="M12">
-        <v>1.022317667012296</v>
+        <v>0.9213954017196527</v>
       </c>
       <c r="N12">
-        <v>1.008682953837092</v>
+        <v>1.010724716409375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9767996760941181</v>
+        <v>0.9790669971730509</v>
       </c>
       <c r="D13">
-        <v>1.004490588723873</v>
+        <v>1.001175447056202</v>
       </c>
       <c r="E13">
-        <v>0.9874382553295903</v>
+        <v>0.9856270782796792</v>
       </c>
       <c r="F13">
-        <v>1.007658115286682</v>
+        <v>0.9052539690153865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037360765819362</v>
+        <v>1.03148338184971</v>
       </c>
       <c r="J13">
-        <v>1.007523090134139</v>
+        <v>1.009688511281648</v>
       </c>
       <c r="K13">
-        <v>1.019488512263944</v>
+        <v>1.01623620360351</v>
       </c>
       <c r="L13">
-        <v>1.002765283691547</v>
+        <v>1.00098994101542</v>
       </c>
       <c r="M13">
-        <v>1.022596507811184</v>
+        <v>0.9224020438759178</v>
       </c>
       <c r="N13">
-        <v>1.008953888486643</v>
+        <v>1.011122384780559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9780539082322816</v>
+        <v>0.9807467058834931</v>
       </c>
       <c r="D14">
-        <v>1.005454856533137</v>
+        <v>1.002552078904527</v>
       </c>
       <c r="E14">
-        <v>0.9884578832851789</v>
+        <v>0.9870895511263732</v>
       </c>
       <c r="F14">
-        <v>1.008730769012688</v>
+        <v>0.9087675121024656</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037754485135009</v>
+        <v>1.032384690172913</v>
       </c>
       <c r="J14">
-        <v>1.008406058971387</v>
+        <v>1.010979808187809</v>
       </c>
       <c r="K14">
-        <v>1.020291465124723</v>
+        <v>1.017442932618626</v>
       </c>
       <c r="L14">
-        <v>1.003618059227182</v>
+        <v>1.002276411519338</v>
       </c>
       <c r="M14">
-        <v>1.023506648317412</v>
+        <v>0.9256622158055672</v>
       </c>
       <c r="N14">
-        <v>1.009838111240918</v>
+        <v>1.012415515476441</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9788229277230662</v>
+        <v>0.9817726401157102</v>
       </c>
       <c r="D15">
-        <v>1.006046262941939</v>
+        <v>1.003392782154089</v>
       </c>
       <c r="E15">
-        <v>0.9890832972663147</v>
+        <v>0.987982837873535</v>
       </c>
       <c r="F15">
-        <v>1.009388713002213</v>
+        <v>0.9109018230312891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037995676803741</v>
+        <v>1.032934147828767</v>
       </c>
       <c r="J15">
-        <v>1.008947425361076</v>
+        <v>1.011768049343411</v>
       </c>
       <c r="K15">
-        <v>1.020783750319668</v>
+        <v>1.0181794244358</v>
       </c>
       <c r="L15">
-        <v>1.004140974446761</v>
+        <v>1.003061784841181</v>
       </c>
       <c r="M15">
-        <v>1.024064761443979</v>
+        <v>0.9276425946098301</v>
       </c>
       <c r="N15">
-        <v>1.010380246432976</v>
+        <v>1.013204876024896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832432367956663</v>
+        <v>0.9876143556740102</v>
       </c>
       <c r="D16">
-        <v>1.009448192531767</v>
+        <v>1.00817824428599</v>
       </c>
       <c r="E16">
-        <v>0.9926816897015306</v>
+        <v>0.9930697088786352</v>
       </c>
       <c r="F16">
-        <v>1.013174330508834</v>
+        <v>0.9228950449849381</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039378748304053</v>
+        <v>1.036047970184371</v>
       </c>
       <c r="J16">
-        <v>1.01205886087729</v>
+        <v>1.016249757136571</v>
       </c>
       <c r="K16">
-        <v>1.0236127440365</v>
+        <v>1.02236514283264</v>
       </c>
       <c r="L16">
-        <v>1.007147277298009</v>
+        <v>1.007528180099041</v>
       </c>
       <c r="M16">
-        <v>1.027273732432862</v>
+        <v>0.9387702288187413</v>
       </c>
       <c r="N16">
-        <v>1.013496100544509</v>
+        <v>1.017692948357181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9859685847941906</v>
+        <v>0.9911719725997141</v>
       </c>
       <c r="D17">
-        <v>1.011547757161106</v>
+        <v>1.011091456188552</v>
       </c>
       <c r="E17">
-        <v>0.9949032695279003</v>
+        <v>0.9961679335885303</v>
       </c>
       <c r="F17">
-        <v>1.015511530240746</v>
+        <v>0.9300746301413404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040228525412962</v>
+        <v>1.037932175641501</v>
       </c>
       <c r="J17">
-        <v>1.013976856956167</v>
+        <v>1.018973677581645</v>
       </c>
       <c r="K17">
-        <v>1.025356297200176</v>
+        <v>1.024907767216408</v>
       </c>
       <c r="L17">
-        <v>1.009001256964887</v>
+        <v>1.010243488089218</v>
       </c>
       <c r="M17">
-        <v>1.029252944605462</v>
+        <v>0.9454308408210342</v>
       </c>
       <c r="N17">
-        <v>1.015416820397816</v>
+        <v>1.020420737081725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9875417908839875</v>
+        <v>0.9932112783887255</v>
       </c>
       <c r="D18">
-        <v>1.012760438337547</v>
+        <v>1.012761028896335</v>
       </c>
       <c r="E18">
-        <v>0.9961867101740995</v>
+        <v>0.9979439830410535</v>
       </c>
       <c r="F18">
-        <v>1.016861769035914</v>
+        <v>0.934150702468612</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040717967727714</v>
+        <v>1.039008173512434</v>
       </c>
       <c r="J18">
-        <v>1.015083859270986</v>
+        <v>1.020533231691128</v>
       </c>
       <c r="K18">
-        <v>1.026362486133236</v>
+        <v>1.026363066826536</v>
       </c>
       <c r="L18">
-        <v>1.010071592215833</v>
+        <v>1.0117983006416</v>
       </c>
       <c r="M18">
-        <v>1.030395658298368</v>
+        <v>0.9492118940397426</v>
       </c>
       <c r="N18">
-        <v>1.016525394782897</v>
+        <v>1.021982505936927</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.988075482389179</v>
+        <v>0.9939007883721566</v>
       </c>
       <c r="D19">
-        <v>1.013171941857395</v>
+        <v>1.013325474889249</v>
       </c>
       <c r="E19">
-        <v>0.9966222740377167</v>
+        <v>0.9985444934756096</v>
       </c>
       <c r="F19">
-        <v>1.017320002038995</v>
+        <v>0.935522615045815</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040883817652547</v>
+        <v>1.039371312497841</v>
       </c>
       <c r="J19">
-        <v>1.015459366828344</v>
+        <v>1.021060225820557</v>
       </c>
       <c r="K19">
-        <v>1.026703773558184</v>
+        <v>1.026854758650955</v>
       </c>
       <c r="L19">
-        <v>1.010434709243409</v>
+        <v>1.01232371963014</v>
       </c>
       <c r="M19">
-        <v>1.030783342715991</v>
+        <v>0.9504844372330588</v>
       </c>
       <c r="N19">
-        <v>1.016901435604058</v>
+        <v>1.022510248458467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9856778954762471</v>
+        <v>0.9907940321748105</v>
       </c>
       <c r="D20">
-        <v>1.01132374014717</v>
+        <v>1.010782010874867</v>
       </c>
       <c r="E20">
-        <v>0.9946662044938721</v>
+        <v>0.9958387874854568</v>
       </c>
       <c r="F20">
-        <v>1.015262126925354</v>
+        <v>0.9293161269284886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040137999756451</v>
+        <v>1.037732438436016</v>
       </c>
       <c r="J20">
-        <v>1.013772296881329</v>
+        <v>1.01868449973134</v>
       </c>
       <c r="K20">
-        <v>1.025170355358616</v>
+        <v>1.024637884572898</v>
       </c>
       <c r="L20">
-        <v>1.008803495168111</v>
+        <v>1.009955203579987</v>
       </c>
       <c r="M20">
-        <v>1.029041815940362</v>
+        <v>0.9447272036382814</v>
       </c>
       <c r="N20">
-        <v>1.015211969824208</v>
+        <v>1.020131148565704</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9776853541862645</v>
+        <v>0.9802539656645201</v>
       </c>
       <c r="D21">
-        <v>1.005171471069923</v>
+        <v>1.002148271034352</v>
       </c>
       <c r="E21">
-        <v>0.9881582169995559</v>
+        <v>0.9866605289868217</v>
       </c>
       <c r="F21">
-        <v>1.0084155174087</v>
+        <v>0.9077393088094124</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037638835737458</v>
+        <v>1.032120513497129</v>
       </c>
       <c r="J21">
-        <v>1.008146603370396</v>
+        <v>1.010601104823323</v>
       </c>
       <c r="K21">
-        <v>1.020055526265723</v>
+        <v>1.017089057742608</v>
       </c>
       <c r="L21">
-        <v>1.003367463008834</v>
+        <v>1.001899106733681</v>
       </c>
       <c r="M21">
-        <v>1.023239190167992</v>
+        <v>0.9247081627143199</v>
       </c>
       <c r="N21">
-        <v>1.009578287183214</v>
+        <v>1.012036274309739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9724978355347547</v>
+        <v>0.9732413758035331</v>
       </c>
       <c r="D22">
-        <v>1.001186033509626</v>
+        <v>0.996398918382261</v>
       </c>
       <c r="E22">
-        <v>0.9839447641855493</v>
+        <v>0.9805555145261451</v>
       </c>
       <c r="F22">
-        <v>1.003983045998045</v>
+        <v>0.8928726081082198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036007234313192</v>
+        <v>1.028340600189549</v>
       </c>
       <c r="J22">
-        <v>1.004494450868656</v>
+        <v>1.005202675990711</v>
       </c>
       <c r="K22">
-        <v>1.016734031402984</v>
+        <v>1.012042052545768</v>
       </c>
       <c r="L22">
-        <v>0.9998411320630455</v>
+        <v>0.9965222688402657</v>
       </c>
       <c r="M22">
-        <v>1.019476008776127</v>
+        <v>0.9109135477450879</v>
       </c>
       <c r="N22">
-        <v>1.005920948206013</v>
+        <v>1.006630179088976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9752639506846107</v>
+        <v>0.976999043981824</v>
       </c>
       <c r="D23">
-        <v>1.003310394359427</v>
+        <v>0.9994802765998808</v>
       </c>
       <c r="E23">
-        <v>0.9861904481691262</v>
+        <v>0.9838266796904326</v>
       </c>
       <c r="F23">
-        <v>1.006345432517679</v>
+        <v>0.9008945672561122</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036878109877891</v>
+        <v>1.030370795187087</v>
       </c>
       <c r="J23">
-        <v>1.006441914057812</v>
+        <v>1.008097458079008</v>
       </c>
       <c r="K23">
-        <v>1.018505257431924</v>
+        <v>1.014748985949632</v>
       </c>
       <c r="L23">
-        <v>1.001721245122567</v>
+        <v>0.9994050691224371</v>
       </c>
       <c r="M23">
-        <v>1.021482300891194</v>
+        <v>0.9183569849311289</v>
       </c>
       <c r="N23">
-        <v>1.007871177016275</v>
+        <v>1.009529072099874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985809296131812</v>
+        <v>0.9909649171580636</v>
       </c>
       <c r="D24">
-        <v>1.011425000650803</v>
+        <v>1.010921926995315</v>
       </c>
       <c r="E24">
-        <v>0.994773362095914</v>
+        <v>0.9959876099834228</v>
       </c>
       <c r="F24">
-        <v>1.015374861642933</v>
+        <v>0.9296592040612666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040178923575426</v>
+        <v>1.037822761805075</v>
       </c>
       <c r="J24">
-        <v>1.013864764931743</v>
+        <v>1.018815256659701</v>
       </c>
       <c r="K24">
-        <v>1.02525440774842</v>
+        <v>1.024759918235384</v>
       </c>
       <c r="L24">
-        <v>1.008892889296147</v>
+        <v>1.010085555992687</v>
       </c>
       <c r="M24">
-        <v>1.029137252040182</v>
+        <v>0.9450454656387552</v>
       </c>
       <c r="N24">
-        <v>1.01530456918986</v>
+        <v>1.020262091183901</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9974070671554216</v>
+        <v>1.005782233383188</v>
       </c>
       <c r="D25">
-        <v>1.020376165484274</v>
+        <v>1.02304811337013</v>
       </c>
       <c r="E25">
-        <v>1.004252147817737</v>
+        <v>1.00889258288471</v>
       </c>
       <c r="F25">
-        <v>1.025346803380184</v>
+        <v>0.9587082153910145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04376708031277</v>
+        <v>1.045576254565791</v>
       </c>
       <c r="J25">
-        <v>1.0220220100426</v>
+        <v>1.030116557039257</v>
       </c>
       <c r="K25">
-        <v>1.032666193028718</v>
+        <v>1.035298870884377</v>
       </c>
       <c r="L25">
-        <v>1.016784811350248</v>
+        <v>1.021354403757847</v>
       </c>
       <c r="M25">
-        <v>1.037563984438533</v>
+        <v>0.9719832421282187</v>
       </c>
       <c r="N25">
-        <v>1.023473398524423</v>
+        <v>1.031579440706273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016714747822935</v>
+        <v>1.049372413810607</v>
       </c>
       <c r="D2">
-        <v>1.031988900855711</v>
+        <v>1.051811990725495</v>
       </c>
       <c r="E2">
-        <v>1.018413011735875</v>
+        <v>1.046350559679824</v>
       </c>
       <c r="F2">
-        <v>0.979377893975468</v>
+        <v>1.052953261296608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051197333649547</v>
+        <v>1.048203490450746</v>
       </c>
       <c r="J2">
-        <v>1.038406763671603</v>
+        <v>1.054411209305147</v>
       </c>
       <c r="K2">
-        <v>1.04301986681156</v>
+        <v>1.054562456638632</v>
       </c>
       <c r="L2">
-        <v>1.029621648359992</v>
+        <v>1.049116240933994</v>
       </c>
       <c r="M2">
-        <v>0.9911322053234142</v>
+        <v>1.055700569281105</v>
       </c>
       <c r="N2">
-        <v>1.039881420382937</v>
+        <v>1.055908594165016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024224506491878</v>
+        <v>1.050728646042662</v>
       </c>
       <c r="D3">
-        <v>1.038127836949492</v>
+        <v>1.052915471161338</v>
       </c>
       <c r="E3">
-        <v>1.024950781445819</v>
+        <v>1.047544295860482</v>
       </c>
       <c r="F3">
-        <v>0.9932650198514218</v>
+        <v>1.055430357076857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055007908992208</v>
+        <v>1.048774040477393</v>
       </c>
       <c r="J3">
-        <v>1.044075885730863</v>
+        <v>1.055414704330077</v>
       </c>
       <c r="K3">
-        <v>1.048295044461065</v>
+        <v>1.055477910815659</v>
       </c>
       <c r="L3">
-        <v>1.035274063546337</v>
+        <v>1.050120609141667</v>
       </c>
       <c r="M3">
-        <v>1.003984807562595</v>
+        <v>1.057986353182528</v>
       </c>
       <c r="N3">
-        <v>1.045558593245778</v>
+        <v>1.056913514267985</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028908129001827</v>
+        <v>1.051603642098911</v>
       </c>
       <c r="D4">
-        <v>1.04195539633603</v>
+        <v>1.053627166168802</v>
       </c>
       <c r="E4">
-        <v>1.029026886706728</v>
+        <v>1.048313904880858</v>
       </c>
       <c r="F4">
-        <v>1.001812734961067</v>
+        <v>1.05702596693558</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057362605207046</v>
+        <v>1.049140225469716</v>
       </c>
       <c r="J4">
-        <v>1.047600194105026</v>
+        <v>1.056061003110874</v>
       </c>
       <c r="K4">
-        <v>1.051572512871138</v>
+        <v>1.05606735593772</v>
       </c>
       <c r="L4">
-        <v>1.038787163893215</v>
+        <v>1.050767122708032</v>
       </c>
       <c r="M4">
-        <v>1.011889330994543</v>
+        <v>1.059457896722576</v>
       </c>
       <c r="N4">
-        <v>1.049087906542077</v>
+        <v>1.057560730867182</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03083794992817</v>
+        <v>1.051970883785694</v>
       </c>
       <c r="D5">
-        <v>1.043532224624343</v>
+        <v>1.053925813017544</v>
       </c>
       <c r="E5">
-        <v>1.030706019454265</v>
+        <v>1.04863678300665</v>
       </c>
       <c r="F5">
-        <v>1.005311208376952</v>
+        <v>1.057695073177201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058327762724047</v>
+        <v>1.04929345812808</v>
       </c>
       <c r="J5">
-        <v>1.049049659442535</v>
+        <v>1.05633199031778</v>
       </c>
       <c r="K5">
-        <v>1.05292002024973</v>
+        <v>1.056314468729562</v>
       </c>
       <c r="L5">
-        <v>1.040231778563576</v>
+        <v>1.051038116544109</v>
       </c>
       <c r="M5">
-        <v>1.015122949032363</v>
+        <v>1.060074777025021</v>
       </c>
       <c r="N5">
-        <v>1.050539430286621</v>
+        <v>1.057832102907004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031159755797984</v>
+        <v>1.052032510002125</v>
       </c>
       <c r="D6">
-        <v>1.043795151937601</v>
+        <v>1.053975925137947</v>
       </c>
       <c r="E6">
-        <v>1.030985998788716</v>
+        <v>1.048690956903159</v>
       </c>
       <c r="F6">
-        <v>1.005893307723824</v>
+        <v>1.057807321341825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058488413667299</v>
+        <v>1.049319145028308</v>
       </c>
       <c r="J6">
-        <v>1.049291207716174</v>
+        <v>1.056377448473504</v>
       </c>
       <c r="K6">
-        <v>1.053144552450354</v>
+        <v>1.056355919824229</v>
       </c>
       <c r="L6">
-        <v>1.040472503155864</v>
+        <v>1.051083570911877</v>
       </c>
       <c r="M6">
-        <v>1.015660883867276</v>
+        <v>1.060178252132865</v>
       </c>
       <c r="N6">
-        <v>1.050781321586515</v>
+        <v>1.057877625618524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028934065727327</v>
+        <v>1.051608551569922</v>
       </c>
       <c r="D7">
-        <v>1.041976589897881</v>
+        <v>1.053631158851349</v>
       </c>
       <c r="E7">
-        <v>1.029049455723444</v>
+        <v>1.048318221796539</v>
       </c>
       <c r="F7">
-        <v>1.001859842986347</v>
+        <v>1.05703491413985</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057375596738029</v>
+        <v>1.049142275758921</v>
       </c>
       <c r="J7">
-        <v>1.047619685419315</v>
+        <v>1.05606462686005</v>
       </c>
       <c r="K7">
-        <v>1.05159063484013</v>
+        <v>1.056070660571051</v>
       </c>
       <c r="L7">
-        <v>1.038806590988623</v>
+        <v>1.050770746874287</v>
       </c>
       <c r="M7">
-        <v>1.011932879112572</v>
+        <v>1.059466146353863</v>
       </c>
       <c r="N7">
-        <v>1.049107425536268</v>
+        <v>1.057564359762497</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019290937646337</v>
+        <v>1.04983129861273</v>
       </c>
       <c r="D8">
-        <v>1.034095079455191</v>
+        <v>1.052185404656841</v>
       </c>
       <c r="E8">
-        <v>1.020656009494459</v>
+        <v>1.046754577461223</v>
       </c>
       <c r="F8">
-        <v>0.9841683283589493</v>
+        <v>1.053791932718614</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052509291905637</v>
+        <v>1.048396935386319</v>
       </c>
       <c r="J8">
-        <v>1.040353975228576</v>
+        <v>1.054750977588506</v>
       </c>
       <c r="K8">
-        <v>1.044832197758423</v>
+        <v>1.054872447011157</v>
       </c>
       <c r="L8">
-        <v>1.031563266521493</v>
+        <v>1.049456376934805</v>
       </c>
       <c r="M8">
-        <v>0.9955671078442269</v>
+        <v>1.056474641217383</v>
       </c>
       <c r="N8">
-        <v>1.041831397203669</v>
+        <v>1.056248844958309</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000800826580807</v>
+        <v>1.046679352004719</v>
       </c>
       <c r="D9">
-        <v>1.018972614264236</v>
+        <v>1.049619578628892</v>
       </c>
       <c r="E9">
-        <v>1.004554057388903</v>
+        <v>1.04397723881623</v>
       </c>
       <c r="F9">
-        <v>0.949087460172795</v>
+        <v>1.048019947905993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042986854164886</v>
+        <v>1.047060288529742</v>
       </c>
       <c r="J9">
-        <v>1.026325337256612</v>
+        <v>1.052412572089623</v>
       </c>
       <c r="K9">
-        <v>1.031765194998907</v>
+        <v>1.052738358430352</v>
       </c>
       <c r="L9">
-        <v>1.017573677783009</v>
+        <v>1.04711401153923</v>
       </c>
       <c r="M9">
-        <v>0.9630643506300502</v>
+        <v>1.051143807261036</v>
       </c>
       <c r="N9">
-        <v>1.027782836956678</v>
+        <v>1.053907118655399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9872072827040302</v>
+        <v>1.044563818200775</v>
       </c>
       <c r="D10">
-        <v>1.00784485403346</v>
+        <v>1.047896249136287</v>
       </c>
       <c r="E10">
-        <v>0.9927152140269253</v>
+        <v>1.042110305043727</v>
       </c>
       <c r="F10">
-        <v>0.9220677461666569</v>
+        <v>1.044130498630351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03583179399717</v>
+        <v>1.046153136385</v>
       </c>
       <c r="J10">
-        <v>1.015937815586434</v>
+        <v>1.050837232847835</v>
       </c>
       <c r="K10">
-        <v>1.022073897223654</v>
+        <v>1.051299875407612</v>
       </c>
       <c r="L10">
-        <v>1.007217255118255</v>
+        <v>1.045534213337062</v>
       </c>
       <c r="M10">
-        <v>0.9380026845249881</v>
+        <v>1.047547297206493</v>
       </c>
       <c r="N10">
-        <v>1.017380563814263</v>
+        <v>1.052329542251195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9809430634612772</v>
+        <v>1.043644244582951</v>
       </c>
       <c r="D11">
-        <v>1.002712991136119</v>
+        <v>1.047146878402603</v>
       </c>
       <c r="E11">
-        <v>0.9872605187211428</v>
+        <v>1.041298123647158</v>
       </c>
       <c r="F11">
-        <v>0.9091766837464194</v>
+        <v>1.042435849922837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03248991403859</v>
+        <v>1.045756428069454</v>
       </c>
       <c r="J11">
-        <v>1.011130699600843</v>
+        <v>1.050151080627727</v>
       </c>
       <c r="K11">
-        <v>1.017583925138034</v>
+        <v>1.050673144625614</v>
       </c>
       <c r="L11">
-        <v>1.002426749477843</v>
+        <v>1.044845696664044</v>
       </c>
       <c r="M11">
-        <v>0.9260418784334206</v>
+        <v>1.045979257546225</v>
       </c>
       <c r="N11">
-        <v>1.012566621172589</v>
+        <v>1.051642415616231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9785506915353237</v>
+        <v>1.043302130261325</v>
       </c>
       <c r="D12">
-        <v>1.000752250814667</v>
+        <v>1.046868043927556</v>
       </c>
       <c r="E12">
-        <v>0.9851775615718471</v>
+        <v>1.040995862892096</v>
       </c>
       <c r="F12">
-        <v>0.9041690993015492</v>
+        <v>1.041804750029901</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031205909382154</v>
+        <v>1.045608478001304</v>
       </c>
       <c r="J12">
-        <v>1.009291406844314</v>
+        <v>1.049895598485941</v>
       </c>
       <c r="K12">
-        <v>1.015865053063063</v>
+        <v>1.050439759269553</v>
       </c>
       <c r="L12">
-        <v>1.000594354356778</v>
+        <v>1.044589270911723</v>
       </c>
       <c r="M12">
-        <v>0.9213954017196527</v>
+        <v>1.04539515383777</v>
       </c>
       <c r="N12">
-        <v>1.010724716409375</v>
+        <v>1.0513865706605</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9790669971730509</v>
+        <v>1.043375539758373</v>
       </c>
       <c r="D13">
-        <v>1.001175447056202</v>
+        <v>1.046927876976969</v>
       </c>
       <c r="E13">
-        <v>0.9856270782796792</v>
+        <v>1.041060725301918</v>
       </c>
       <c r="F13">
-        <v>0.9052539690153865</v>
+        <v>1.041940197851756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03148338184971</v>
+        <v>1.04564024084815</v>
       </c>
       <c r="J13">
-        <v>1.009688511281648</v>
+        <v>1.049950428260734</v>
       </c>
       <c r="K13">
-        <v>1.01623620360351</v>
+        <v>1.050489848065221</v>
       </c>
       <c r="L13">
-        <v>1.00098994101542</v>
+        <v>1.044644306054287</v>
       </c>
       <c r="M13">
-        <v>0.9224020438759178</v>
+        <v>1.045520522214696</v>
       </c>
       <c r="N13">
-        <v>1.011122384780559</v>
+        <v>1.051441478299861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9807467058834931</v>
+        <v>1.04361597647354</v>
       </c>
       <c r="D14">
-        <v>1.002552078904527</v>
+        <v>1.047123839808896</v>
       </c>
       <c r="E14">
-        <v>0.9870895511263732</v>
+        <v>1.04127315058644</v>
       </c>
       <c r="F14">
-        <v>0.9087675121024656</v>
+        <v>1.042383716625268</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032384690172913</v>
+        <v>1.04574421065504</v>
       </c>
       <c r="J14">
-        <v>1.010979808187809</v>
+        <v>1.050129974995516</v>
       </c>
       <c r="K14">
-        <v>1.017442932618626</v>
+        <v>1.050653865006119</v>
       </c>
       <c r="L14">
-        <v>1.002276411519338</v>
+        <v>1.044824514366838</v>
       </c>
       <c r="M14">
-        <v>0.9256622158055672</v>
+        <v>1.045931009602248</v>
       </c>
       <c r="N14">
-        <v>1.012415515476441</v>
+        <v>1.051621280011602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9817726401157102</v>
+        <v>1.043764045030816</v>
       </c>
       <c r="D15">
-        <v>1.003392782154089</v>
+        <v>1.047244514419716</v>
       </c>
       <c r="E15">
-        <v>0.987982837873535</v>
+        <v>1.041403955556557</v>
       </c>
       <c r="F15">
-        <v>0.9109018230312891</v>
+        <v>1.042656765251542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032934147828767</v>
+        <v>1.045808190802401</v>
       </c>
       <c r="J15">
-        <v>1.011768049343411</v>
+        <v>1.050240517893567</v>
       </c>
       <c r="K15">
-        <v>1.0181794244358</v>
+        <v>1.050754842822064</v>
       </c>
       <c r="L15">
-        <v>1.003061784841181</v>
+        <v>1.044935456220029</v>
       </c>
       <c r="M15">
-        <v>0.9276425946098301</v>
+        <v>1.046183702355129</v>
       </c>
       <c r="N15">
-        <v>1.013204876024896</v>
+        <v>1.051731979893247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9876143556740102</v>
+        <v>1.044624771732231</v>
       </c>
       <c r="D16">
-        <v>1.00817824428599</v>
+        <v>1.047945914990063</v>
       </c>
       <c r="E16">
-        <v>0.9930697088786352</v>
+        <v>1.042164126087391</v>
       </c>
       <c r="F16">
-        <v>0.9228950449849381</v>
+        <v>1.044242741111859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036047970184371</v>
+        <v>1.046179381630363</v>
       </c>
       <c r="J16">
-        <v>1.016249757136571</v>
+        <v>1.050882684905357</v>
       </c>
       <c r="K16">
-        <v>1.02236514283264</v>
+        <v>1.051341387329276</v>
       </c>
       <c r="L16">
-        <v>1.007528180099041</v>
+        <v>1.045579813161783</v>
       </c>
       <c r="M16">
-        <v>0.9387702288187413</v>
+        <v>1.047651132382846</v>
       </c>
       <c r="N16">
-        <v>1.017692948357181</v>
+        <v>1.05237505885585</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9911719725997141</v>
+        <v>1.045163727804489</v>
       </c>
       <c r="D17">
-        <v>1.011091456188552</v>
+        <v>1.048385032335022</v>
       </c>
       <c r="E17">
-        <v>0.9961679335885303</v>
+        <v>1.042639939086268</v>
       </c>
       <c r="F17">
-        <v>0.9300746301413404</v>
+        <v>1.045234734024094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037932175641501</v>
+        <v>1.046411168493272</v>
       </c>
       <c r="J17">
-        <v>1.018973677581645</v>
+        <v>1.051284415548064</v>
       </c>
       <c r="K17">
-        <v>1.024907767216408</v>
+        <v>1.05170827126062</v>
       </c>
       <c r="L17">
-        <v>1.010243488089218</v>
+        <v>1.045982801241911</v>
       </c>
       <c r="M17">
-        <v>0.9454308408210342</v>
+        <v>1.048568703894442</v>
       </c>
       <c r="N17">
-        <v>1.020420737081725</v>
+        <v>1.052777360002151</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9932112783887255</v>
+        <v>1.045477751708429</v>
       </c>
       <c r="D18">
-        <v>1.012761028896335</v>
+        <v>1.048640858093849</v>
       </c>
       <c r="E18">
-        <v>0.9979439830410535</v>
+        <v>1.042917108177668</v>
       </c>
       <c r="F18">
-        <v>0.934150702468612</v>
+        <v>1.045812338242206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039008173512434</v>
+        <v>1.046545989589657</v>
       </c>
       <c r="J18">
-        <v>1.020533231691128</v>
+        <v>1.051518351101882</v>
       </c>
       <c r="K18">
-        <v>1.026363066826536</v>
+        <v>1.051921896879594</v>
       </c>
       <c r="L18">
-        <v>1.0117983006416</v>
+        <v>1.04621742840508</v>
       </c>
       <c r="M18">
-        <v>0.9492118940397426</v>
+        <v>1.049102876411102</v>
       </c>
       <c r="N18">
-        <v>1.021982505936927</v>
+        <v>1.053011627771288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9939007883721566</v>
+        <v>1.045584768451672</v>
       </c>
       <c r="D19">
-        <v>1.013325474889249</v>
+        <v>1.048728036822066</v>
       </c>
       <c r="E19">
-        <v>0.9985444934756096</v>
+        <v>1.043011554181364</v>
       </c>
       <c r="F19">
-        <v>0.935522615045815</v>
+        <v>1.046009116970202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039371312497841</v>
+        <v>1.046591896524918</v>
       </c>
       <c r="J19">
-        <v>1.021060225820557</v>
+        <v>1.05159805173713</v>
       </c>
       <c r="K19">
-        <v>1.026854758650955</v>
+        <v>1.051994674970147</v>
       </c>
       <c r="L19">
-        <v>1.01232371963014</v>
+        <v>1.046297357771536</v>
       </c>
       <c r="M19">
-        <v>0.9504844372330588</v>
+        <v>1.049284842057156</v>
       </c>
       <c r="N19">
-        <v>1.022510248458467</v>
+        <v>1.053091441590579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9907940321748105</v>
+        <v>1.045105938184772</v>
       </c>
       <c r="D20">
-        <v>1.010782010874867</v>
+        <v>1.048337950714638</v>
       </c>
       <c r="E20">
-        <v>0.9958387874854568</v>
+        <v>1.042588926647804</v>
       </c>
       <c r="F20">
-        <v>0.9293161269284886</v>
+        <v>1.045128407282635</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037732438436016</v>
+        <v>1.046386338933683</v>
       </c>
       <c r="J20">
-        <v>1.01868449973134</v>
+        <v>1.051241353772231</v>
       </c>
       <c r="K20">
-        <v>1.024637884572898</v>
+        <v>1.051668946592303</v>
       </c>
       <c r="L20">
-        <v>1.009955203579987</v>
+        <v>1.045939608883284</v>
       </c>
       <c r="M20">
-        <v>0.9447272036382814</v>
+        <v>1.048470364215606</v>
       </c>
       <c r="N20">
-        <v>1.020131148565704</v>
+        <v>1.052734237073656</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9802539656645201</v>
+        <v>1.043545188967665</v>
       </c>
       <c r="D21">
-        <v>1.002148271034352</v>
+        <v>1.047066147106946</v>
       </c>
       <c r="E21">
-        <v>0.9866605289868217</v>
+        <v>1.041210612750422</v>
       </c>
       <c r="F21">
-        <v>0.9077393088094124</v>
+        <v>1.042253156902016</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032120513497129</v>
+        <v>1.045713610627866</v>
       </c>
       <c r="J21">
-        <v>1.010601104823323</v>
+        <v>1.050077120011525</v>
       </c>
       <c r="K21">
-        <v>1.017089057742608</v>
+        <v>1.050605582463009</v>
       </c>
       <c r="L21">
-        <v>1.001899106733681</v>
+        <v>1.044771466370093</v>
       </c>
       <c r="M21">
-        <v>0.9247081627143199</v>
+        <v>1.04581017765656</v>
       </c>
       <c r="N21">
-        <v>1.012036274309739</v>
+        <v>1.05156834996747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9732413758035331</v>
+        <v>1.042560731591975</v>
       </c>
       <c r="D22">
-        <v>0.996398918382261</v>
+        <v>1.04626370341068</v>
       </c>
       <c r="E22">
-        <v>0.9805555145261451</v>
+        <v>1.040340648134851</v>
       </c>
       <c r="F22">
-        <v>0.8928726081082198</v>
+        <v>1.040435902780699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028340600189549</v>
+        <v>1.045287193368503</v>
       </c>
       <c r="J22">
-        <v>1.005202675990711</v>
+        <v>1.049341558403465</v>
       </c>
       <c r="K22">
-        <v>1.012042052545768</v>
+        <v>1.049933586697183</v>
       </c>
       <c r="L22">
-        <v>0.9965222688402657</v>
+        <v>1.044033069003852</v>
       </c>
       <c r="M22">
-        <v>0.9109135477450879</v>
+        <v>1.044127958948645</v>
       </c>
       <c r="N22">
-        <v>1.006630179088976</v>
+        <v>1.050831743777556</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976999043981824</v>
+        <v>1.043082914227512</v>
       </c>
       <c r="D23">
-        <v>0.9994802765998808</v>
+        <v>1.046689363898834</v>
       </c>
       <c r="E23">
-        <v>0.9838266796904326</v>
+        <v>1.040802155586972</v>
       </c>
       <c r="F23">
-        <v>0.9008945672561122</v>
+        <v>1.041400180101255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030370795187087</v>
+        <v>1.04551357466141</v>
       </c>
       <c r="J23">
-        <v>1.008097458079008</v>
+        <v>1.049731834747917</v>
       </c>
       <c r="K23">
-        <v>1.014748985949632</v>
+        <v>1.050290151593474</v>
       </c>
       <c r="L23">
-        <v>0.9994050691224371</v>
+        <v>1.044424884545545</v>
       </c>
       <c r="M23">
-        <v>0.9183569849311289</v>
+        <v>1.045020667726945</v>
       </c>
       <c r="N23">
-        <v>1.009529072099874</v>
+        <v>1.051222574359183</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9909649171580636</v>
+        <v>1.045132051877057</v>
       </c>
       <c r="D24">
-        <v>1.010921926995315</v>
+        <v>1.048359225811443</v>
       </c>
       <c r="E24">
-        <v>0.9959876099834228</v>
+        <v>1.042611978099405</v>
       </c>
       <c r="F24">
-        <v>0.9296592040612666</v>
+        <v>1.045176454873917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037822761805075</v>
+        <v>1.046397559505339</v>
       </c>
       <c r="J24">
-        <v>1.018815256659701</v>
+        <v>1.051260812731269</v>
       </c>
       <c r="K24">
-        <v>1.024759918235384</v>
+        <v>1.051686716865228</v>
       </c>
       <c r="L24">
-        <v>1.010085555992687</v>
+        <v>1.045959126976327</v>
       </c>
       <c r="M24">
-        <v>0.9450454656387552</v>
+        <v>1.048514802868181</v>
       </c>
       <c r="N24">
-        <v>1.020262091183901</v>
+        <v>1.052753723666648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005782233383188</v>
+        <v>1.047496666397055</v>
       </c>
       <c r="D25">
-        <v>1.02304811337013</v>
+        <v>1.050285119375152</v>
       </c>
       <c r="E25">
-        <v>1.00889258288471</v>
+        <v>1.044697913954755</v>
       </c>
       <c r="F25">
-        <v>0.9587082153910145</v>
+        <v>1.049519240356807</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045576254565791</v>
+        <v>1.047408642672748</v>
       </c>
       <c r="J25">
-        <v>1.030116557039257</v>
+        <v>1.053019956657081</v>
       </c>
       <c r="K25">
-        <v>1.035298870884377</v>
+        <v>1.05329281121785</v>
       </c>
       <c r="L25">
-        <v>1.021354403757847</v>
+        <v>1.047722739703379</v>
       </c>
       <c r="M25">
-        <v>0.9719832421282187</v>
+        <v>1.052529269098411</v>
       </c>
       <c r="N25">
-        <v>1.031579440706273</v>
+        <v>1.054515365778611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049372413810607</v>
+        <v>1.016714747822934</v>
       </c>
       <c r="D2">
-        <v>1.051811990725495</v>
+        <v>1.031988900855711</v>
       </c>
       <c r="E2">
-        <v>1.046350559679824</v>
+        <v>1.018413011735873</v>
       </c>
       <c r="F2">
-        <v>1.052953261296608</v>
+        <v>0.9793778939754677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048203490450746</v>
+        <v>1.051197333649547</v>
       </c>
       <c r="J2">
-        <v>1.054411209305147</v>
+        <v>1.038406763671602</v>
       </c>
       <c r="K2">
-        <v>1.054562456638632</v>
+        <v>1.043019866811559</v>
       </c>
       <c r="L2">
-        <v>1.049116240933994</v>
+        <v>1.029621648359991</v>
       </c>
       <c r="M2">
-        <v>1.055700569281105</v>
+        <v>0.9911322053234137</v>
       </c>
       <c r="N2">
-        <v>1.055908594165016</v>
+        <v>1.039881420382936</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050728646042662</v>
+        <v>1.024224506491877</v>
       </c>
       <c r="D3">
-        <v>1.052915471161338</v>
+        <v>1.038127836949491</v>
       </c>
       <c r="E3">
-        <v>1.047544295860482</v>
+        <v>1.024950781445818</v>
       </c>
       <c r="F3">
-        <v>1.055430357076857</v>
+        <v>0.9932650198514215</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048774040477393</v>
+        <v>1.055007908992208</v>
       </c>
       <c r="J3">
-        <v>1.055414704330077</v>
+        <v>1.044075885730862</v>
       </c>
       <c r="K3">
-        <v>1.055477910815659</v>
+        <v>1.048295044461065</v>
       </c>
       <c r="L3">
-        <v>1.050120609141667</v>
+        <v>1.035274063546336</v>
       </c>
       <c r="M3">
-        <v>1.057986353182528</v>
+        <v>1.003984807562595</v>
       </c>
       <c r="N3">
-        <v>1.056913514267985</v>
+        <v>1.045558593245777</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051603642098911</v>
+        <v>1.028908129001824</v>
       </c>
       <c r="D4">
-        <v>1.053627166168802</v>
+        <v>1.041955396336026</v>
       </c>
       <c r="E4">
-        <v>1.048313904880858</v>
+        <v>1.029026886706725</v>
       </c>
       <c r="F4">
-        <v>1.05702596693558</v>
+        <v>1.001812734961063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049140225469716</v>
+        <v>1.057362605207044</v>
       </c>
       <c r="J4">
-        <v>1.056061003110874</v>
+        <v>1.047600194105022</v>
       </c>
       <c r="K4">
-        <v>1.05606735593772</v>
+        <v>1.051572512871134</v>
       </c>
       <c r="L4">
-        <v>1.050767122708032</v>
+        <v>1.038787163893212</v>
       </c>
       <c r="M4">
-        <v>1.059457896722576</v>
+        <v>1.011889330994538</v>
       </c>
       <c r="N4">
-        <v>1.057560730867182</v>
+        <v>1.049087906542074</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.051970883785694</v>
+        <v>1.030837949928168</v>
       </c>
       <c r="D5">
-        <v>1.053925813017544</v>
+        <v>1.043532224624341</v>
       </c>
       <c r="E5">
-        <v>1.04863678300665</v>
+        <v>1.030706019454264</v>
       </c>
       <c r="F5">
-        <v>1.057695073177201</v>
+        <v>1.005311208376951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04929345812808</v>
+        <v>1.058327762724046</v>
       </c>
       <c r="J5">
-        <v>1.05633199031778</v>
+        <v>1.049049659442534</v>
       </c>
       <c r="K5">
-        <v>1.056314468729562</v>
+        <v>1.052920020249728</v>
       </c>
       <c r="L5">
-        <v>1.051038116544109</v>
+        <v>1.040231778563574</v>
       </c>
       <c r="M5">
-        <v>1.060074777025021</v>
+        <v>1.015122949032362</v>
       </c>
       <c r="N5">
-        <v>1.057832102907004</v>
+        <v>1.05053943028662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052032510002125</v>
+        <v>1.031159755797985</v>
       </c>
       <c r="D6">
-        <v>1.053975925137947</v>
+        <v>1.043795151937603</v>
       </c>
       <c r="E6">
-        <v>1.048690956903159</v>
+        <v>1.030985998788717</v>
       </c>
       <c r="F6">
-        <v>1.057807321341825</v>
+        <v>1.005893307723827</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049319145028308</v>
+        <v>1.0584884136673</v>
       </c>
       <c r="J6">
-        <v>1.056377448473504</v>
+        <v>1.049291207716176</v>
       </c>
       <c r="K6">
-        <v>1.056355919824229</v>
+        <v>1.053144552450356</v>
       </c>
       <c r="L6">
-        <v>1.051083570911877</v>
+        <v>1.040472503155865</v>
       </c>
       <c r="M6">
-        <v>1.060178252132865</v>
+        <v>1.015660883867278</v>
       </c>
       <c r="N6">
-        <v>1.057877625618524</v>
+        <v>1.050781321586516</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051608551569922</v>
+        <v>1.028934065727326</v>
       </c>
       <c r="D7">
-        <v>1.053631158851349</v>
+        <v>1.04197658989788</v>
       </c>
       <c r="E7">
-        <v>1.048318221796539</v>
+        <v>1.029049455723443</v>
       </c>
       <c r="F7">
-        <v>1.05703491413985</v>
+        <v>1.001859842986345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049142275758921</v>
+        <v>1.057375596738029</v>
       </c>
       <c r="J7">
-        <v>1.05606462686005</v>
+        <v>1.047619685419314</v>
       </c>
       <c r="K7">
-        <v>1.056070660571051</v>
+        <v>1.05159063484013</v>
       </c>
       <c r="L7">
-        <v>1.050770746874287</v>
+        <v>1.038806590988622</v>
       </c>
       <c r="M7">
-        <v>1.059466146353863</v>
+        <v>1.011932879112571</v>
       </c>
       <c r="N7">
-        <v>1.057564359762497</v>
+        <v>1.049107425536267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04983129861273</v>
+        <v>1.019290937646339</v>
       </c>
       <c r="D8">
-        <v>1.052185404656841</v>
+        <v>1.034095079455194</v>
       </c>
       <c r="E8">
-        <v>1.046754577461223</v>
+        <v>1.020656009494461</v>
       </c>
       <c r="F8">
-        <v>1.053791932718614</v>
+        <v>0.9841683283589513</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048396935386319</v>
+        <v>1.052509291905639</v>
       </c>
       <c r="J8">
-        <v>1.054750977588506</v>
+        <v>1.040353975228578</v>
       </c>
       <c r="K8">
-        <v>1.054872447011157</v>
+        <v>1.044832197758426</v>
       </c>
       <c r="L8">
-        <v>1.049456376934805</v>
+        <v>1.031563266521495</v>
       </c>
       <c r="M8">
-        <v>1.056474641217383</v>
+        <v>0.9955671078442287</v>
       </c>
       <c r="N8">
-        <v>1.056248844958309</v>
+        <v>1.041831397203672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046679352004719</v>
+        <v>1.000800826580805</v>
       </c>
       <c r="D9">
-        <v>1.049619578628892</v>
+        <v>1.018972614264235</v>
       </c>
       <c r="E9">
-        <v>1.04397723881623</v>
+        <v>1.004554057388902</v>
       </c>
       <c r="F9">
-        <v>1.048019947905993</v>
+        <v>0.9490874601727944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047060288529742</v>
+        <v>1.042986854164886</v>
       </c>
       <c r="J9">
-        <v>1.052412572089623</v>
+        <v>1.026325337256612</v>
       </c>
       <c r="K9">
-        <v>1.052738358430352</v>
+        <v>1.031765194998906</v>
       </c>
       <c r="L9">
-        <v>1.04711401153923</v>
+        <v>1.017573677783008</v>
       </c>
       <c r="M9">
-        <v>1.051143807261036</v>
+        <v>0.9630643506300498</v>
       </c>
       <c r="N9">
-        <v>1.053907118655399</v>
+        <v>1.027782836956678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044563818200775</v>
+        <v>0.9872072827040314</v>
       </c>
       <c r="D10">
-        <v>1.047896249136287</v>
+        <v>1.007844854033461</v>
       </c>
       <c r="E10">
-        <v>1.042110305043727</v>
+        <v>0.9927152140269263</v>
       </c>
       <c r="F10">
-        <v>1.044130498630351</v>
+        <v>0.9220677461666573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046153136385</v>
+        <v>1.03583179399717</v>
       </c>
       <c r="J10">
-        <v>1.050837232847835</v>
+        <v>1.015937815586436</v>
       </c>
       <c r="K10">
-        <v>1.051299875407612</v>
+        <v>1.022073897223655</v>
       </c>
       <c r="L10">
-        <v>1.045534213337062</v>
+        <v>1.007217255118256</v>
       </c>
       <c r="M10">
-        <v>1.047547297206493</v>
+        <v>0.9380026845249887</v>
       </c>
       <c r="N10">
-        <v>1.052329542251195</v>
+        <v>1.017380563814265</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043644244582951</v>
+        <v>0.9809430634612782</v>
       </c>
       <c r="D11">
-        <v>1.047146878402603</v>
+        <v>1.002712991136121</v>
       </c>
       <c r="E11">
-        <v>1.041298123647158</v>
+        <v>0.987260518721144</v>
       </c>
       <c r="F11">
-        <v>1.042435849922837</v>
+        <v>0.9091766837464208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045756428069454</v>
+        <v>1.032489914038591</v>
       </c>
       <c r="J11">
-        <v>1.050151080627727</v>
+        <v>1.011130699600844</v>
       </c>
       <c r="K11">
-        <v>1.050673144625614</v>
+        <v>1.017583925138035</v>
       </c>
       <c r="L11">
-        <v>1.044845696664044</v>
+        <v>1.002426749477844</v>
       </c>
       <c r="M11">
-        <v>1.045979257546225</v>
+        <v>0.9260418784334219</v>
       </c>
       <c r="N11">
-        <v>1.051642415616231</v>
+        <v>1.01256662117259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043302130261325</v>
+        <v>0.9785506915353243</v>
       </c>
       <c r="D12">
-        <v>1.046868043927556</v>
+        <v>1.000752250814668</v>
       </c>
       <c r="E12">
-        <v>1.040995862892096</v>
+        <v>0.9851775615718468</v>
       </c>
       <c r="F12">
-        <v>1.041804750029901</v>
+        <v>0.9041690993015491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045608478001304</v>
+        <v>1.031205909382155</v>
       </c>
       <c r="J12">
-        <v>1.049895598485941</v>
+        <v>1.009291406844314</v>
       </c>
       <c r="K12">
-        <v>1.050439759269553</v>
+        <v>1.015865053063064</v>
       </c>
       <c r="L12">
-        <v>1.044589270911723</v>
+        <v>1.000594354356778</v>
       </c>
       <c r="M12">
-        <v>1.04539515383777</v>
+        <v>0.9213954017196528</v>
       </c>
       <c r="N12">
-        <v>1.0513865706605</v>
+        <v>1.010724716409376</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043375539758373</v>
+        <v>0.9790669971730499</v>
       </c>
       <c r="D13">
-        <v>1.046927876976969</v>
+        <v>1.001175447056202</v>
       </c>
       <c r="E13">
-        <v>1.041060725301918</v>
+        <v>0.9856270782796783</v>
       </c>
       <c r="F13">
-        <v>1.041940197851756</v>
+        <v>0.9052539690153847</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04564024084815</v>
+        <v>1.031483381849709</v>
       </c>
       <c r="J13">
-        <v>1.049950428260734</v>
+        <v>1.009688511281647</v>
       </c>
       <c r="K13">
-        <v>1.050489848065221</v>
+        <v>1.01623620360351</v>
       </c>
       <c r="L13">
-        <v>1.044644306054287</v>
+        <v>1.000989941015419</v>
       </c>
       <c r="M13">
-        <v>1.045520522214696</v>
+        <v>0.9224020438759163</v>
       </c>
       <c r="N13">
-        <v>1.051441478299861</v>
+        <v>1.011122384780558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04361597647354</v>
+        <v>0.9807467058834908</v>
       </c>
       <c r="D14">
-        <v>1.047123839808896</v>
+        <v>1.002552078904525</v>
       </c>
       <c r="E14">
-        <v>1.04127315058644</v>
+        <v>0.9870895511263706</v>
       </c>
       <c r="F14">
-        <v>1.042383716625268</v>
+        <v>0.9087675121024646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04574421065504</v>
+        <v>1.032384690172911</v>
       </c>
       <c r="J14">
-        <v>1.050129974995516</v>
+        <v>1.010979808187807</v>
       </c>
       <c r="K14">
-        <v>1.050653865006119</v>
+        <v>1.017442932618624</v>
       </c>
       <c r="L14">
-        <v>1.044824514366838</v>
+        <v>1.002276411519336</v>
       </c>
       <c r="M14">
-        <v>1.045931009602248</v>
+        <v>0.9256622158055661</v>
       </c>
       <c r="N14">
-        <v>1.051621280011602</v>
+        <v>1.012415515476439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043764045030816</v>
+        <v>0.9817726401157112</v>
       </c>
       <c r="D15">
-        <v>1.047244514419716</v>
+        <v>1.00339278215409</v>
       </c>
       <c r="E15">
-        <v>1.041403955556557</v>
+        <v>0.9879828378735357</v>
       </c>
       <c r="F15">
-        <v>1.042656765251542</v>
+        <v>0.9109018230312902</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045808190802401</v>
+        <v>1.032934147828768</v>
       </c>
       <c r="J15">
-        <v>1.050240517893567</v>
+        <v>1.011768049343412</v>
       </c>
       <c r="K15">
-        <v>1.050754842822064</v>
+        <v>1.018179424435801</v>
       </c>
       <c r="L15">
-        <v>1.044935456220029</v>
+        <v>1.003061784841182</v>
       </c>
       <c r="M15">
-        <v>1.046183702355129</v>
+        <v>0.9276425946098311</v>
       </c>
       <c r="N15">
-        <v>1.051731979893247</v>
+        <v>1.013204876024897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044624771732231</v>
+        <v>0.9876143556740087</v>
       </c>
       <c r="D16">
-        <v>1.047945914990063</v>
+        <v>1.008178244285988</v>
       </c>
       <c r="E16">
-        <v>1.042164126087391</v>
+        <v>0.9930697088786338</v>
       </c>
       <c r="F16">
-        <v>1.044242741111859</v>
+        <v>0.922895044984938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046179381630363</v>
+        <v>1.03604797018437</v>
       </c>
       <c r="J16">
-        <v>1.050882684905357</v>
+        <v>1.01624975713657</v>
       </c>
       <c r="K16">
-        <v>1.051341387329276</v>
+        <v>1.022365142832639</v>
       </c>
       <c r="L16">
-        <v>1.045579813161783</v>
+        <v>1.00752818009904</v>
       </c>
       <c r="M16">
-        <v>1.047651132382846</v>
+        <v>0.9387702288187413</v>
       </c>
       <c r="N16">
-        <v>1.05237505885585</v>
+        <v>1.01769294835718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045163727804489</v>
+        <v>0.9911719725997136</v>
       </c>
       <c r="D17">
-        <v>1.048385032335022</v>
+        <v>1.011091456188552</v>
       </c>
       <c r="E17">
-        <v>1.042639939086268</v>
+        <v>0.99616793358853</v>
       </c>
       <c r="F17">
-        <v>1.045234734024094</v>
+        <v>0.9300746301413405</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046411168493272</v>
+        <v>1.037932175641501</v>
       </c>
       <c r="J17">
-        <v>1.051284415548064</v>
+        <v>1.018973677581644</v>
       </c>
       <c r="K17">
-        <v>1.05170827126062</v>
+        <v>1.024907767216408</v>
       </c>
       <c r="L17">
-        <v>1.045982801241911</v>
+        <v>1.010243488089218</v>
       </c>
       <c r="M17">
-        <v>1.048568703894442</v>
+        <v>0.9454308408210345</v>
       </c>
       <c r="N17">
-        <v>1.052777360002151</v>
+        <v>1.020420737081725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045477751708429</v>
+        <v>0.9932112783887236</v>
       </c>
       <c r="D18">
-        <v>1.048640858093849</v>
+        <v>1.012761028896333</v>
       </c>
       <c r="E18">
-        <v>1.042917108177668</v>
+        <v>0.9979439830410518</v>
       </c>
       <c r="F18">
-        <v>1.045812338242206</v>
+        <v>0.9341507024686095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046545989589657</v>
+        <v>1.039008173512433</v>
       </c>
       <c r="J18">
-        <v>1.051518351101882</v>
+        <v>1.020533231691126</v>
       </c>
       <c r="K18">
-        <v>1.051921896879594</v>
+        <v>1.026363066826534</v>
       </c>
       <c r="L18">
-        <v>1.04621742840508</v>
+        <v>1.011798300641598</v>
       </c>
       <c r="M18">
-        <v>1.049102876411102</v>
+        <v>0.94921189403974</v>
       </c>
       <c r="N18">
-        <v>1.053011627771288</v>
+        <v>1.021982505936926</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045584768451672</v>
+        <v>0.9939007883721565</v>
       </c>
       <c r="D19">
-        <v>1.048728036822066</v>
+        <v>1.013325474889249</v>
       </c>
       <c r="E19">
-        <v>1.043011554181364</v>
+        <v>0.9985444934756095</v>
       </c>
       <c r="F19">
-        <v>1.046009116970202</v>
+        <v>0.9355226150458148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046591896524918</v>
+        <v>1.039371312497841</v>
       </c>
       <c r="J19">
-        <v>1.05159805173713</v>
+        <v>1.021060225820557</v>
       </c>
       <c r="K19">
-        <v>1.051994674970147</v>
+        <v>1.026854758650955</v>
       </c>
       <c r="L19">
-        <v>1.046297357771536</v>
+        <v>1.01232371963014</v>
       </c>
       <c r="M19">
-        <v>1.049284842057156</v>
+        <v>0.9504844372330585</v>
       </c>
       <c r="N19">
-        <v>1.053091441590579</v>
+        <v>1.022510248458467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045105938184772</v>
+        <v>0.9907940321748103</v>
       </c>
       <c r="D20">
-        <v>1.048337950714638</v>
+        <v>1.010782010874867</v>
       </c>
       <c r="E20">
-        <v>1.042588926647804</v>
+        <v>0.9958387874854565</v>
       </c>
       <c r="F20">
-        <v>1.045128407282635</v>
+        <v>0.9293161269284891</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046386338933683</v>
+        <v>1.037732438436015</v>
       </c>
       <c r="J20">
-        <v>1.051241353772231</v>
+        <v>1.01868449973134</v>
       </c>
       <c r="K20">
-        <v>1.051668946592303</v>
+        <v>1.024637884572898</v>
       </c>
       <c r="L20">
-        <v>1.045939608883284</v>
+        <v>1.009955203579986</v>
       </c>
       <c r="M20">
-        <v>1.048470364215606</v>
+        <v>0.944727203638282</v>
       </c>
       <c r="N20">
-        <v>1.052734237073656</v>
+        <v>1.020131148565704</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043545188967665</v>
+        <v>0.9802539656645185</v>
       </c>
       <c r="D21">
-        <v>1.047066147106946</v>
+        <v>1.00214827103435</v>
       </c>
       <c r="E21">
-        <v>1.041210612750422</v>
+        <v>0.9866605289868202</v>
       </c>
       <c r="F21">
-        <v>1.042253156902016</v>
+        <v>0.9077393088094109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045713610627866</v>
+        <v>1.032120513497129</v>
       </c>
       <c r="J21">
-        <v>1.050077120011525</v>
+        <v>1.010601104823322</v>
       </c>
       <c r="K21">
-        <v>1.050605582463009</v>
+        <v>1.017089057742607</v>
       </c>
       <c r="L21">
-        <v>1.044771466370093</v>
+        <v>1.001899106733679</v>
       </c>
       <c r="M21">
-        <v>1.04581017765656</v>
+        <v>0.9247081627143182</v>
       </c>
       <c r="N21">
-        <v>1.05156834996747</v>
+        <v>1.012036274309738</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042560731591975</v>
+        <v>0.9732413758035328</v>
       </c>
       <c r="D22">
-        <v>1.04626370341068</v>
+        <v>0.996398918382261</v>
       </c>
       <c r="E22">
-        <v>1.040340648134851</v>
+        <v>0.9805555145261446</v>
       </c>
       <c r="F22">
-        <v>1.040435902780699</v>
+        <v>0.8928726081082191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045287193368503</v>
+        <v>1.028340600189549</v>
       </c>
       <c r="J22">
-        <v>1.049341558403465</v>
+        <v>1.005202675990711</v>
       </c>
       <c r="K22">
-        <v>1.049933586697183</v>
+        <v>1.012042052545768</v>
       </c>
       <c r="L22">
-        <v>1.044033069003852</v>
+        <v>0.9965222688402655</v>
       </c>
       <c r="M22">
-        <v>1.044127958948645</v>
+        <v>0.9109135477450871</v>
       </c>
       <c r="N22">
-        <v>1.050831743777556</v>
+        <v>1.006630179088976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043082914227512</v>
+        <v>0.976999043981825</v>
       </c>
       <c r="D23">
-        <v>1.046689363898834</v>
+        <v>0.999480276599882</v>
       </c>
       <c r="E23">
-        <v>1.040802155586972</v>
+        <v>0.9838266796904338</v>
       </c>
       <c r="F23">
-        <v>1.041400180101255</v>
+        <v>0.9008945672561132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04551357466141</v>
+        <v>1.030370795187087</v>
       </c>
       <c r="J23">
-        <v>1.049731834747917</v>
+        <v>1.008097458079009</v>
       </c>
       <c r="K23">
-        <v>1.050290151593474</v>
+        <v>1.014748985949633</v>
       </c>
       <c r="L23">
-        <v>1.044424884545545</v>
+        <v>0.999405069122438</v>
       </c>
       <c r="M23">
-        <v>1.045020667726945</v>
+        <v>0.9183569849311299</v>
       </c>
       <c r="N23">
-        <v>1.051222574359183</v>
+        <v>1.009529072099875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045132051877057</v>
+        <v>0.9909649171580628</v>
       </c>
       <c r="D24">
-        <v>1.048359225811443</v>
+        <v>1.010921926995314</v>
       </c>
       <c r="E24">
-        <v>1.042611978099405</v>
+        <v>0.9959876099834218</v>
       </c>
       <c r="F24">
-        <v>1.045176454873917</v>
+        <v>0.9296592040612656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046397559505339</v>
+        <v>1.037822761805075</v>
       </c>
       <c r="J24">
-        <v>1.051260812731269</v>
+        <v>1.0188152566597</v>
       </c>
       <c r="K24">
-        <v>1.051686716865228</v>
+        <v>1.024759918235383</v>
       </c>
       <c r="L24">
-        <v>1.045959126976327</v>
+        <v>1.010085555992686</v>
       </c>
       <c r="M24">
-        <v>1.048514802868181</v>
+        <v>0.9450454656387545</v>
       </c>
       <c r="N24">
-        <v>1.052753723666648</v>
+        <v>1.0202620911839</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047496666397055</v>
+        <v>1.005782233383189</v>
       </c>
       <c r="D25">
-        <v>1.050285119375152</v>
+        <v>1.023048113370131</v>
       </c>
       <c r="E25">
-        <v>1.044697913954755</v>
+        <v>1.008892582884711</v>
       </c>
       <c r="F25">
-        <v>1.049519240356807</v>
+        <v>0.9587082153910144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047408642672748</v>
+        <v>1.045576254565792</v>
       </c>
       <c r="J25">
-        <v>1.053019956657081</v>
+        <v>1.030116557039258</v>
       </c>
       <c r="K25">
-        <v>1.05329281121785</v>
+        <v>1.035298870884378</v>
       </c>
       <c r="L25">
-        <v>1.047722739703379</v>
+        <v>1.021354403757848</v>
       </c>
       <c r="M25">
-        <v>1.052529269098411</v>
+        <v>0.9719832421282188</v>
       </c>
       <c r="N25">
-        <v>1.054515365778611</v>
+        <v>1.031579440706274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016714747822934</v>
+        <v>1.00853621859229</v>
       </c>
       <c r="D2">
-        <v>1.031988900855711</v>
+        <v>1.030543709327277</v>
       </c>
       <c r="E2">
-        <v>1.018413011735873</v>
+        <v>1.013842128951673</v>
       </c>
       <c r="F2">
-        <v>0.9793778939754677</v>
+        <v>1.038453468820261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051197333649547</v>
+        <v>1.047780158725783</v>
       </c>
       <c r="J2">
-        <v>1.038406763671602</v>
+        <v>1.030464576377153</v>
       </c>
       <c r="K2">
-        <v>1.043019866811559</v>
+        <v>1.041593310254221</v>
       </c>
       <c r="L2">
-        <v>1.029621648359991</v>
+        <v>1.025111931276178</v>
       </c>
       <c r="M2">
-        <v>0.9911322053234137</v>
+        <v>1.049401870385866</v>
       </c>
       <c r="N2">
-        <v>1.039881420382936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014057402295983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047670622074016</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040480355144929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024224506491877</v>
+        <v>1.011690561358673</v>
       </c>
       <c r="D3">
-        <v>1.038127836949491</v>
+        <v>1.032603554571989</v>
       </c>
       <c r="E3">
-        <v>1.024950781445818</v>
+        <v>1.016272891760523</v>
       </c>
       <c r="F3">
-        <v>0.9932650198514215</v>
+        <v>1.04066561035211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055007908992208</v>
+        <v>1.048426148215063</v>
       </c>
       <c r="J3">
-        <v>1.044075885730862</v>
+        <v>1.031867525046817</v>
       </c>
       <c r="K3">
-        <v>1.048295044461065</v>
+        <v>1.042835593409035</v>
       </c>
       <c r="L3">
-        <v>1.035274063546336</v>
+        <v>1.026701707211359</v>
       </c>
       <c r="M3">
-        <v>1.003984807562595</v>
+        <v>1.050803320491108</v>
       </c>
       <c r="N3">
-        <v>1.045558593245777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01453109739189</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048779764146028</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041356092930995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028908129001824</v>
+        <v>1.01370080636012</v>
       </c>
       <c r="D4">
-        <v>1.041955396336026</v>
+        <v>1.033920765235798</v>
       </c>
       <c r="E4">
-        <v>1.029026886706725</v>
+        <v>1.017827641361372</v>
       </c>
       <c r="F4">
-        <v>1.001812734961063</v>
+        <v>1.042081989687038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057362605207044</v>
+        <v>1.048831243058566</v>
       </c>
       <c r="J4">
-        <v>1.047600194105022</v>
+        <v>1.032760420606574</v>
       </c>
       <c r="K4">
-        <v>1.051572512871134</v>
+        <v>1.043626333296563</v>
       </c>
       <c r="L4">
-        <v>1.038787163893212</v>
+        <v>1.027715560501772</v>
       </c>
       <c r="M4">
-        <v>1.011889330994538</v>
+        <v>1.051697725981158</v>
       </c>
       <c r="N4">
-        <v>1.049087906542074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014832556927136</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049487617776225</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041916103330217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030837949928168</v>
+        <v>1.014541124642602</v>
       </c>
       <c r="D5">
-        <v>1.043532224624341</v>
+        <v>1.034474342698035</v>
       </c>
       <c r="E5">
-        <v>1.030706019454264</v>
+        <v>1.01847917654552</v>
       </c>
       <c r="F5">
-        <v>1.005311208376951</v>
+        <v>1.042676391686022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058327762724046</v>
+        <v>1.049000292153844</v>
       </c>
       <c r="J5">
-        <v>1.049049659442534</v>
+        <v>1.033134641736827</v>
       </c>
       <c r="K5">
-        <v>1.052920020249728</v>
+        <v>1.043959133073793</v>
       </c>
       <c r="L5">
-        <v>1.040231778563574</v>
+        <v>1.028140434550824</v>
       </c>
       <c r="M5">
-        <v>1.015122949032362</v>
+        <v>1.052073263616101</v>
       </c>
       <c r="N5">
-        <v>1.05053943028662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014959088553872</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049784826929848</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042158568728583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031159755797985</v>
+        <v>1.014684732006457</v>
       </c>
       <c r="D6">
-        <v>1.043795151937603</v>
+        <v>1.034571329047711</v>
       </c>
       <c r="E6">
-        <v>1.030985998788717</v>
+        <v>1.018590953162435</v>
       </c>
       <c r="F6">
-        <v>1.005893307723827</v>
+        <v>1.042779006302275</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0584884136673</v>
+        <v>1.049030693289438</v>
       </c>
       <c r="J6">
-        <v>1.049291207716176</v>
+        <v>1.033200133180091</v>
       </c>
       <c r="K6">
-        <v>1.053144552450356</v>
+        <v>1.044019038167938</v>
       </c>
       <c r="L6">
-        <v>1.040472503155865</v>
+        <v>1.028214167989355</v>
       </c>
       <c r="M6">
-        <v>1.015660883867278</v>
+        <v>1.052139132738237</v>
       </c>
       <c r="N6">
-        <v>1.050781321586516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014981466878586</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049836957261484</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042209645407059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028934065727326</v>
+        <v>1.013719945295434</v>
       </c>
       <c r="D7">
-        <v>1.04197658989788</v>
+        <v>1.033939579419365</v>
       </c>
       <c r="E7">
-        <v>1.029049455723443</v>
+        <v>1.017843430385901</v>
       </c>
       <c r="F7">
-        <v>1.001859842986345</v>
+        <v>1.042098041941132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057375596738029</v>
+        <v>1.048839409980828</v>
       </c>
       <c r="J7">
-        <v>1.047619685419314</v>
+        <v>1.032773122857162</v>
       </c>
       <c r="K7">
-        <v>1.05159063484013</v>
+        <v>1.043642068454366</v>
       </c>
       <c r="L7">
-        <v>1.038806590988622</v>
+        <v>1.027728236321979</v>
       </c>
       <c r="M7">
-        <v>1.011932879112571</v>
+        <v>1.051710763196009</v>
       </c>
       <c r="N7">
-        <v>1.049107425536267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014837490068195</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049497935731011</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041947282463497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019290937646339</v>
+        <v>1.009618590009843</v>
       </c>
       <c r="D8">
-        <v>1.034095079455194</v>
+        <v>1.031257247775795</v>
       </c>
       <c r="E8">
-        <v>1.020656009494461</v>
+        <v>1.014676268187238</v>
       </c>
       <c r="F8">
-        <v>0.9841683283589513</v>
+        <v>1.039214278765707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052509291905639</v>
+        <v>1.048008499313544</v>
       </c>
       <c r="J8">
-        <v>1.040353975228578</v>
+        <v>1.030951409590497</v>
       </c>
       <c r="K8">
-        <v>1.044832197758426</v>
+        <v>1.04202983249313</v>
       </c>
       <c r="L8">
-        <v>1.031563266521495</v>
+        <v>1.025661043142393</v>
       </c>
       <c r="M8">
-        <v>0.9955671078442287</v>
+        <v>1.049888028358229</v>
       </c>
       <c r="N8">
-        <v>1.041831397203672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014222614065945</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048055379634959</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040811854021235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000800826580805</v>
+        <v>1.002134164791747</v>
       </c>
       <c r="D9">
-        <v>1.018972614264235</v>
+        <v>1.026389188105454</v>
       </c>
       <c r="E9">
-        <v>1.004554057388902</v>
+        <v>1.008940642793845</v>
       </c>
       <c r="F9">
-        <v>0.9490874601727944</v>
+        <v>1.034001272937933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042986854164886</v>
+        <v>1.046434530943259</v>
       </c>
       <c r="J9">
-        <v>1.026325337256612</v>
+        <v>1.027611784636064</v>
       </c>
       <c r="K9">
-        <v>1.031765194998906</v>
+        <v>1.039068151555745</v>
       </c>
       <c r="L9">
-        <v>1.017573677783008</v>
+        <v>1.021890310821394</v>
       </c>
       <c r="M9">
-        <v>0.9630643506300498</v>
+        <v>1.046565779636354</v>
       </c>
       <c r="N9">
-        <v>1.027782836956678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013094223614925</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045426065026702</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038714598919497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9872072827040314</v>
+        <v>0.9970047156220191</v>
       </c>
       <c r="D10">
-        <v>1.007844854033461</v>
+        <v>1.023107485915238</v>
       </c>
       <c r="E10">
-        <v>0.9927152140269263</v>
+        <v>1.005047123888839</v>
       </c>
       <c r="F10">
-        <v>0.9220677461666573</v>
+        <v>1.030560678217383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03583179399717</v>
+        <v>1.04534595039784</v>
       </c>
       <c r="J10">
-        <v>1.015937815586436</v>
+        <v>1.025337679104096</v>
       </c>
       <c r="K10">
-        <v>1.022073897223655</v>
+        <v>1.037071695709431</v>
       </c>
       <c r="L10">
-        <v>1.007217255118256</v>
+        <v>1.019325845004025</v>
       </c>
       <c r="M10">
-        <v>0.9380026845249887</v>
+        <v>1.044399235301382</v>
       </c>
       <c r="N10">
-        <v>1.017380563814265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012328962215708</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043762510723709</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.0373197586574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9809430634612782</v>
+        <v>0.9950234065222872</v>
       </c>
       <c r="D11">
-        <v>1.002712991136121</v>
+        <v>1.022058857542629</v>
       </c>
       <c r="E11">
-        <v>0.987260518721144</v>
+        <v>1.00359022968139</v>
       </c>
       <c r="F11">
-        <v>0.9091766837464208</v>
+        <v>1.029983639452359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032489914038591</v>
+        <v>1.045091680588518</v>
       </c>
       <c r="J11">
-        <v>1.011130699600844</v>
+        <v>1.024604693193493</v>
       </c>
       <c r="K11">
-        <v>1.017583925138035</v>
+        <v>1.036576430403945</v>
       </c>
       <c r="L11">
-        <v>1.002426749477844</v>
+        <v>1.018444755654175</v>
       </c>
       <c r="M11">
-        <v>0.9260418784334219</v>
+        <v>1.044361426054662</v>
       </c>
       <c r="N11">
-        <v>1.01256662117259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012107676833623</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044165951949512</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037002344582421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9785506915353243</v>
+        <v>0.9943745442833457</v>
       </c>
       <c r="D12">
-        <v>1.000752250814668</v>
+        <v>1.021794143154457</v>
       </c>
       <c r="E12">
-        <v>0.9851775615718468</v>
+        <v>1.003130010039203</v>
       </c>
       <c r="F12">
-        <v>0.9041690993015491</v>
+        <v>1.030093818418223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031205909382155</v>
+        <v>1.045072485990706</v>
       </c>
       <c r="J12">
-        <v>1.009291406844314</v>
+        <v>1.024418906506239</v>
       </c>
       <c r="K12">
-        <v>1.015865053063064</v>
+        <v>1.036515383285432</v>
       </c>
       <c r="L12">
-        <v>1.000594354356778</v>
+        <v>1.018197488676863</v>
       </c>
       <c r="M12">
-        <v>0.9213954017196528</v>
+        <v>1.044666319927063</v>
       </c>
       <c r="N12">
-        <v>1.010724716409376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012065408703237</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044731505337694</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036959182518071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790669971730499</v>
+        <v>0.9947172847384101</v>
       </c>
       <c r="D13">
-        <v>1.001175447056202</v>
+        <v>1.02213007417825</v>
       </c>
       <c r="E13">
-        <v>0.9856270782796783</v>
+        <v>1.003412477965826</v>
       </c>
       <c r="F13">
-        <v>0.9052539690153847</v>
+        <v>1.030763873857665</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031483381849709</v>
+        <v>1.045244921977499</v>
       </c>
       <c r="J13">
-        <v>1.009688511281647</v>
+        <v>1.02465346789254</v>
       </c>
       <c r="K13">
-        <v>1.01623620360351</v>
+        <v>1.036802579646805</v>
       </c>
       <c r="L13">
-        <v>1.000989941015419</v>
+        <v>1.018430775760298</v>
       </c>
       <c r="M13">
-        <v>0.9224020438759163</v>
+        <v>1.045282364780253</v>
       </c>
       <c r="N13">
-        <v>1.011122384780558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012162883736886</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045493740515205</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037159753024095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9807467058834908</v>
+        <v>0.9954072330333146</v>
       </c>
       <c r="D14">
-        <v>1.002552078904525</v>
+        <v>1.022637858179979</v>
       </c>
       <c r="E14">
-        <v>0.9870895511263706</v>
+        <v>1.003947341470012</v>
       </c>
       <c r="F14">
-        <v>0.9087675121024646</v>
+        <v>1.031485607059693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032384690172911</v>
+        <v>1.045452216898723</v>
       </c>
       <c r="J14">
-        <v>1.010979808187807</v>
+        <v>1.025008261675641</v>
       </c>
       <c r="K14">
-        <v>1.017442932618624</v>
+        <v>1.0371615490685</v>
       </c>
       <c r="L14">
-        <v>1.002276411519336</v>
+        <v>1.018812070369383</v>
       </c>
       <c r="M14">
-        <v>0.9256622158055661</v>
+        <v>1.045853437285179</v>
       </c>
       <c r="N14">
-        <v>1.012415515476439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012294593113517</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046117637869601</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037414975325536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817726401157112</v>
+        <v>0.9957948468244642</v>
       </c>
       <c r="D15">
-        <v>1.00339278215409</v>
+        <v>1.022900588288872</v>
       </c>
       <c r="E15">
-        <v>0.9879828378735357</v>
+        <v>1.004243135569209</v>
       </c>
       <c r="F15">
-        <v>0.9109018230312902</v>
+        <v>1.031800696110934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032934147828768</v>
+        <v>1.045549181520234</v>
       </c>
       <c r="J15">
-        <v>1.011768049343412</v>
+        <v>1.025191462751458</v>
       </c>
       <c r="K15">
-        <v>1.018179424435801</v>
+        <v>1.037333576956468</v>
       </c>
       <c r="L15">
-        <v>1.003061784841182</v>
+        <v>1.019013988434329</v>
       </c>
       <c r="M15">
-        <v>0.9276425946098311</v>
+        <v>1.046078082975791</v>
       </c>
       <c r="N15">
-        <v>1.013204876024897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012359099998488</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046332566260119</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037542458020736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9876143556740087</v>
+        <v>0.9978948553066668</v>
       </c>
       <c r="D16">
-        <v>1.008178244285988</v>
+        <v>1.024228876122784</v>
       </c>
       <c r="E16">
-        <v>0.9930697088786338</v>
+        <v>1.005827173756165</v>
       </c>
       <c r="F16">
-        <v>0.922895044984938</v>
+        <v>1.033164630332449</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03604797018437</v>
+        <v>1.045991577471603</v>
       </c>
       <c r="J16">
-        <v>1.01624975713657</v>
+        <v>1.026115192037888</v>
       </c>
       <c r="K16">
-        <v>1.022365142832639</v>
+        <v>1.038138594545389</v>
       </c>
       <c r="L16">
-        <v>1.00752818009904</v>
+        <v>1.02005563688236</v>
       </c>
       <c r="M16">
-        <v>0.9387702288187413</v>
+        <v>1.046924839980853</v>
       </c>
       <c r="N16">
-        <v>1.01769294835718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012666671407641</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046963300438628</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038114790947603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9911719725997136</v>
+        <v>0.9991477795405549</v>
       </c>
       <c r="D17">
-        <v>1.011091456188552</v>
+        <v>1.024984290774239</v>
       </c>
       <c r="E17">
-        <v>0.99616793358853</v>
+        <v>1.006766249564553</v>
       </c>
       <c r="F17">
-        <v>0.9300746301413405</v>
+        <v>1.033828768818371</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037932175641501</v>
+        <v>1.046220833953987</v>
       </c>
       <c r="J17">
-        <v>1.018973677581644</v>
+        <v>1.026638746762512</v>
       </c>
       <c r="K17">
-        <v>1.024907767216408</v>
+        <v>1.038567990994113</v>
       </c>
       <c r="L17">
-        <v>1.010243488089218</v>
+        <v>1.020656672973453</v>
       </c>
       <c r="M17">
-        <v>0.9454308408210345</v>
+        <v>1.047268562993771</v>
       </c>
       <c r="N17">
-        <v>1.020420737081725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012833788678301</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047106559671831</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038420971261419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9932112783887236</v>
+        <v>0.999780739630321</v>
       </c>
       <c r="D18">
-        <v>1.012761028896333</v>
+        <v>1.025292689561079</v>
       </c>
       <c r="E18">
-        <v>0.9979439830410518</v>
+        <v>1.007226998500112</v>
       </c>
       <c r="F18">
-        <v>0.9341507024686095</v>
+        <v>1.033897183608228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039008173512433</v>
+        <v>1.04627525349158</v>
       </c>
       <c r="J18">
-        <v>1.020533231691126</v>
+        <v>1.026852032917895</v>
       </c>
       <c r="K18">
-        <v>1.026363066826534</v>
+        <v>1.038688667253952</v>
       </c>
       <c r="L18">
-        <v>1.011798300641598</v>
+        <v>1.020922139775489</v>
       </c>
       <c r="M18">
-        <v>0.94921189403974</v>
+        <v>1.047155380848011</v>
       </c>
       <c r="N18">
-        <v>1.021982505936926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012889821629545</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046780644949679</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038494690614738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9939007883721565</v>
+        <v>0.9998555317875367</v>
       </c>
       <c r="D19">
-        <v>1.013325474889249</v>
+        <v>1.025202220609524</v>
       </c>
       <c r="E19">
-        <v>0.9985444934756095</v>
+        <v>1.007257452142994</v>
       </c>
       <c r="F19">
-        <v>0.9355226150458148</v>
+        <v>1.033421962303988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039371312497841</v>
+        <v>1.046176105051273</v>
       </c>
       <c r="J19">
-        <v>1.021060225820557</v>
+        <v>1.026789338907089</v>
       </c>
       <c r="K19">
-        <v>1.026854758650955</v>
+        <v>1.038537373124754</v>
       </c>
       <c r="L19">
-        <v>1.01232371963014</v>
+        <v>1.020888199704898</v>
       </c>
       <c r="M19">
-        <v>0.9504844372330585</v>
+        <v>1.046626104023567</v>
       </c>
       <c r="N19">
-        <v>1.022510248458467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012849468263908</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046038546261176</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038394098320119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9907940321748103</v>
+        <v>0.9983520943703549</v>
       </c>
       <c r="D20">
-        <v>1.010782010874867</v>
+        <v>1.023984174072293</v>
       </c>
       <c r="E20">
-        <v>0.9958387874854565</v>
+        <v>1.006070439307826</v>
       </c>
       <c r="F20">
-        <v>0.9293161269284891</v>
+        <v>1.031472921940544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037732438436015</v>
+        <v>1.045645834990734</v>
       </c>
       <c r="J20">
-        <v>1.01868449973134</v>
+        <v>1.025946688145272</v>
       </c>
       <c r="K20">
-        <v>1.024637884572898</v>
+        <v>1.037618005391155</v>
       </c>
       <c r="L20">
-        <v>1.009955203579986</v>
+        <v>1.020007380651928</v>
       </c>
       <c r="M20">
-        <v>0.944727203638282</v>
+        <v>1.044984047767077</v>
       </c>
       <c r="N20">
-        <v>1.020131148565704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012535906060382</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044214842804658</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037747981783534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9802539656645185</v>
+        <v>0.9944573979992861</v>
       </c>
       <c r="D21">
-        <v>1.00214827103435</v>
+        <v>1.021458121887939</v>
       </c>
       <c r="E21">
-        <v>0.9866605289868202</v>
+        <v>1.00311807160899</v>
       </c>
       <c r="F21">
-        <v>0.9077393088094109</v>
+        <v>1.028728336607551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032120513497129</v>
+        <v>1.044773050784786</v>
       </c>
       <c r="J21">
-        <v>1.010601104823322</v>
+        <v>1.024188694945861</v>
       </c>
       <c r="K21">
-        <v>1.017089057742607</v>
+        <v>1.036044056636079</v>
       </c>
       <c r="L21">
-        <v>1.001899106733679</v>
+        <v>1.018040610981952</v>
       </c>
       <c r="M21">
-        <v>0.9247081627143182</v>
+        <v>1.043185143206123</v>
       </c>
       <c r="N21">
-        <v>1.012036274309738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011939570824038</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042750531186125</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036638359730102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9732413758035328</v>
+        <v>0.9919768032929112</v>
       </c>
       <c r="D22">
-        <v>0.996398918382261</v>
+        <v>1.019862531225692</v>
       </c>
       <c r="E22">
-        <v>0.9805555145261446</v>
+        <v>1.001246222060603</v>
       </c>
       <c r="F22">
-        <v>0.8928726081082191</v>
+        <v>1.027033474102143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028340600189549</v>
+        <v>1.044217313361739</v>
       </c>
       <c r="J22">
-        <v>1.005202675990711</v>
+        <v>1.023073226770376</v>
       </c>
       <c r="K22">
-        <v>1.012042052545768</v>
+        <v>1.035050516254426</v>
       </c>
       <c r="L22">
-        <v>0.9965222688402655</v>
+        <v>1.016793031408493</v>
       </c>
       <c r="M22">
-        <v>0.9109135477450871</v>
+        <v>1.042087764514643</v>
       </c>
       <c r="N22">
-        <v>1.006630179088976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011561843276238</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041882031710026</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035922411266283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.976999043981825</v>
+        <v>0.993288386894456</v>
       </c>
       <c r="D23">
-        <v>0.999480276599882</v>
+        <v>1.020700095918648</v>
       </c>
       <c r="E23">
-        <v>0.9838266796904338</v>
+        <v>1.002234168164254</v>
       </c>
       <c r="F23">
-        <v>0.9008945672561132</v>
+        <v>1.027926469495486</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030370795187087</v>
+        <v>1.044507992683019</v>
       </c>
       <c r="J23">
-        <v>1.008097458079009</v>
+        <v>1.023659305787838</v>
       </c>
       <c r="K23">
-        <v>1.014748985949633</v>
+        <v>1.035568755836624</v>
       </c>
       <c r="L23">
-        <v>0.999405069122438</v>
+        <v>1.017449706664026</v>
       </c>
       <c r="M23">
-        <v>0.9183569849311299</v>
+        <v>1.04266379299925</v>
       </c>
       <c r="N23">
-        <v>1.009529072099875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011759609169079</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042337918618734</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036279216156921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909649171580628</v>
+        <v>0.9983773448605608</v>
       </c>
       <c r="D24">
-        <v>1.010921926995314</v>
+        <v>1.023971165741414</v>
       </c>
       <c r="E24">
-        <v>0.9959876099834218</v>
+        <v>1.006084284193944</v>
       </c>
       <c r="F24">
-        <v>0.9296592040612656</v>
+        <v>1.031412883256787</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037822761805075</v>
+        <v>1.045628646333701</v>
       </c>
       <c r="J24">
-        <v>1.0188152566597</v>
+        <v>1.025938000961793</v>
       </c>
       <c r="K24">
-        <v>1.024759918235383</v>
+        <v>1.037590003747863</v>
       </c>
       <c r="L24">
-        <v>1.010085555992686</v>
+        <v>1.020005388864499</v>
       </c>
       <c r="M24">
-        <v>0.9450454656387545</v>
+        <v>1.04490993124668</v>
       </c>
       <c r="N24">
-        <v>1.0202620911839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012529697567625</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044115579751999</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037700847075679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005782233383189</v>
+        <v>1.004111933360257</v>
       </c>
       <c r="D25">
-        <v>1.023048113370131</v>
+        <v>1.027680686177845</v>
       </c>
       <c r="E25">
-        <v>1.008892582884711</v>
+        <v>1.010452427350834</v>
       </c>
       <c r="F25">
-        <v>0.9587082153910144</v>
+        <v>1.035376273917909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045576254565792</v>
+        <v>1.046862895817041</v>
       </c>
       <c r="J25">
-        <v>1.030116557039258</v>
+        <v>1.028501702560683</v>
       </c>
       <c r="K25">
-        <v>1.035298870884378</v>
+        <v>1.039863971526251</v>
       </c>
       <c r="L25">
-        <v>1.021354403757848</v>
+        <v>1.022890621181646</v>
       </c>
       <c r="M25">
-        <v>0.9719832421282188</v>
+        <v>1.047449163376377</v>
       </c>
       <c r="N25">
-        <v>1.031579440706274</v>
+        <v>1.01339602183359</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046125198959548</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039305798065512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00853621859229</v>
+        <v>1.008117842732608</v>
       </c>
       <c r="D2">
-        <v>1.030543709327277</v>
+        <v>1.02957943848399</v>
       </c>
       <c r="E2">
-        <v>1.013842128951673</v>
+        <v>1.013485916341357</v>
       </c>
       <c r="F2">
-        <v>1.038453468820261</v>
+        <v>1.037785881511679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047780158725783</v>
+        <v>1.047378994455072</v>
       </c>
       <c r="J2">
-        <v>1.030464576377153</v>
+        <v>1.030058432185068</v>
       </c>
       <c r="K2">
-        <v>1.041593310254221</v>
+        <v>1.040641509580178</v>
       </c>
       <c r="L2">
-        <v>1.025111931276178</v>
+        <v>1.024760514488144</v>
       </c>
       <c r="M2">
-        <v>1.049401870385866</v>
+        <v>1.048742749920211</v>
       </c>
       <c r="N2">
-        <v>1.014057402295983</v>
+        <v>1.01517160466335</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047670622074016</v>
+        <v>1.047148977356561</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040480355144929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039816105418575</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022846981407241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011690561358673</v>
+        <v>1.011182900565074</v>
       </c>
       <c r="D3">
-        <v>1.032603554571989</v>
+        <v>1.03151782839642</v>
       </c>
       <c r="E3">
-        <v>1.016272891760523</v>
+        <v>1.015838280638707</v>
       </c>
       <c r="F3">
-        <v>1.04066561035211</v>
+        <v>1.03991303113045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048426148215063</v>
+        <v>1.04796388094374</v>
       </c>
       <c r="J3">
-        <v>1.031867525046817</v>
+        <v>1.03137328225579</v>
       </c>
       <c r="K3">
-        <v>1.042835593409035</v>
+        <v>1.041762710134025</v>
       </c>
       <c r="L3">
-        <v>1.026701707211359</v>
+        <v>1.026272440455674</v>
       </c>
       <c r="M3">
-        <v>1.050803320491108</v>
+        <v>1.050059470182743</v>
       </c>
       <c r="N3">
-        <v>1.01453109739189</v>
+        <v>1.015524185530213</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048779764146028</v>
+        <v>1.048191062928914</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041356092930995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.0406059540045</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023050439192303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01370080636012</v>
+        <v>1.013136748380975</v>
       </c>
       <c r="D4">
-        <v>1.033920765235798</v>
+        <v>1.032757926206545</v>
       </c>
       <c r="E4">
-        <v>1.017827641361372</v>
+        <v>1.017343452738215</v>
       </c>
       <c r="F4">
-        <v>1.042081989687038</v>
+        <v>1.041275538936919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048831243058566</v>
+        <v>1.048330167092145</v>
       </c>
       <c r="J4">
-        <v>1.032760420606574</v>
+        <v>1.032210281399657</v>
       </c>
       <c r="K4">
-        <v>1.043626333296563</v>
+        <v>1.042476435966835</v>
       </c>
       <c r="L4">
-        <v>1.027715560501772</v>
+        <v>1.027236968646595</v>
       </c>
       <c r="M4">
-        <v>1.051697725981158</v>
+        <v>1.050900074970882</v>
       </c>
       <c r="N4">
-        <v>1.014832556927136</v>
+        <v>1.015748647104275</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049487617776225</v>
+        <v>1.048856337959118</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041916103330217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041111592528407</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023177746103281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014541124642602</v>
+        <v>1.013953613671503</v>
       </c>
       <c r="D5">
-        <v>1.034474342698035</v>
+        <v>1.033279394178588</v>
       </c>
       <c r="E5">
-        <v>1.01847917654552</v>
+        <v>1.017974357952899</v>
       </c>
       <c r="F5">
-        <v>1.042676391686022</v>
+        <v>1.041847528175324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049000292153844</v>
+        <v>1.048483041549184</v>
       </c>
       <c r="J5">
-        <v>1.033134641736827</v>
+        <v>1.032561202961636</v>
       </c>
       <c r="K5">
-        <v>1.043959133073793</v>
+        <v>1.042777136189935</v>
       </c>
       <c r="L5">
-        <v>1.028140434550824</v>
+        <v>1.027641296573679</v>
       </c>
       <c r="M5">
-        <v>1.052073263616101</v>
+        <v>1.051253207791047</v>
       </c>
       <c r="N5">
-        <v>1.014959088553872</v>
+        <v>1.01584291162797</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049784826929848</v>
+        <v>1.049135815665505</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042158568728583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041332071255725</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023231287055699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014684732006457</v>
+        <v>1.014093227069808</v>
       </c>
       <c r="D6">
-        <v>1.034571329047711</v>
+        <v>1.03337096595718</v>
       </c>
       <c r="E6">
-        <v>1.018590953162435</v>
+        <v>1.018082619020138</v>
       </c>
       <c r="F6">
-        <v>1.042779006302275</v>
+        <v>1.041946362544006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049030693289438</v>
+        <v>1.048510700282523</v>
       </c>
       <c r="J6">
-        <v>1.033200133180091</v>
+        <v>1.032622724579226</v>
       </c>
       <c r="K6">
-        <v>1.044019038167938</v>
+        <v>1.042831626908938</v>
       </c>
       <c r="L6">
-        <v>1.028214167989355</v>
+        <v>1.027711527961903</v>
       </c>
       <c r="M6">
-        <v>1.052139132738237</v>
+        <v>1.051315297027708</v>
       </c>
       <c r="N6">
-        <v>1.014981466878586</v>
+        <v>1.015859623451838</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049836957261484</v>
+        <v>1.049184954552144</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042209645407059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041380186887357</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023241494862397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013719945295434</v>
+        <v>1.013161608876007</v>
       </c>
       <c r="D7">
-        <v>1.033939579419365</v>
+        <v>1.032780385021117</v>
       </c>
       <c r="E7">
-        <v>1.017843430385901</v>
+        <v>1.01736433299753</v>
       </c>
       <c r="F7">
-        <v>1.042098041941132</v>
+        <v>1.041294234179267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048839409980828</v>
+        <v>1.048340893617354</v>
       </c>
       <c r="J7">
-        <v>1.032773122857162</v>
+        <v>1.032228558193698</v>
       </c>
       <c r="K7">
-        <v>1.043642068454366</v>
+        <v>1.042495770261551</v>
       </c>
       <c r="L7">
-        <v>1.027728236321979</v>
+        <v>1.027254674752474</v>
       </c>
       <c r="M7">
-        <v>1.051710763196009</v>
+        <v>1.050915723060052</v>
       </c>
       <c r="N7">
-        <v>1.014837490068195</v>
+        <v>1.015779782966624</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049497935731011</v>
+        <v>1.048868722231004</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041947282463497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041147311931822</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023183162298409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009618590009843</v>
+        <v>1.00918863416264</v>
       </c>
       <c r="D8">
-        <v>1.031257247775795</v>
+        <v>1.030264362846734</v>
       </c>
       <c r="E8">
-        <v>1.014676268187238</v>
+        <v>1.014310132385047</v>
       </c>
       <c r="F8">
-        <v>1.039214278765707</v>
+        <v>1.038526955991997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048008499313544</v>
+        <v>1.047595248516731</v>
       </c>
       <c r="J8">
-        <v>1.030951409590497</v>
+        <v>1.030533610282504</v>
       </c>
       <c r="K8">
-        <v>1.04202983249313</v>
+        <v>1.041049413900188</v>
       </c>
       <c r="L8">
-        <v>1.025661043142393</v>
+        <v>1.0252996909131</v>
       </c>
       <c r="M8">
-        <v>1.049888028358229</v>
+        <v>1.049209168518783</v>
       </c>
       <c r="N8">
-        <v>1.014222614065945</v>
+        <v>1.015377847009037</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048055379634959</v>
+        <v>1.047518112948341</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040811854021235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04012963334711</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022924828933794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002134164791747</v>
+        <v>1.001921933153835</v>
       </c>
       <c r="D9">
-        <v>1.026389188105454</v>
+        <v>1.025687940293813</v>
       </c>
       <c r="E9">
-        <v>1.008940642793845</v>
+        <v>1.00876531815395</v>
       </c>
       <c r="F9">
-        <v>1.034001272937933</v>
+        <v>1.033518675757044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046434530943259</v>
+        <v>1.046168287944942</v>
       </c>
       <c r="J9">
-        <v>1.027611784636064</v>
+        <v>1.027407005078139</v>
       </c>
       <c r="K9">
-        <v>1.039068151555745</v>
+        <v>1.038377556767836</v>
       </c>
       <c r="L9">
-        <v>1.021890310821394</v>
+        <v>1.021717767112251</v>
       </c>
       <c r="M9">
-        <v>1.046565779636354</v>
+        <v>1.046090375211672</v>
       </c>
       <c r="N9">
-        <v>1.013094223614925</v>
+        <v>1.014548393494075</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045426065026702</v>
+        <v>1.045049816751456</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038714598919497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038237017447028</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022426297762909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9970047156220191</v>
+        <v>0.9969697763150861</v>
       </c>
       <c r="D10">
-        <v>1.023107485915238</v>
+        <v>1.022623240076937</v>
       </c>
       <c r="E10">
-        <v>1.005047123888839</v>
+        <v>1.005026969854282</v>
       </c>
       <c r="F10">
-        <v>1.030560678217383</v>
+        <v>1.030231445414422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04534595039784</v>
+        <v>1.04519204806129</v>
       </c>
       <c r="J10">
-        <v>1.025337679104096</v>
+        <v>1.025304137932654</v>
       </c>
       <c r="K10">
-        <v>1.037071695709431</v>
+        <v>1.036595695562477</v>
       </c>
       <c r="L10">
-        <v>1.019325845004025</v>
+        <v>1.019306050137317</v>
       </c>
       <c r="M10">
-        <v>1.044399235301382</v>
+        <v>1.044075503545611</v>
       </c>
       <c r="N10">
-        <v>1.012328962215708</v>
+        <v>1.014102861607729</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043762510723709</v>
+        <v>1.04350631562663</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0373197586574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036995581241779</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022090448588977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9950234065222872</v>
+        <v>0.9950786723377704</v>
       </c>
       <c r="D11">
-        <v>1.022058857542629</v>
+        <v>1.021661055894517</v>
       </c>
       <c r="E11">
-        <v>1.00359022968139</v>
+        <v>1.003648520895094</v>
       </c>
       <c r="F11">
-        <v>1.029983639452359</v>
+        <v>1.029715996903226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045091680588518</v>
+        <v>1.044985107446431</v>
       </c>
       <c r="J11">
-        <v>1.024604693193493</v>
+        <v>1.024657627184943</v>
       </c>
       <c r="K11">
-        <v>1.036576430403945</v>
+        <v>1.036185719838855</v>
       </c>
       <c r="L11">
-        <v>1.018444755654175</v>
+        <v>1.018501957904838</v>
       </c>
       <c r="M11">
-        <v>1.044361426054662</v>
+        <v>1.044098459017376</v>
       </c>
       <c r="N11">
-        <v>1.012107676833623</v>
+        <v>1.014175103538931</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044165951949512</v>
+        <v>1.04395794826575</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037002344582421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036741680156051</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022056266464031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9943745442833457</v>
+        <v>0.9944553577177517</v>
       </c>
       <c r="D12">
-        <v>1.021794143154457</v>
+        <v>1.02141682378805</v>
       </c>
       <c r="E12">
-        <v>1.003130010039203</v>
+        <v>1.003209910476772</v>
       </c>
       <c r="F12">
-        <v>1.030093818418223</v>
+        <v>1.029840694324269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045072485990706</v>
+        <v>1.044976762851596</v>
       </c>
       <c r="J12">
-        <v>1.024418906506239</v>
+        <v>1.024496244708354</v>
       </c>
       <c r="K12">
-        <v>1.036515383285432</v>
+        <v>1.036144900580895</v>
       </c>
       <c r="L12">
-        <v>1.018197488676863</v>
+        <v>1.018275870972844</v>
       </c>
       <c r="M12">
-        <v>1.044666319927063</v>
+        <v>1.044417686086766</v>
       </c>
       <c r="N12">
-        <v>1.012065408703237</v>
+        <v>1.01424715979172</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044731505337694</v>
+        <v>1.044534904799958</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036959182518071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03671282035152</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022078676123458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9947172847384101</v>
+        <v>0.9947664387453653</v>
       </c>
       <c r="D13">
-        <v>1.02213007417825</v>
+        <v>1.021717514389727</v>
       </c>
       <c r="E13">
-        <v>1.003412477965826</v>
+        <v>1.003463707479254</v>
       </c>
       <c r="F13">
-        <v>1.030763873857665</v>
+        <v>1.030485508231436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045244921977499</v>
+        <v>1.045128618192264</v>
       </c>
       <c r="J13">
-        <v>1.02465346789254</v>
+        <v>1.024700517840282</v>
       </c>
       <c r="K13">
-        <v>1.036802579646805</v>
+        <v>1.036397464044302</v>
       </c>
       <c r="L13">
-        <v>1.018430775760298</v>
+        <v>1.018481035837839</v>
       </c>
       <c r="M13">
-        <v>1.045282364780253</v>
+        <v>1.045008912584902</v>
       </c>
       <c r="N13">
-        <v>1.012162883736886</v>
+        <v>1.014292023785989</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045493740515205</v>
+        <v>1.045277569296887</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037159753024095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036888658585988</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022150821350096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9954072330333146</v>
+        <v>0.995408865849946</v>
       </c>
       <c r="D14">
-        <v>1.022637858179979</v>
+        <v>1.02217592594503</v>
       </c>
       <c r="E14">
-        <v>1.003947341470012</v>
+        <v>1.003956299719999</v>
       </c>
       <c r="F14">
-        <v>1.031485607059693</v>
+        <v>1.031172004303368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045452216898723</v>
+        <v>1.045307696670098</v>
       </c>
       <c r="J14">
-        <v>1.025008261675641</v>
+        <v>1.025009825570904</v>
       </c>
       <c r="K14">
-        <v>1.0371615490685</v>
+        <v>1.036707850380722</v>
       </c>
       <c r="L14">
-        <v>1.018812070369383</v>
+        <v>1.018820861191836</v>
       </c>
       <c r="M14">
-        <v>1.045853437285179</v>
+        <v>1.04554529970739</v>
       </c>
       <c r="N14">
-        <v>1.012294593113517</v>
+        <v>1.014312416505074</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046117637869601</v>
+        <v>1.045874079562317</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037414975325536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037109665302154</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022224096150498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9957948468244642</v>
+        <v>0.9957727673289857</v>
       </c>
       <c r="D15">
-        <v>1.022900588288872</v>
+        <v>1.022414512136375</v>
       </c>
       <c r="E15">
-        <v>1.004243135569209</v>
+        <v>1.004231176566799</v>
       </c>
       <c r="F15">
-        <v>1.031800696110934</v>
+        <v>1.031469907732184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045549181520234</v>
+        <v>1.045391064185492</v>
       </c>
       <c r="J15">
-        <v>1.025191462751458</v>
+        <v>1.025170307268574</v>
       </c>
       <c r="K15">
-        <v>1.037333576956468</v>
+        <v>1.036856100137053</v>
       </c>
       <c r="L15">
-        <v>1.019013988434329</v>
+        <v>1.019002251245689</v>
       </c>
       <c r="M15">
-        <v>1.046078082975791</v>
+        <v>1.045753015655952</v>
       </c>
       <c r="N15">
-        <v>1.012359099998488</v>
+        <v>1.014315811295633</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046332566260119</v>
+        <v>1.046075633065017</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037542458020736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037220904642275</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02225542617684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978948553066668</v>
+        <v>0.997762523724905</v>
       </c>
       <c r="D16">
-        <v>1.024228876122784</v>
+        <v>1.023629746655951</v>
       </c>
       <c r="E16">
-        <v>1.005827173756165</v>
+        <v>1.005718748395391</v>
       </c>
       <c r="F16">
-        <v>1.033164630332449</v>
+        <v>1.032753692897188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045991577471603</v>
+        <v>1.045771357237923</v>
       </c>
       <c r="J16">
-        <v>1.026115192037888</v>
+        <v>1.025988126282712</v>
       </c>
       <c r="K16">
-        <v>1.038138594545389</v>
+        <v>1.037549609937297</v>
       </c>
       <c r="L16">
-        <v>1.02005563688236</v>
+        <v>1.019949134455646</v>
       </c>
       <c r="M16">
-        <v>1.046924839980853</v>
+        <v>1.046520705095792</v>
       </c>
       <c r="N16">
-        <v>1.012666671407641</v>
+        <v>1.01432655371017</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046963300438628</v>
+        <v>1.046643863278617</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038114790947603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037714697741611</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022382859082013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9991477795405549</v>
+        <v>0.99896266485662</v>
       </c>
       <c r="D17">
-        <v>1.024984290774239</v>
+        <v>1.024328881443264</v>
       </c>
       <c r="E17">
-        <v>1.006766249564553</v>
+        <v>1.006611945918223</v>
       </c>
       <c r="F17">
-        <v>1.033828768818371</v>
+        <v>1.033378091581367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046220833953987</v>
+        <v>1.045970708729343</v>
       </c>
       <c r="J17">
-        <v>1.026638746762512</v>
+        <v>1.026460764771797</v>
       </c>
       <c r="K17">
-        <v>1.038567990994113</v>
+        <v>1.037923372877875</v>
       </c>
       <c r="L17">
-        <v>1.020656672973453</v>
+        <v>1.020505028534242</v>
       </c>
       <c r="M17">
-        <v>1.047268562993771</v>
+        <v>1.046825142170295</v>
       </c>
       <c r="N17">
-        <v>1.012833788678301</v>
+        <v>1.014352865146505</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047106559671831</v>
+        <v>1.046756035452159</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038420971261419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037981790996348</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022442766661276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.999780739630321</v>
+        <v>0.9995796584582676</v>
       </c>
       <c r="D18">
-        <v>1.025292689561079</v>
+        <v>1.024620179717144</v>
       </c>
       <c r="E18">
-        <v>1.007226998500112</v>
+        <v>1.007059266863631</v>
       </c>
       <c r="F18">
-        <v>1.033897183608228</v>
+        <v>1.033434498382096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04627525349158</v>
+        <v>1.046016965024297</v>
       </c>
       <c r="J18">
-        <v>1.026852032917895</v>
+        <v>1.026658555201213</v>
       </c>
       <c r="K18">
-        <v>1.038688667253952</v>
+        <v>1.038027051246698</v>
       </c>
       <c r="L18">
-        <v>1.020922139775489</v>
+        <v>1.020757250641126</v>
       </c>
       <c r="M18">
-        <v>1.047155380848011</v>
+        <v>1.04670002965682</v>
       </c>
       <c r="N18">
-        <v>1.012889821629545</v>
+        <v>1.01435384509051</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046780644949679</v>
+        <v>1.046420615501191</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038494690614738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03804235887756</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022441550054582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998555317875367</v>
+        <v>0.9996669606307402</v>
       </c>
       <c r="D19">
-        <v>1.025202220609524</v>
+        <v>1.024545236448228</v>
       </c>
       <c r="E19">
-        <v>1.007257452142994</v>
+        <v>1.007101353153149</v>
       </c>
       <c r="F19">
-        <v>1.033421962303988</v>
+        <v>1.032970258270932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046176105051273</v>
+        <v>1.045927238454596</v>
       </c>
       <c r="J19">
-        <v>1.026789338907089</v>
+        <v>1.026607854843532</v>
       </c>
       <c r="K19">
-        <v>1.038537373124754</v>
+        <v>1.037890976766931</v>
       </c>
       <c r="L19">
-        <v>1.020888199704898</v>
+        <v>1.020734731663327</v>
       </c>
       <c r="M19">
-        <v>1.046626104023567</v>
+        <v>1.046181530183571</v>
       </c>
       <c r="N19">
-        <v>1.012849468263908</v>
+        <v>1.01431523371709</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046038546261176</v>
+        <v>1.045686924507854</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038394098320119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037953151753238</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022387591050378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9983520943703549</v>
+        <v>0.9982529290090981</v>
       </c>
       <c r="D20">
-        <v>1.023984174072293</v>
+        <v>1.023431267906081</v>
       </c>
       <c r="E20">
-        <v>1.006070439307826</v>
+        <v>1.005993793663915</v>
       </c>
       <c r="F20">
-        <v>1.031472921940544</v>
+        <v>1.031094855512993</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045645834990734</v>
+        <v>1.045454281613598</v>
       </c>
       <c r="J20">
-        <v>1.025946688145272</v>
+        <v>1.025851363829301</v>
       </c>
       <c r="K20">
-        <v>1.037618005391155</v>
+        <v>1.037074250398538</v>
       </c>
       <c r="L20">
-        <v>1.020007380651928</v>
+        <v>1.019932061899849</v>
       </c>
       <c r="M20">
-        <v>1.044984047767077</v>
+        <v>1.044612121204765</v>
       </c>
       <c r="N20">
-        <v>1.012535906060382</v>
+        <v>1.014152869348066</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044214842804658</v>
+        <v>1.043920503719094</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037747981783534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037379996258958</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022183724718955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9944573979992861</v>
+        <v>0.9945820358893437</v>
       </c>
       <c r="D21">
-        <v>1.021458121887939</v>
+        <v>1.021132790999277</v>
       </c>
       <c r="E21">
-        <v>1.00311807160899</v>
+        <v>1.003238786687084</v>
       </c>
       <c r="F21">
-        <v>1.028728336607551</v>
+        <v>1.028512632700023</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044773050784786</v>
+        <v>1.044709288774562</v>
       </c>
       <c r="J21">
-        <v>1.024188694945861</v>
+        <v>1.024308039570056</v>
       </c>
       <c r="K21">
-        <v>1.036044056636079</v>
+        <v>1.035724559870404</v>
       </c>
       <c r="L21">
-        <v>1.018040610981952</v>
+        <v>1.018159057963335</v>
       </c>
       <c r="M21">
-        <v>1.043185143206123</v>
+        <v>1.042973236406048</v>
       </c>
       <c r="N21">
-        <v>1.011939570824038</v>
+        <v>1.014151917990687</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042750531186125</v>
+        <v>1.042582821663945</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036638359730102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036429259255376</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021924048372769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9919768032929112</v>
+        <v>0.9922419343960109</v>
       </c>
       <c r="D22">
-        <v>1.019862531225692</v>
+        <v>1.019680109109312</v>
       </c>
       <c r="E22">
-        <v>1.001246222060603</v>
+        <v>1.001490836900552</v>
       </c>
       <c r="F22">
-        <v>1.027033474102143</v>
+        <v>1.026919996331325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044217313361739</v>
+        <v>1.044233797183342</v>
       </c>
       <c r="J22">
-        <v>1.023073226770376</v>
+        <v>1.023326454116763</v>
       </c>
       <c r="K22">
-        <v>1.035050516254426</v>
+        <v>1.034871527244338</v>
       </c>
       <c r="L22">
-        <v>1.016793031408493</v>
+        <v>1.017032817761262</v>
       </c>
       <c r="M22">
-        <v>1.042087764514643</v>
+        <v>1.041976383463294</v>
       </c>
       <c r="N22">
-        <v>1.011561843276238</v>
+        <v>1.014144062177222</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041882031710026</v>
+        <v>1.041793881238994</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035922411266283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035811355468321</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021758999177185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.993288386894456</v>
+        <v>0.9934691808207994</v>
       </c>
       <c r="D23">
-        <v>1.020700095918648</v>
+        <v>1.020435083807244</v>
       </c>
       <c r="E23">
-        <v>1.002234168164254</v>
+        <v>1.002404277292695</v>
       </c>
       <c r="F23">
-        <v>1.027926469495486</v>
+        <v>1.027753795377215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044507992683019</v>
+        <v>1.044477283894943</v>
       </c>
       <c r="J23">
-        <v>1.023659305787838</v>
+        <v>1.023832216388264</v>
       </c>
       <c r="K23">
-        <v>1.035568755836624</v>
+        <v>1.035308606270303</v>
       </c>
       <c r="L23">
-        <v>1.017449706664026</v>
+        <v>1.017616543950434</v>
       </c>
       <c r="M23">
-        <v>1.04266379299925</v>
+        <v>1.04249422916828</v>
       </c>
       <c r="N23">
-        <v>1.011759609169079</v>
+        <v>1.014104515759496</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042337918618734</v>
+        <v>1.042203720544076</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036279216156921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036109835308187</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021841698910763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9983773448605608</v>
+        <v>0.9982789690329941</v>
       </c>
       <c r="D24">
-        <v>1.023971165741414</v>
+        <v>1.023419305635979</v>
       </c>
       <c r="E24">
-        <v>1.006084284193944</v>
+        <v>1.006008423075239</v>
       </c>
       <c r="F24">
-        <v>1.031412883256787</v>
+        <v>1.03103556277572</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045628646333701</v>
+        <v>1.045437844991953</v>
       </c>
       <c r="J24">
-        <v>1.025938000961793</v>
+        <v>1.025843429967379</v>
       </c>
       <c r="K24">
-        <v>1.037590003747863</v>
+        <v>1.037047266092703</v>
       </c>
       <c r="L24">
-        <v>1.020005388864499</v>
+        <v>1.019930839317429</v>
       </c>
       <c r="M24">
-        <v>1.04490993124668</v>
+        <v>1.044538731596253</v>
       </c>
       <c r="N24">
-        <v>1.012529697567625</v>
+        <v>1.014144408499781</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044115579751999</v>
+        <v>1.043821801521755</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037700847075679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037330911272017</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022172713520707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004111933360257</v>
+        <v>1.003834009599269</v>
       </c>
       <c r="D25">
-        <v>1.027680686177845</v>
+        <v>1.026897163969965</v>
       </c>
       <c r="E25">
-        <v>1.010452427350834</v>
+        <v>1.010219481255207</v>
       </c>
       <c r="F25">
-        <v>1.035376273917909</v>
+        <v>1.034835690393642</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046862895817041</v>
+        <v>1.046554183242562</v>
       </c>
       <c r="J25">
-        <v>1.028501702560683</v>
+        <v>1.028233029376917</v>
       </c>
       <c r="K25">
-        <v>1.039863971526251</v>
+        <v>1.03909180687495</v>
       </c>
       <c r="L25">
-        <v>1.022890621181646</v>
+        <v>1.022661197628212</v>
       </c>
       <c r="M25">
-        <v>1.047449163376377</v>
+        <v>1.04691626688038</v>
       </c>
       <c r="N25">
-        <v>1.01339602183359</v>
+        <v>1.01473814622106</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046125198959548</v>
+        <v>1.045703450249634</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039305798065512</v>
+        <v>1.038773343297766</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022563104479646</v>
       </c>
     </row>
   </sheetData>
